--- a/data_clean/DNB 11.12.2020.xlsx
+++ b/data_clean/DNB 11.12.2020.xlsx
@@ -1641,7 +1641,7 @@
         <v>0.932333880569243</v>
       </c>
       <c r="K2">
-        <v>46.88058961865369</v>
+        <v>-0.03119410381346337</v>
       </c>
       <c r="L2">
         <v>-0.002273883967415781</v>
@@ -1671,13 +1671,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1712,7 +1712,7 @@
         <v>0.932333880569243</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
         <v>0.05417389373802938</v>
@@ -1742,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1783,7 +1783,7 @@
         <v>0.932333880569243</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L4">
         <v>0.04557442897939998</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.00087651456561</v>
+        <v>0.0008765145656097761</v>
       </c>
       <c r="V4">
-        <v>1.00087651456561</v>
+        <v>0.0008765145656097761</v>
       </c>
       <c r="W4">
-        <v>1.000926497838172</v>
+        <v>0.0009264978381717803</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1854,7 +1854,7 @@
         <v>2.129583333333304</v>
       </c>
       <c r="K5">
-        <v>68.04686459858844</v>
+        <v>0.1804686459858844</v>
       </c>
       <c r="L5">
         <v>0.03243356086650576</v>
@@ -1884,13 +1884,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.9999742427364515</v>
+        <v>-2.575726354847596E-05</v>
       </c>
       <c r="V5">
-        <v>0.9999742427364515</v>
+        <v>-2.575726354847596E-05</v>
       </c>
       <c r="W5">
-        <v>0.9981487195310089</v>
+        <v>-0.001851280468991079</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1925,7 +1925,7 @@
         <v>1.25140463917529</v>
       </c>
       <c r="K6">
-        <v>55.58328420401988</v>
+        <v>0.05583284204019878</v>
       </c>
       <c r="L6">
         <v>0.0212027454638384</v>
@@ -1955,13 +1955,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.9997372691445793</v>
+        <v>-0.0002627308554207231</v>
       </c>
       <c r="V6">
-        <v>0.9997372691445793</v>
+        <v>-0.0002627308554207231</v>
       </c>
       <c r="W6">
-        <v>0.9987635239567234</v>
+        <v>-0.001236476043276591</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1996,7 +1996,7 @@
         <v>0.9440600695865889</v>
       </c>
       <c r="K7">
-        <v>48.56126023859677</v>
+        <v>-0.01438739761403235</v>
       </c>
       <c r="L7">
         <v>0.01216767117786679</v>
@@ -2026,13 +2026,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.9996702118888614</v>
+        <v>-0.0003297881111385959</v>
       </c>
       <c r="V7">
-        <v>0.9996702118888614</v>
+        <v>-0.0003297881111385959</v>
       </c>
       <c r="W7">
-        <v>0.9990714948932219</v>
+        <v>-0.0009285051067781103</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2067,7 +2067,7 @@
         <v>0.6597774101510278</v>
       </c>
       <c r="K8">
-        <v>39.75095733415198</v>
+        <v>-0.1024904266584802</v>
       </c>
       <c r="L8">
         <v>0.004006767646014589</v>
@@ -2097,13 +2097,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.9995434462444773</v>
+        <v>-0.0004565537555226706</v>
       </c>
       <c r="V8">
-        <v>0.9995434462444773</v>
+        <v>-0.0004565537555226706</v>
       </c>
       <c r="W8">
-        <v>0.998451053283767</v>
+        <v>-0.001548946716232957</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2138,7 +2138,7 @@
         <v>0.6597774101510278</v>
       </c>
       <c r="K9">
-        <v>39.75095733415198</v>
+        <v>-0.1024904266584802</v>
       </c>
       <c r="L9">
         <v>-0.002271290272884162</v>
@@ -2168,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.9996574282809529</v>
+        <v>-0.0003425717190470579</v>
       </c>
       <c r="V9">
-        <v>0.9996574282809529</v>
+        <v>-0.0003425717190470579</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2209,7 +2209,7 @@
         <v>0.6597774101510278</v>
       </c>
       <c r="K10">
-        <v>39.75095733415198</v>
+        <v>-0.1024904266584802</v>
       </c>
       <c r="L10">
         <v>-0.006845746428544764</v>
@@ -2239,13 +2239,13 @@
         <v>0.01805555555557703</v>
       </c>
       <c r="U10">
-        <v>0.999733464021942</v>
+        <v>-0.0002665359780580356</v>
       </c>
       <c r="V10">
-        <v>0.999733464021942</v>
+        <v>-0.0002665359780580356</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2280,7 +2280,7 @@
         <v>0.8002656321420254</v>
       </c>
       <c r="K11">
-        <v>44.45264175764098</v>
+        <v>-0.05547358242359018</v>
       </c>
       <c r="L11">
         <v>-0.009650673584633847</v>
@@ -2310,13 +2310,13 @@
         <v>-0.03874999999999318</v>
       </c>
       <c r="U11">
-        <v>0.9998486360039905</v>
+        <v>-0.000151363996009457</v>
       </c>
       <c r="V11">
-        <v>0.9998486360039905</v>
+        <v>-0.000151363996009457</v>
       </c>
       <c r="W11">
-        <v>1.000620539869687</v>
+        <v>0.000620539869686576</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2351,7 +2351,7 @@
         <v>1.022089140548885</v>
       </c>
       <c r="K12">
-        <v>50.54619601346776</v>
+        <v>0.00546196013467759</v>
       </c>
       <c r="L12">
         <v>-0.01074451892687883</v>
@@ -2381,13 +2381,13 @@
         <v>-0.1136363636363455</v>
       </c>
       <c r="U12">
-        <v>0.9999605893580007</v>
+        <v>-3.941064199930455E-05</v>
       </c>
       <c r="V12">
-        <v>0.9999605893580007</v>
+        <v>-3.941064199930455E-05</v>
       </c>
       <c r="W12">
-        <v>1.00093023255814</v>
+        <v>0.0009302325581395099</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2422,7 +2422,7 @@
         <v>1.022089140548885</v>
       </c>
       <c r="K13">
-        <v>50.54619601346776</v>
+        <v>0.00546196013467759</v>
       </c>
       <c r="L13">
         <v>-0.0108980392609774</v>
@@ -2452,13 +2452,13 @@
         <v>-0.1520833333333371</v>
       </c>
       <c r="U13">
-        <v>0.9999671565039506</v>
+        <v>-3.284349604937287E-05</v>
       </c>
       <c r="V13">
-        <v>0.9999671565039506</v>
+        <v>-3.284349604937287E-05</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2493,7 +2493,7 @@
         <v>0.8781901743303313</v>
       </c>
       <c r="K14">
-        <v>46.75725527333514</v>
+        <v>-0.03242744726664859</v>
       </c>
       <c r="L14">
         <v>-0.01085951282283676</v>
@@ -2523,13 +2523,13 @@
         <v>-0.1711538461538282</v>
       </c>
       <c r="U14">
-        <v>0.9999245657568239</v>
+        <v>-7.543424317613123E-05</v>
       </c>
       <c r="V14">
-        <v>0.9999245657568239</v>
+        <v>-7.543424317613123E-05</v>
       </c>
       <c r="W14">
-        <v>0.9993804213135069</v>
+        <v>-0.0006195786864930941</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2564,7 +2564,7 @@
         <v>0.8781901743303311</v>
       </c>
       <c r="K15">
-        <v>46.75725527333513</v>
+        <v>-0.03242744726664865</v>
       </c>
       <c r="L15">
         <v>-0.01067150533588747</v>
@@ -2594,13 +2594,13 @@
         <v>-0.1732142857142662</v>
       </c>
       <c r="U15">
-        <v>0.999935337199488</v>
+        <v>-6.466280051198314E-05</v>
       </c>
       <c r="V15">
-        <v>0.999935337199488</v>
+        <v>-6.466280051198314E-05</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2635,7 +2635,7 @@
         <v>0.8781901743303311</v>
       </c>
       <c r="K16">
-        <v>46.75725527333513</v>
+        <v>-0.03242744726664865</v>
       </c>
       <c r="L16">
         <v>-0.01036980572629155</v>
@@ -2665,13 +2665,13 @@
         <v>-0.1454166666666765</v>
       </c>
       <c r="U16">
-        <v>0.9999439552822147</v>
+        <v>-5.604471778530851E-05</v>
       </c>
       <c r="V16">
-        <v>0.9999439552822147</v>
+        <v>-5.604471778530851E-05</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2706,7 +2706,7 @@
         <v>0.8781901743303313</v>
       </c>
       <c r="K17">
-        <v>46.75725527333514</v>
+        <v>-0.03242744726664859</v>
       </c>
       <c r="L17">
         <v>-0.009983814449210014</v>
@@ -2736,13 +2736,13 @@
         <v>-0.1187500000000057</v>
       </c>
       <c r="U17">
-        <v>0.9999509581233997</v>
+        <v>-4.904187660026427E-05</v>
       </c>
       <c r="V17">
-        <v>0.9999793507887998</v>
+        <v>-2.064921120015217E-05</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2777,7 +2777,7 @@
         <v>0.6525878930825866</v>
       </c>
       <c r="K18">
-        <v>39.48884630065326</v>
+        <v>-0.1051115369934674</v>
       </c>
       <c r="L18">
         <v>-0.01007769373371283</v>
@@ -2807,13 +2807,13 @@
         <v>-0.109375</v>
       </c>
       <c r="U18">
-        <v>0.999883842490417</v>
+        <v>-0.000116157509583048</v>
       </c>
       <c r="V18">
-        <v>0.9996696057984182</v>
+        <v>-0.0003303942015817629</v>
       </c>
       <c r="W18">
-        <v>0.9987600743955362</v>
+        <v>-0.001239925604463843</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2848,7 +2848,7 @@
         <v>0.720191725505633</v>
       </c>
       <c r="K19">
-        <v>41.86694511008301</v>
+        <v>-0.08133054889916991</v>
       </c>
       <c r="L19">
         <v>-0.01024943715710265</v>
@@ -2878,13 +2878,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U19">
-        <v>0.9999139474046538</v>
+        <v>-8.60525953462199E-05</v>
       </c>
       <c r="V19">
-        <v>0.9996281836772635</v>
+        <v>-0.000371816322736529</v>
       </c>
       <c r="W19">
-        <v>1.000310366232154</v>
+        <v>0.0003103662321539691</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2919,7 +2919,7 @@
         <v>0.720191725505633</v>
       </c>
       <c r="K20">
-        <v>41.86694511008301</v>
+        <v>-0.08133054889916991</v>
       </c>
       <c r="L20">
         <v>-0.01040700199490689</v>
@@ -2949,13 +2949,13 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="U20">
-        <v>0.9999229989464443</v>
+        <v>-7.700105355568088E-05</v>
       </c>
       <c r="V20">
-        <v>0.9997520302523091</v>
+        <v>-0.0002479697476909237</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2990,7 +2990,7 @@
         <v>0.6700035713139942</v>
       </c>
       <c r="K21">
-        <v>40.11988853334135</v>
+        <v>-0.09880111466658648</v>
       </c>
       <c r="L21">
         <v>-0.01062679585395139</v>
@@ -3020,13 +3020,13 @@
         <v>-0.046875</v>
       </c>
       <c r="U21">
-        <v>0.9999152017220575</v>
+        <v>-8.479827794249939E-05</v>
       </c>
       <c r="V21">
-        <v>0.9998139765610471</v>
+        <v>-0.0001860234389529092</v>
       </c>
       <c r="W21">
-        <v>0.9996897300651566</v>
+        <v>-0.000310269934843399</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -3061,7 +3061,7 @@
         <v>0.5842833992902854</v>
       </c>
       <c r="K22">
-        <v>36.87997990460722</v>
+        <v>-0.1312002009539278</v>
       </c>
       <c r="L22">
         <v>-0.01106959816001252</v>
@@ -3091,13 +3091,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U22">
-        <v>0.9998937601813159</v>
+        <v>-0.000106239818684073</v>
       </c>
       <c r="V22">
-        <v>0.9998346150665672</v>
+        <v>-0.0001653849334327662</v>
       </c>
       <c r="W22">
-        <v>0.9993792675356922</v>
+        <v>-0.0006207324643078271</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3132,7 +3132,7 @@
         <v>0.486088502340552</v>
       </c>
       <c r="K23">
-        <v>32.70925665429581</v>
+        <v>-0.1729074334570418</v>
       </c>
       <c r="L23">
         <v>-0.01193027857816917</v>
@@ -3162,13 +3162,13 @@
         <v>-0.07187500000000568</v>
       </c>
       <c r="U23">
-        <v>0.9998611491218186</v>
+        <v>-0.0001388508781814402</v>
       </c>
       <c r="V23">
-        <v>0.9998759407824001</v>
+        <v>-0.0001240592175999478</v>
       </c>
       <c r="W23">
-        <v>0.9990683229813664</v>
+        <v>-0.0009316770186336143</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3203,7 +3203,7 @@
         <v>0.7219627363083595</v>
       </c>
       <c r="K24">
-        <v>41.92673401609978</v>
+        <v>-0.08073265983900219</v>
       </c>
       <c r="L24">
         <v>-0.01244475284076562</v>
@@ -3233,13 +3233,13 @@
         <v>-0.09687499999998295</v>
       </c>
       <c r="U24">
-        <v>0.9999271084791213</v>
+        <v>-7.289152087874839E-05</v>
       </c>
       <c r="V24">
-        <v>0.9999586417966002</v>
+        <v>-4.135820339978835E-05</v>
       </c>
       <c r="W24">
-        <v>1.001243394466895</v>
+        <v>0.001243394466894809</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3274,7 +3274,7 @@
         <v>0.7219627363083595</v>
       </c>
       <c r="K25">
-        <v>41.92673401609978</v>
+        <v>-0.08073265983900219</v>
       </c>
       <c r="L25">
         <v>-0.0126731360023847</v>
@@ -3304,13 +3304,13 @@
         <v>-0.1218749999999886</v>
       </c>
       <c r="U25">
-        <v>0.9999331779017638</v>
+        <v>-6.682209823616336E-05</v>
       </c>
       <c r="V25">
-        <v>0.9999586400860286</v>
+        <v>-4.135991397136163E-05</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3345,7 +3345,7 @@
         <v>0.6776834913252577</v>
       </c>
       <c r="K26">
-        <v>40.39400130175527</v>
+        <v>-0.09605998698244733</v>
       </c>
       <c r="L26">
         <v>-0.012787139051335</v>
@@ -3375,13 +3375,13 @@
         <v>-0.125</v>
       </c>
       <c r="U26">
-        <v>0.9999261201451765</v>
+        <v>-7.38798548235442E-05</v>
       </c>
       <c r="V26">
-        <v>0.9998965959382885</v>
+        <v>-0.0001034040617114984</v>
       </c>
       <c r="W26">
-        <v>0.999689537410742</v>
+        <v>-0.0003104625892580426</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3416,7 +3416,7 @@
         <v>0.6365856808589814</v>
       </c>
       <c r="K27">
-        <v>38.89718016626308</v>
+        <v>-0.1110281983373692</v>
       </c>
       <c r="L27">
         <v>-0.01289430645133076</v>
@@ -3446,13 +3446,13 @@
         <v>-0.1312499999999659</v>
       </c>
       <c r="U27">
-        <v>0.999919874775721</v>
+        <v>-8.012522427902624E-05</v>
       </c>
       <c r="V27">
-        <v>0.9998138534406089</v>
+        <v>-0.0001861465593910872</v>
       </c>
       <c r="W27">
-        <v>0.9996894409937888</v>
+        <v>-0.0003105590062112418</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3487,7 +3487,7 @@
         <v>0.8919311551174166</v>
       </c>
       <c r="K28">
-        <v>47.14395408653556</v>
+        <v>-0.02856045913464444</v>
       </c>
       <c r="L28">
         <v>-0.01247454384595643</v>
@@ -3517,13 +3517,13 @@
         <v>-0.1156249999999943</v>
       </c>
       <c r="U28">
-        <v>0.999971734869543</v>
+        <v>-2.826513045695034E-05</v>
       </c>
       <c r="V28">
-        <v>0.9998965659908979</v>
+        <v>-0.0001034340091020658</v>
       </c>
       <c r="W28">
-        <v>1.001242621932277</v>
+        <v>0.001242621932277199</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3558,7 +3558,7 @@
         <v>0.8919311551174166</v>
       </c>
       <c r="K29">
-        <v>47.14395408653556</v>
+        <v>-0.02856045913464444</v>
       </c>
       <c r="L29">
         <v>-0.01172188978125364</v>
@@ -3588,13 +3588,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U29">
-        <v>0.9999737530655601</v>
+        <v>-2.624693443986637E-05</v>
       </c>
       <c r="V29">
-        <v>0.999937933174718</v>
+        <v>-6.206682528198115E-05</v>
       </c>
       <c r="W29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3629,7 +3629,7 @@
         <v>0.8919311551174166</v>
       </c>
       <c r="K30">
-        <v>47.14395408653556</v>
+        <v>-0.02856045913464444</v>
       </c>
       <c r="L30">
         <v>-0.01077597021873143</v>
@@ -3659,13 +3659,13 @@
         <v>-0.06562499999998295</v>
       </c>
       <c r="U30">
-        <v>0.9999755625575615</v>
+        <v>-2.443744243851853E-05</v>
       </c>
       <c r="V30">
-        <v>0.9999379293221884</v>
+        <v>-6.20706778116098E-05</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3700,7 +3700,7 @@
         <v>1.040842351652421</v>
       </c>
       <c r="K31">
-        <v>51.00062485520628</v>
+        <v>0.01000624855206278</v>
       </c>
       <c r="L31">
         <v>-0.00950555203875955</v>
@@ -3730,13 +3730,13 @@
         <v>-0.01250000000001705</v>
       </c>
       <c r="U31">
-        <v>0.9999978616715315</v>
+        <v>-2.138328468515027E-06</v>
       </c>
       <c r="V31">
-        <v>0.9999793084897265</v>
+        <v>-2.069151027350724E-05</v>
       </c>
       <c r="W31">
-        <v>1.000620539869687</v>
+        <v>0.000620539869686576</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3771,7 +3771,7 @@
         <v>0.7478005688271288</v>
       </c>
       <c r="K32">
-        <v>42.78523432046624</v>
+        <v>-0.07214765679533763</v>
       </c>
       <c r="L32">
         <v>-0.008662180589434007</v>
@@ -3801,13 +3801,13 @@
         <v>0</v>
       </c>
       <c r="U32">
-        <v>0.9999276530654428</v>
+        <v>-7.23469345571548E-05</v>
       </c>
       <c r="V32">
-        <v>0.9998758483694752</v>
+        <v>-0.0001241516305248158</v>
       </c>
       <c r="W32">
-        <v>0.9984496124031008</v>
+        <v>-0.001550387596899183</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3842,7 +3842,7 @@
         <v>0.6349040975697436</v>
       </c>
       <c r="K33">
-        <v>38.83433276077278</v>
+        <v>-0.1116566723922722</v>
       </c>
       <c r="L33">
         <v>-0.008441381984718853</v>
@@ -3872,13 +3872,13 @@
         <v>0.003125000000011369</v>
       </c>
       <c r="U33">
-        <v>0.999782943492956</v>
+        <v>-0.0002170565070439556</v>
       </c>
       <c r="V33">
-        <v>0.9998965274616117</v>
+        <v>-0.0001034725383882718</v>
       </c>
       <c r="W33">
-        <v>0.9990683229813664</v>
+        <v>-0.0009316770186336143</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3913,7 +3913,7 @@
         <v>0.5478424897019538</v>
       </c>
       <c r="K34">
-        <v>35.39394307539936</v>
+        <v>-0.1460605692460064</v>
       </c>
       <c r="L34">
         <v>-0.00892085148883969</v>
@@ -3943,13 +3943,13 @@
         <v>-0.009374999999977263</v>
       </c>
       <c r="U34">
-        <v>0.9997208667604004</v>
+        <v>-0.0002791332395996049</v>
       </c>
       <c r="V34">
-        <v>0.9998137301570874</v>
+        <v>-0.0001862698429125897</v>
       </c>
       <c r="W34">
-        <v>0.999067454149829</v>
+        <v>-0.000932545850170996</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3984,7 +3984,7 @@
         <v>0.4997520979242606</v>
       </c>
       <c r="K35">
-        <v>33.32231364209758</v>
+        <v>-0.1667768635790242</v>
       </c>
       <c r="L35">
         <v>-0.009986226525156305</v>
@@ -4014,13 +4014,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U35">
-        <v>0.9997621534420532</v>
+        <v>-0.0002378465579467859</v>
       </c>
       <c r="V35">
-        <v>0.9997722944439849</v>
+        <v>-0.0002277055560151453</v>
       </c>
       <c r="W35">
-        <v>0.9993777224642191</v>
+        <v>-0.000622277535780924</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -4055,7 +4055,7 @@
         <v>0.5459528453842696</v>
       </c>
       <c r="K36">
-        <v>35.31497399900091</v>
+        <v>-0.1468502600099909</v>
       </c>
       <c r="L36">
         <v>-0.01118542014195729</v>
@@ -4085,13 +4085,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U36">
-        <v>0.9998138149320425</v>
+        <v>-0.0001861850679575339</v>
       </c>
       <c r="V36">
-        <v>0.9998136530219265</v>
+        <v>-0.000186346978073515</v>
       </c>
       <c r="W36">
-        <v>1.000311332503113</v>
+        <v>0.0003113325031134373</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -4126,7 +4126,7 @@
         <v>0.4975580001013572</v>
       </c>
       <c r="K37">
-        <v>33.22462302412873</v>
+        <v>-0.1677537697587127</v>
       </c>
       <c r="L37">
         <v>-0.01257488247569286</v>
@@ -4156,13 +4156,13 @@
         <v>-0.09062499999998863</v>
       </c>
       <c r="U37">
-        <v>0.9998241258017796</v>
+        <v>-0.0001758741982204048</v>
       </c>
       <c r="V37">
-        <v>0.9998136182902584</v>
+        <v>-0.0001863817097416121</v>
       </c>
       <c r="W37">
-        <v>0.9993775287892935</v>
+        <v>-0.0006224712107064656</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4197,7 +4197,7 @@
         <v>0.4550939486437909</v>
       </c>
       <c r="K38">
-        <v>31.27591514403298</v>
+        <v>-0.1872408485596702</v>
       </c>
       <c r="L38">
         <v>-0.01417144114516843</v>
@@ -4227,13 +4227,13 @@
         <v>-0.1437499999999829</v>
       </c>
       <c r="U38">
-        <v>0.9998551369473215</v>
+        <v>-0.0001448630526784678</v>
       </c>
       <c r="V38">
-        <v>0.9998342964850142</v>
+        <v>-0.0001657035149857933</v>
       </c>
       <c r="W38">
-        <v>0.9993771410775458</v>
+        <v>-0.0006228589224541725</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4268,7 +4268,7 @@
         <v>0.6347674802729412</v>
       </c>
       <c r="K39">
-        <v>38.82922115425004</v>
+        <v>-0.1117077884574996</v>
       </c>
       <c r="L39">
         <v>-0.01528466812564193</v>
@@ -4298,13 +4298,13 @@
         <v>-0.2062500000000114</v>
       </c>
       <c r="U39">
-        <v>0.9998965113992693</v>
+        <v>-0.0001034886007307279</v>
       </c>
       <c r="V39">
-        <v>0.9998342690228089</v>
+        <v>-0.0001657309771910809</v>
       </c>
       <c r="W39">
-        <v>1.001246494234964</v>
+        <v>0.001246494234964368</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4339,7 +4339,7 @@
         <v>0.5559126471718805</v>
       </c>
       <c r="K40">
-        <v>35.72903968499391</v>
+        <v>-0.1427096031500609</v>
       </c>
       <c r="L40">
         <v>-0.01631934888893674</v>
@@ -4369,13 +4369,13 @@
         <v>-0.2343750000000284</v>
       </c>
       <c r="U40">
-        <v>0.9998654508947517</v>
+        <v>-0.0001345491052483494</v>
       </c>
       <c r="V40">
-        <v>0.9997720821333113</v>
+        <v>-0.0002279178666887427</v>
       </c>
       <c r="W40">
-        <v>0.9990662931839402</v>
+        <v>-0.0009337068160597539</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4410,7 +4410,7 @@
         <v>0.5113362121394164</v>
       </c>
       <c r="K41">
-        <v>33.83338584970311</v>
+        <v>-0.1616661415029689</v>
       </c>
       <c r="L41">
         <v>-0.0174078267642535</v>
@@ -4440,13 +4440,13 @@
         <v>-0.25</v>
       </c>
       <c r="U41">
-        <v>0.9998240274931164</v>
+        <v>-0.0001759725068836149</v>
       </c>
       <c r="V41">
-        <v>0.9997513056453619</v>
+        <v>-0.0002486943546381459</v>
       </c>
       <c r="W41">
-        <v>0.9993769470404985</v>
+        <v>-0.0006230529595014911</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4481,7 +4481,7 @@
         <v>0.4538717219949324</v>
       </c>
       <c r="K42">
-        <v>31.2181408530425</v>
+        <v>-0.187818591469575</v>
       </c>
       <c r="L42">
         <v>-0.01873618649788274</v>
@@ -4511,13 +4511,13 @@
         <v>-0.2593750000000057</v>
       </c>
       <c r="U42">
-        <v>0.9997618776465228</v>
+        <v>-0.0002381223534771992</v>
       </c>
       <c r="V42">
-        <v>0.999709784411277</v>
+        <v>-0.0002902155887229974</v>
       </c>
       <c r="W42">
-        <v>0.9990648379052369</v>
+        <v>-0.0009351620947630757</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4552,7 +4552,7 @@
         <v>0.4538717219949324</v>
       </c>
       <c r="K43">
-        <v>31.2181408530425</v>
+        <v>-0.187818591469575</v>
       </c>
       <c r="L43">
         <v>-0.02005677806816907</v>
@@ -4582,13 +4582,13 @@
         <v>-0.2593750000000057</v>
       </c>
       <c r="U43">
-        <v>0.9997618209307626</v>
+        <v>-0.0002381790692373986</v>
       </c>
       <c r="V43">
-        <v>0.9996267573508064</v>
+        <v>-0.0003732426491935836</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4623,7 +4623,7 @@
         <v>0.4953790275898519</v>
       </c>
       <c r="K44">
-        <v>33.12732213372482</v>
+        <v>-0.1687267786627518</v>
       </c>
       <c r="L44">
         <v>-0.02110217436232086</v>
@@ -4653,13 +4653,13 @@
         <v>-0.2500000000000284</v>
       </c>
       <c r="U44">
-        <v>0.9997928384243288</v>
+        <v>-0.0002071615756712442</v>
       </c>
       <c r="V44">
-        <v>0.9996473614337871</v>
+        <v>-0.0003526385662129261</v>
       </c>
       <c r="W44">
-        <v>1.000312012480499</v>
+        <v>0.0003120124804993907</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4694,7 +4694,7 @@
         <v>0.6264547294684953</v>
       </c>
       <c r="K45">
-        <v>38.51657953450771</v>
+        <v>-0.1148342046549229</v>
       </c>
       <c r="L45">
         <v>-0.02149757137953751</v>
@@ -4724,13 +4724,13 @@
         <v>-0.21875</v>
       </c>
       <c r="U45">
-        <v>0.9998238761745907</v>
+        <v>-0.0001761238254093245</v>
       </c>
       <c r="V45">
-        <v>0.9997094893237326</v>
+        <v>-0.000290510676267397</v>
       </c>
       <c r="W45">
-        <v>1.00093574547723</v>
+        <v>0.0009357454772300766</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4765,7 +4765,7 @@
         <v>0.5989099766436955</v>
       </c>
       <c r="K46">
-        <v>37.45739193527829</v>
+        <v>-0.1254260806472171</v>
       </c>
       <c r="L46">
         <v>-0.02150927695766628</v>
@@ -4795,13 +4795,13 @@
         <v>-0.1781249999999943</v>
       </c>
       <c r="U46">
-        <v>0.9998134830994964</v>
+        <v>-0.0001865169005036416</v>
       </c>
       <c r="V46">
-        <v>0.9996471345247732</v>
+        <v>-0.0003528654752268379</v>
       </c>
       <c r="W46">
-        <v>0.9996883764412591</v>
+        <v>-0.0003116235587409255</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4836,7 +4836,7 @@
         <v>0.5724165715475328</v>
       </c>
       <c r="K47">
-        <v>36.40362114628281</v>
+        <v>-0.1359637885371719</v>
       </c>
       <c r="L47">
         <v>-0.0213229401552354</v>
@@ -4866,13 +4866,13 @@
         <v>-0.1593749999999829</v>
       </c>
       <c r="U47">
-        <v>0.9998030843213666</v>
+        <v>-0.0001969156786334469</v>
       </c>
       <c r="V47">
-        <v>0.9997300664451826</v>
+        <v>-0.0002699335548174142</v>
       </c>
       <c r="W47">
-        <v>0.9996882793017455</v>
+        <v>-0.0003117206982544696</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4907,7 +4907,7 @@
         <v>0.6655450747471019</v>
       </c>
       <c r="K48">
-        <v>39.95959550047957</v>
+        <v>-0.1004040449952043</v>
       </c>
       <c r="L48">
         <v>-0.0207243040546211</v>
@@ -4937,13 +4937,13 @@
         <v>-0.1312499999999659</v>
       </c>
       <c r="U48">
-        <v>0.9998652416838569</v>
+        <v>-0.0001347583161430688</v>
       </c>
       <c r="V48">
-        <v>0.9998338421916214</v>
+        <v>-0.0001661578083785864</v>
       </c>
       <c r="W48">
-        <v>1.000623635796695</v>
+        <v>0.000623635796694666</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4978,7 +4978,7 @@
         <v>0.7635750781150972</v>
       </c>
       <c r="K49">
-        <v>43.29699866995192</v>
+        <v>-0.06703001330048081</v>
       </c>
       <c r="L49">
         <v>-0.01961193235327289</v>
@@ -5008,13 +5008,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U49">
-        <v>0.9998755909430208</v>
+        <v>-0.0001244090569791911</v>
       </c>
       <c r="V49">
-        <v>0.9999376804669813</v>
+        <v>-6.231953301871762E-05</v>
       </c>
       <c r="W49">
-        <v>1.000623247117482</v>
+        <v>0.0006232471174822951</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -5049,7 +5049,7 @@
         <v>0.7261115428562857</v>
       </c>
       <c r="K50">
-        <v>42.0663163896553</v>
+        <v>-0.07933683610344699</v>
       </c>
       <c r="L50">
         <v>-0.01830107638293826</v>
@@ -5079,13 +5079,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U50">
-        <v>0.9998652067521047</v>
+        <v>-0.0001347932478953373</v>
       </c>
       <c r="V50">
-        <v>0.9999584510553431</v>
+        <v>-4.154894465691061E-05</v>
       </c>
       <c r="W50">
-        <v>0.9996885705387729</v>
+        <v>-0.0003114294612270863</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -5120,7 +5120,7 @@
         <v>0.6904526927411524</v>
       </c>
       <c r="K51">
-        <v>40.84424815352563</v>
+        <v>-0.09155751846474369</v>
       </c>
       <c r="L51">
         <v>-0.01700017170368837</v>
@@ -5150,13 +5150,13 @@
         <v>-0.01562499999997158</v>
       </c>
       <c r="U51">
-        <v>0.9998651885804358</v>
+        <v>-0.0001348114195641736</v>
       </c>
       <c r="V51">
-        <v>0.9999168986579134</v>
+        <v>-8.310134208655562E-05</v>
       </c>
       <c r="W51">
-        <v>0.9996884735202491</v>
+        <v>-0.0003115264797508566</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5191,7 +5191,7 @@
         <v>0.6904526927411524</v>
       </c>
       <c r="K52">
-        <v>40.84424815352563</v>
+        <v>-0.09155751846474369</v>
       </c>
       <c r="L52">
         <v>-0.01572628343201132</v>
@@ -5221,13 +5221,13 @@
         <v>0.015625</v>
       </c>
       <c r="U52">
-        <v>0.9998859134186562</v>
+        <v>-0.0001140865813438197</v>
       </c>
       <c r="V52">
-        <v>0.9999584458757532</v>
+        <v>-4.155412424677873E-05</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5262,7 +5262,7 @@
         <v>0.7448674609018147</v>
       </c>
       <c r="K53">
-        <v>42.68905676748872</v>
+        <v>-0.07310943232511286</v>
       </c>
       <c r="L53">
         <v>-0.01437930428712504</v>
@@ -5292,13 +5292,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U53">
-        <v>0.9999273911645419</v>
+        <v>-7.260883545812113E-05</v>
       </c>
       <c r="V53">
-        <v>1.000020777925532</v>
+        <v>2.077792553190072E-05</v>
       </c>
       <c r="W53">
-        <v>1.000311623558741</v>
+        <v>0.0003116235587410365</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5333,7 +5333,7 @@
         <v>0.6060194319008414</v>
       </c>
       <c r="K54">
-        <v>37.73425276576966</v>
+        <v>-0.1226574723423034</v>
       </c>
       <c r="L54">
         <v>-0.01347495386512978</v>
@@ -5363,13 +5363,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U54">
-        <v>0.9998443983402491</v>
+        <v>-0.0001556016597509258</v>
       </c>
       <c r="V54">
-        <v>0.9998545575432691</v>
+        <v>-0.000145442456730871</v>
       </c>
       <c r="W54">
-        <v>0.9987538940809969</v>
+        <v>-0.001246105919003093</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5404,7 +5404,7 @@
         <v>0.5518756772217639</v>
       </c>
       <c r="K55">
-        <v>35.56184849869908</v>
+        <v>-0.1443815150130092</v>
       </c>
       <c r="L55">
         <v>-0.01307416985197251</v>
@@ -5434,13 +5434,13 @@
         <v>0.03125</v>
       </c>
       <c r="U55">
-        <v>0.9998236240078848</v>
+        <v>-0.0001763759921151742</v>
       </c>
       <c r="V55">
-        <v>0.999875316902872</v>
+        <v>-0.0001246830971279866</v>
       </c>
       <c r="W55">
-        <v>0.9993761696818464</v>
+        <v>-0.0006238303181536065</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5475,7 +5475,7 @@
         <v>0.5988984482566883</v>
       </c>
       <c r="K56">
-        <v>37.45694099019732</v>
+        <v>-0.1254305900980268</v>
       </c>
       <c r="L56">
         <v>-0.01284315368882131</v>
@@ -5505,13 +5505,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U56">
-        <v>0.9998443466710941</v>
+        <v>-0.0001556533289058804</v>
       </c>
       <c r="V56">
-        <v>0.9999376506775292</v>
+        <v>-6.23493224708449E-05</v>
       </c>
       <c r="W56">
-        <v>1.000312109862672</v>
+        <v>0.0003121098626717167</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5546,7 +5546,7 @@
         <v>0.6978937556986062</v>
       </c>
       <c r="K57">
-        <v>41.10349975410885</v>
+        <v>-0.08896500245891148</v>
       </c>
       <c r="L57">
         <v>-0.01245624799780989</v>
@@ -5576,13 +5576,13 @@
         <v>0</v>
       </c>
       <c r="U57">
-        <v>0.9998754579514908</v>
+        <v>-0.0001245420485092019</v>
       </c>
       <c r="V57">
-        <v>1.000041568806767</v>
+        <v>4.156880676742247E-05</v>
       </c>
       <c r="W57">
-        <v>1.000624024960998</v>
+        <v>0.0006240249609983373</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5617,7 +5617,7 @@
         <v>0.7499965490891042</v>
       </c>
       <c r="K58">
-        <v>42.85703017411589</v>
+        <v>-0.0714296982588411</v>
       </c>
       <c r="L58">
         <v>-0.01184079951606909</v>
@@ -5647,13 +5647,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U58">
-        <v>0.9998443030485467</v>
+        <v>-0.0001556969514533435</v>
       </c>
       <c r="V58">
-        <v>1.00006235061831</v>
+        <v>6.235061831039168E-05</v>
       </c>
       <c r="W58">
-        <v>1.000311817898347</v>
+        <v>0.000311817898347444</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5688,7 +5688,7 @@
         <v>0.6758612651733985</v>
       </c>
       <c r="K59">
-        <v>40.3291894871422</v>
+        <v>-0.09670810512857797</v>
       </c>
       <c r="L59">
         <v>-0.01130978675532024</v>
@@ -5718,13 +5718,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U59">
-        <v>0.9998235159769946</v>
+        <v>-0.0001764840230054077</v>
       </c>
       <c r="V59">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W59">
-        <v>0.9993765586034913</v>
+        <v>-0.0006234413965087171</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5759,7 +5759,7 @@
         <v>0.6424384070340867</v>
       </c>
       <c r="K60">
-        <v>39.11491622959556</v>
+        <v>-0.1088508377040444</v>
       </c>
       <c r="L60">
         <v>-0.01093604430292381</v>
@@ -5789,13 +5789,13 @@
         <v>-0.06562499999998295</v>
       </c>
       <c r="U60">
-        <v>0.9998131015792918</v>
+        <v>-0.0001868984207081814</v>
       </c>
       <c r="V60">
-        <v>0.9999168710253959</v>
+        <v>-8.3128974604052E-05</v>
       </c>
       <c r="W60">
-        <v>0.9996880848409232</v>
+        <v>-0.0003119151590768032</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5830,7 +5830,7 @@
         <v>0.6944934037457141</v>
       </c>
       <c r="K61">
-        <v>40.98531172859815</v>
+        <v>-0.09014688271401849</v>
       </c>
       <c r="L61">
         <v>-0.01052820688317302</v>
@@ -5860,13 +5860,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U61">
-        <v>0.9998026814551724</v>
+        <v>-0.0001973185448276293</v>
       </c>
       <c r="V61">
-        <v>0.9999584320571975</v>
+        <v>-4.156794280252285E-05</v>
       </c>
       <c r="W61">
-        <v>1.000312012480499</v>
+        <v>0.0003120124804993907</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5901,7 +5901,7 @@
         <v>0.6584156914775581</v>
       </c>
       <c r="K62">
-        <v>39.70148707957204</v>
+        <v>-0.1029851292042796</v>
       </c>
       <c r="L62">
         <v>-0.0102008251319176</v>
@@ -5931,13 +5931,13 @@
         <v>-0.078125</v>
       </c>
       <c r="U62">
-        <v>0.9998441914575369</v>
+        <v>-0.0001558085424631095</v>
       </c>
       <c r="V62">
-        <v>0.9999584303292318</v>
+        <v>-4.15696707681823E-05</v>
       </c>
       <c r="W62">
-        <v>0.9996880848409232</v>
+        <v>-0.0003119151590768032</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5972,7 +5972,7 @@
         <v>0.8224627754014927</v>
       </c>
       <c r="K63">
-        <v>45.12919476340483</v>
+        <v>-0.04870805236595177</v>
       </c>
       <c r="L63">
         <v>-0.0095655923689149</v>
@@ -6002,13 +6002,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U63">
-        <v>0.9999065003064711</v>
+        <v>-9.349969352889786E-05</v>
       </c>
       <c r="V63">
-        <v>0.9999792143005612</v>
+        <v>-2.07856994387523E-05</v>
       </c>
       <c r="W63">
-        <v>1.000936037441498</v>
+        <v>0.0009360374414977279</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -6043,7 +6043,7 @@
         <v>0.9375835360498571</v>
       </c>
       <c r="K64">
-        <v>48.38932198821757</v>
+        <v>-0.01610678011782424</v>
       </c>
       <c r="L64">
         <v>-0.008522514488077714</v>
@@ -6073,13 +6073,13 @@
         <v>-0.02812500000001705</v>
       </c>
       <c r="U64">
-        <v>0.9999584406948716</v>
+        <v>-4.155930512839134E-05</v>
       </c>
       <c r="V64">
-        <v>0.999979213868507</v>
+        <v>-2.078613149303354E-05</v>
       </c>
       <c r="W64">
-        <v>1.000623441396509</v>
+        <v>0.0006234413965087171</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -6114,7 +6114,7 @@
         <v>1.119353158126239</v>
       </c>
       <c r="K65">
-        <v>52.81579211252741</v>
+        <v>0.02815792112527415</v>
       </c>
       <c r="L65">
         <v>-0.006927269014795175</v>
@@ -6144,13 +6144,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U65">
-        <v>1.000010390258094</v>
+        <v>1.039025809390637E-05</v>
       </c>
       <c r="V65">
-        <v>1.000062359690696</v>
+        <v>6.235969069590119E-05</v>
       </c>
       <c r="W65">
-        <v>1.000934579439252</v>
+        <v>0.0009345794392523477</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6185,7 +6185,7 @@
         <v>1.183131972889857</v>
       </c>
       <c r="K66">
-        <v>54.19424879402599</v>
+        <v>0.0419424879402599</v>
       </c>
       <c r="L66">
         <v>-0.004960317299235871</v>
@@ -6215,13 +6215,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U66">
-        <v>1.000010390150138</v>
+        <v>1.039015013759581E-05</v>
       </c>
       <c r="V66">
-        <v>1.000103926337012</v>
+        <v>0.0001039263370123944</v>
       </c>
       <c r="W66">
-        <v>1.000311235605353</v>
+        <v>0.0003112356053531773</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6256,7 +6256,7 @@
         <v>1.250267567377915</v>
       </c>
       <c r="K67">
-        <v>55.56084020864983</v>
+        <v>0.05560840208649831</v>
       </c>
       <c r="L67">
         <v>-0.002761897181512074</v>
@@ -6286,13 +6286,13 @@
         <v>0.06562499999998295</v>
       </c>
       <c r="U67">
-        <v>1.000041560168734</v>
+        <v>4.156016873424484E-05</v>
       </c>
       <c r="V67">
-        <v>1.000124698644941</v>
+        <v>0.0001246986449412457</v>
       </c>
       <c r="W67">
-        <v>1.00031113876789</v>
+        <v>0.000311138767890462</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6327,7 +6327,7 @@
         <v>1.03156782300303</v>
       </c>
       <c r="K68">
-        <v>50.77693254061208</v>
+        <v>0.007769325406120853</v>
       </c>
       <c r="L68">
         <v>-0.0008937270259392067</v>
@@ -6357,13 +6357,13 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="U68">
-        <v>1.000031168831169</v>
+        <v>3.116883116871527E-05</v>
       </c>
       <c r="V68">
-        <v>1.000041561032376</v>
+        <v>4.156103237606956E-05</v>
       </c>
       <c r="W68">
-        <v>0.9990668740279938</v>
+        <v>-0.0009331259720062324</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6398,7 +6398,7 @@
         <v>0.9187846805877216</v>
       </c>
       <c r="K69">
-        <v>47.88367813663693</v>
+        <v>-0.02116321863363069</v>
       </c>
       <c r="L69">
         <v>0.0004315476654296336</v>
@@ -6428,13 +6428,13 @@
         <v>0.125</v>
       </c>
       <c r="U69">
-        <v>0.999968832140297</v>
+        <v>-3.11678597030296E-05</v>
       </c>
       <c r="V69">
-        <v>1.000083118610257</v>
+        <v>8.311861025700473E-05</v>
       </c>
       <c r="W69">
-        <v>0.9993773349937733</v>
+        <v>-0.0006226650062266526</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6469,7 +6469,7 @@
         <v>0.8687917613940336</v>
       </c>
       <c r="K70">
-        <v>46.48949012628108</v>
+        <v>-0.03510509873718914</v>
       </c>
       <c r="L70">
         <v>0.001228370878362674</v>
@@ -6499,13 +6499,13 @@
         <v>0.1406249999999716</v>
       </c>
       <c r="U70">
-        <v>0.9999896103896104</v>
+        <v>-1.038961038957176E-05</v>
       </c>
       <c r="V70">
-        <v>1.00010388962766</v>
+        <v>0.0001038896276595036</v>
       </c>
       <c r="W70">
-        <v>0.9996884735202491</v>
+        <v>-0.0003115264797508566</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6540,7 +6540,7 @@
         <v>0.8687917613940336</v>
       </c>
       <c r="K71">
-        <v>46.48949012628108</v>
+        <v>-0.03510509873718914</v>
       </c>
       <c r="L71">
         <v>0.00164978010442408</v>
@@ -6570,13 +6570,13 @@
         <v>0.1312499999999943</v>
       </c>
       <c r="U71">
-        <v>1.000010389718335</v>
+        <v>1.038971833478008E-05</v>
       </c>
       <c r="V71">
-        <v>1.000083103068581</v>
+        <v>8.310306858083649E-05</v>
       </c>
       <c r="W71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6611,7 +6611,7 @@
         <v>0.8193904541676387</v>
       </c>
       <c r="K72">
-        <v>45.03653695064072</v>
+        <v>-0.04963463049359279</v>
       </c>
       <c r="L72">
         <v>0.001697415056276442</v>
@@ -6641,13 +6641,13 @@
         <v>0.109375</v>
       </c>
       <c r="U72">
-        <v>1.000031168831169</v>
+        <v>3.116883116871527E-05</v>
       </c>
       <c r="V72">
-        <v>1.000020774040759</v>
+        <v>2.077404075873091E-05</v>
       </c>
       <c r="W72">
-        <v>0.9996883764412591</v>
+        <v>-0.0003116235587409255</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6682,7 +6682,7 @@
         <v>0.7731157488195131</v>
       </c>
       <c r="K73">
-        <v>43.60210264525766</v>
+        <v>-0.06397897354742343</v>
       </c>
       <c r="L73">
         <v>0.001395929469634214</v>
@@ -6712,13 +6712,13 @@
         <v>0.07187500000000568</v>
       </c>
       <c r="U73">
-        <v>1.000020778573136</v>
+        <v>2.077857313564913E-05</v>
       </c>
       <c r="V73">
-        <v>0.999979226390793</v>
+        <v>-2.077360920704763E-05</v>
       </c>
       <c r="W73">
-        <v>0.9996882793017455</v>
+        <v>-0.0003117206982544696</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6753,7 +6753,7 @@
         <v>0.7297352556049534</v>
       </c>
       <c r="K74">
-        <v>42.18768468991733</v>
+        <v>-0.07812315310082668</v>
       </c>
       <c r="L74">
         <v>0.0007836104321927682</v>
@@ -6783,13 +6783,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V74">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W74">
-        <v>0.9996881821016528</v>
+        <v>-0.000311817898347222</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6824,7 +6824,7 @@
         <v>0.7887997322214009</v>
       </c>
       <c r="K75">
-        <v>44.09659270475397</v>
+        <v>-0.05903407295246027</v>
       </c>
       <c r="L75">
         <v>0.0001326309072781878</v>
@@ -6854,13 +6854,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U75">
-        <v>0.9999792218586046</v>
+        <v>-2.077814139544998E-05</v>
       </c>
       <c r="V75">
-        <v>1.000041548081517</v>
+        <v>4.154808151723977E-05</v>
       </c>
       <c r="W75">
-        <v>1.000311915159077</v>
+        <v>0.0003119151590766922</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6895,7 +6895,7 @@
         <v>0.7887997322214009</v>
       </c>
       <c r="K76">
-        <v>44.09659270475397</v>
+        <v>-0.05903407295246027</v>
       </c>
       <c r="L76">
         <v>-0.0005007744110475351</v>
@@ -6925,13 +6925,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U76">
-        <v>0.9999896107134325</v>
+        <v>-1.03892865674915E-05</v>
       </c>
       <c r="V76">
-        <v>1.000020773177673</v>
+        <v>2.077317767290587E-05</v>
       </c>
       <c r="W76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6966,7 +6966,7 @@
         <v>0.9196905391276927</v>
       </c>
       <c r="K77">
-        <v>47.90827064999758</v>
+        <v>-0.02091729350002419</v>
       </c>
       <c r="L77">
         <v>-0.0008544098953535715</v>
@@ -6996,13 +6996,13 @@
         <v>-0.07812499999997158</v>
       </c>
       <c r="U77">
-        <v>1.000020778789012</v>
+        <v>2.077878901207697E-05</v>
       </c>
       <c r="V77">
-        <v>1.000083090984628</v>
+        <v>8.309098462810915E-05</v>
       </c>
       <c r="W77">
-        <v>1.000623635796695</v>
+        <v>0.000623635796694666</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -7037,7 +7037,7 @@
         <v>0.8604165317014389</v>
       </c>
       <c r="K78">
-        <v>46.24859632453101</v>
+        <v>-0.03751403675468995</v>
       </c>
       <c r="L78">
         <v>-0.001126384785634288</v>
@@ -7067,13 +7067,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U78">
-        <v>0.9999896108213685</v>
+        <v>-1.038917863149802E-05</v>
       </c>
       <c r="V78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W78">
-        <v>0.9996883764412591</v>
+        <v>-0.0003116235587409255</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -7108,7 +7108,7 @@
         <v>0.8604165317014389</v>
       </c>
       <c r="K79">
-        <v>46.24859632453101</v>
+        <v>-0.03751403675468995</v>
       </c>
       <c r="L79">
         <v>-0.001327458308236456</v>
@@ -7138,13 +7138,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U79">
-        <v>0.999968832140297</v>
+        <v>-3.11678597030296E-05</v>
       </c>
       <c r="V79">
-        <v>0.999958457959455</v>
+        <v>-4.15420405449618E-05</v>
       </c>
       <c r="W79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7179,7 +7179,7 @@
         <v>1.003241901238715</v>
       </c>
       <c r="K80">
-        <v>50.08091636952857</v>
+        <v>0.0008091636952856085</v>
       </c>
       <c r="L80">
         <v>-0.001240981247045428</v>
@@ -7209,13 +7209,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V80">
-        <v>0.999937684350463</v>
+        <v>-6.231564953695923E-05</v>
       </c>
       <c r="W80">
-        <v>1.000623441396509</v>
+        <v>0.0006234413965087171</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7250,7 +7250,7 @@
         <v>0.9330996377753464</v>
       </c>
       <c r="K81">
-        <v>48.26960905383946</v>
+        <v>-0.01730390946160543</v>
       </c>
       <c r="L81">
         <v>-0.001094759456448592</v>
@@ -7280,13 +7280,13 @@
         <v>-0.06249999999997158</v>
       </c>
       <c r="U81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V81">
-        <v>0.9998961341116351</v>
+        <v>-0.0001038658883648624</v>
       </c>
       <c r="W81">
-        <v>0.9996884735202491</v>
+        <v>-0.0003115264797508566</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7321,7 +7321,7 @@
         <v>0.9330996377753464</v>
       </c>
       <c r="K82">
-        <v>48.26960905383946</v>
+        <v>-0.01730390946160543</v>
       </c>
       <c r="L82">
         <v>-0.0009176718415197944</v>
@@ -7351,13 +7351,13 @@
         <v>-0.02812500000001705</v>
       </c>
       <c r="U82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V82">
-        <v>0.9998753479868701</v>
+        <v>-0.0001246520131299445</v>
       </c>
       <c r="W82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7392,7 +7392,7 @@
         <v>0.9330996377753463</v>
       </c>
       <c r="K83">
-        <v>48.26960905383945</v>
+        <v>-0.01730390946160548</v>
       </c>
       <c r="L83">
         <v>-0.0007298265483330918</v>
@@ -7422,13 +7422,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U83">
-        <v>0.9999896103896104</v>
+        <v>-1.038961038957176E-05</v>
       </c>
       <c r="V83">
-        <v>0.9999376662234042</v>
+        <v>-6.233377659581318E-05</v>
       </c>
       <c r="W83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7463,7 +7463,7 @@
         <v>1.014645757011643</v>
       </c>
       <c r="K84">
-        <v>50.36348218937921</v>
+        <v>0.003634821893792162</v>
       </c>
       <c r="L84">
         <v>-0.0004312954017607239</v>
@@ -7493,13 +7493,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U84">
-        <v>1.000041558873339</v>
+        <v>4.155887333889829E-05</v>
       </c>
       <c r="V84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W84">
-        <v>1.000311623558741</v>
+        <v>0.0003116235587410365</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7534,7 +7534,7 @@
         <v>1.100483777260375</v>
       </c>
       <c r="K85">
-        <v>52.39191986027702</v>
+        <v>0.02391919860277025</v>
       </c>
       <c r="L85">
         <v>3.032186584286722E-05</v>
@@ -7564,13 +7564,13 @@
         <v>0.03749999999996589</v>
       </c>
       <c r="U85">
-        <v>1.000072725005974</v>
+        <v>7.272500597399478E-05</v>
       </c>
       <c r="V85">
-        <v>1.000041558441559</v>
+        <v>4.155844155850907E-05</v>
       </c>
       <c r="W85">
-        <v>1.000311526479751</v>
+        <v>0.0003115264797508566</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7605,7 +7605,7 @@
         <v>1.009288680238164</v>
       </c>
       <c r="K86">
-        <v>50.23114349693801</v>
+        <v>0.002311434969380133</v>
       </c>
       <c r="L86">
         <v>0.0004477324884548921</v>
@@ -7635,13 +7635,13 @@
         <v>0.04687500000002842</v>
       </c>
       <c r="U86">
-        <v>1.000051942655309</v>
+        <v>5.194265530850117E-05</v>
       </c>
       <c r="V86">
-        <v>1.000020778357263</v>
+        <v>2.077835726321808E-05</v>
       </c>
       <c r="W86">
-        <v>0.9996885705387729</v>
+        <v>-0.0003114294612270863</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7676,7 +7676,7 @@
         <v>0.9283123025410421</v>
       </c>
       <c r="K87">
-        <v>48.14118031180708</v>
+        <v>-0.01858819688192914</v>
       </c>
       <c r="L87">
         <v>0.0006966475315244715</v>
@@ -7706,13 +7706,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U87">
-        <v>1.000020775982964</v>
+        <v>2.07759829635723E-05</v>
       </c>
       <c r="V87">
-        <v>1.000020777925532</v>
+        <v>2.077792553167868E-05</v>
       </c>
       <c r="W87">
-        <v>0.9996884735202491</v>
+        <v>-0.0003115264797508566</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7747,7 +7747,7 @@
         <v>0.8560182820318291</v>
       </c>
       <c r="K88">
-        <v>46.12122037368752</v>
+        <v>-0.03878779626312479</v>
       </c>
       <c r="L88">
         <v>0.0007116042593176885</v>
@@ -7777,13 +7777,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V88">
-        <v>1.000020777493819</v>
+        <v>2.077749381879102E-05</v>
       </c>
       <c r="W88">
-        <v>0.9996883764412591</v>
+        <v>-0.0003116235587409255</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7818,7 +7818,7 @@
         <v>0.7911622708344495</v>
       </c>
       <c r="K89">
-        <v>44.17032916095706</v>
+        <v>-0.05829670839042939</v>
       </c>
       <c r="L89">
         <v>0.0004678033530261678</v>
@@ -7848,13 +7848,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U89">
-        <v>1.000010387775666</v>
+        <v>1.038777566564342E-05</v>
       </c>
       <c r="V89">
-        <v>1.000020777062123</v>
+        <v>2.077706212322283E-05</v>
       </c>
       <c r="W89">
-        <v>0.9996882793017455</v>
+        <v>-0.0003117206982544696</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7889,7 +7889,7 @@
         <v>0.7327256636944681</v>
       </c>
       <c r="K90">
-        <v>42.28745952386781</v>
+        <v>-0.0771254047613219</v>
       </c>
       <c r="L90">
         <v>-3.240068434415865E-05</v>
@@ -7919,13 +7919,13 @@
         <v>0.009375000000005684</v>
       </c>
       <c r="U90">
-        <v>1.000010387667761</v>
+        <v>1.038766776084721E-05</v>
       </c>
       <c r="V90">
-        <v>0.9999792233695541</v>
+        <v>-2.077663044586231E-05</v>
       </c>
       <c r="W90">
-        <v>0.9996881821016528</v>
+        <v>-0.000311817898347222</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7960,7 +7960,7 @@
         <v>0.634120902874553</v>
       </c>
       <c r="K91">
-        <v>38.80501753322427</v>
+        <v>-0.1119498246677573</v>
       </c>
       <c r="L91">
         <v>-0.0008829044094206137</v>
@@ -7990,13 +7990,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U91">
-        <v>0.9999792248802833</v>
+        <v>-2.077511971665391E-05</v>
       </c>
       <c r="V91">
-        <v>0.9999376688136297</v>
+        <v>-6.233118637033463E-05</v>
       </c>
       <c r="W91">
-        <v>0.9993761696818464</v>
+        <v>-0.0006238303181536065</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -8031,7 +8031,7 @@
         <v>0.5921783008516442</v>
       </c>
       <c r="K92">
-        <v>37.1929639120752</v>
+        <v>-0.128070360879248</v>
       </c>
       <c r="L92">
         <v>-0.002001713789085761</v>
@@ -8061,13 +8061,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U92">
-        <v>0.9999792244486686</v>
+        <v>-2.077555133139786E-05</v>
       </c>
       <c r="V92">
-        <v>0.9998753298564217</v>
+        <v>-0.0001246701435783093</v>
       </c>
       <c r="W92">
-        <v>0.9996878901373284</v>
+        <v>-0.0003121098626716057</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -8102,7 +8102,7 @@
         <v>0.5921783008516444</v>
       </c>
       <c r="K93">
-        <v>37.19296391207521</v>
+        <v>-0.1280703608792479</v>
       </c>
       <c r="L93">
         <v>-0.003204534114656458</v>
@@ -8132,13 +8132,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U93">
-        <v>0.999948060042591</v>
+        <v>-5.193995740904178E-05</v>
       </c>
       <c r="V93">
-        <v>0.9998960952598659</v>
+        <v>-0.0001039047401341087</v>
       </c>
       <c r="W93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -8173,7 +8173,7 @@
         <v>0.5921783008516444</v>
       </c>
       <c r="K94">
-        <v>37.19296391207521</v>
+        <v>-0.1280703608792479</v>
       </c>
       <c r="L94">
         <v>-0.004370003394447911</v>
@@ -8203,13 +8203,13 @@
         <v>-0.1031250000000341</v>
       </c>
       <c r="U94">
-        <v>0.9999272802825679</v>
+        <v>-7.271971743205707E-05</v>
       </c>
       <c r="V94">
-        <v>0.9998960844625487</v>
+        <v>-0.0001039155374512601</v>
       </c>
       <c r="W94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8244,7 +8244,7 @@
         <v>0.5921783008516444</v>
       </c>
       <c r="K95">
-        <v>37.19296391207521</v>
+        <v>-0.1280703608792479</v>
       </c>
       <c r="L95">
         <v>-0.005422743801114381</v>
@@ -8274,13 +8274,13 @@
         <v>-0.1249999999999716</v>
       </c>
       <c r="U95">
-        <v>0.9998961071343233</v>
+        <v>-0.0001038928656766913</v>
       </c>
       <c r="V95">
-        <v>0.9998545031281827</v>
+        <v>-0.0001454968718173077</v>
       </c>
       <c r="W95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8315,7 +8315,7 @@
         <v>0.6733844430254911</v>
       </c>
       <c r="K96">
-        <v>40.24086908612627</v>
+        <v>-0.09759130913873731</v>
       </c>
       <c r="L96">
         <v>-0.006206943610248791</v>
@@ -8345,13 +8345,13 @@
         <v>-0.1312499999999943</v>
       </c>
       <c r="U96">
-        <v>0.9998960963394737</v>
+        <v>-0.0001039036605262611</v>
       </c>
       <c r="V96">
-        <v>0.9998960585398304</v>
+        <v>-0.0001039414601695654</v>
       </c>
       <c r="W96">
-        <v>1.000312207305651</v>
+        <v>0.0003122073056507357</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8386,7 +8386,7 @@
         <v>0.6733844430254909</v>
       </c>
       <c r="K97">
-        <v>40.24086908612627</v>
+        <v>-0.09759130913873731</v>
       </c>
       <c r="L97">
         <v>-0.006755928179511636</v>
@@ -8416,13 +8416,13 @@
         <v>-0.1343750000000057</v>
       </c>
       <c r="U97">
-        <v>0.9998856940966195</v>
+        <v>-0.0001143059033804628</v>
       </c>
       <c r="V97">
-        <v>0.9998960477348801</v>
+        <v>-0.0001039522651199443</v>
       </c>
       <c r="W97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8457,7 +8457,7 @@
         <v>0.5706849932741086</v>
       </c>
       <c r="K98">
-        <v>36.33351026576692</v>
+        <v>-0.1366648973423308</v>
       </c>
       <c r="L98">
         <v>-0.007329885420707271</v>
@@ -8487,13 +8487,13 @@
         <v>-0.1374999999999886</v>
       </c>
       <c r="U98">
-        <v>0.9998960736629879</v>
+        <v>-0.0001039263370120613</v>
       </c>
       <c r="V98">
-        <v>0.9998544516987565</v>
+        <v>-0.00014554830124347</v>
       </c>
       <c r="W98">
-        <v>0.9993757802746567</v>
+        <v>-0.0006242197253433224</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8528,7 +8528,7 @@
         <v>0.6509546557741389</v>
       </c>
       <c r="K99">
-        <v>39.42898452707072</v>
+        <v>-0.1057101547292927</v>
       </c>
       <c r="L99">
         <v>-0.007742270621707644</v>
@@ -8558,13 +8558,13 @@
         <v>-0.125</v>
       </c>
       <c r="U99">
-        <v>0.999927244002827</v>
+        <v>-7.275599717304626E-05</v>
       </c>
       <c r="V99">
-        <v>0.9998544305113649</v>
+        <v>-0.0001455694886350889</v>
       </c>
       <c r="W99">
-        <v>1.000312304809494</v>
+        <v>0.0003123048094941794</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8599,7 +8599,7 @@
         <v>0.6509546557741389</v>
       </c>
       <c r="K100">
-        <v>39.42898452707072</v>
+        <v>-0.1057101547292927</v>
       </c>
       <c r="L100">
         <v>-0.00800234261145054</v>
@@ -8629,13 +8629,13 @@
         <v>-0.1031250000000057</v>
       </c>
       <c r="U100">
-        <v>0.9999376331791485</v>
+        <v>-6.236682085147827E-05</v>
       </c>
       <c r="V100">
-        <v>0.9998336106489183</v>
+        <v>-0.0001663893510817083</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8670,7 +8670,7 @@
         <v>0.6509546557741389</v>
       </c>
       <c r="K101">
-        <v>39.42898452707072</v>
+        <v>-0.1057101547292927</v>
       </c>
       <c r="L101">
         <v>-0.008124459375571923</v>
@@ -8700,13 +8700,13 @@
         <v>-0.078125</v>
       </c>
       <c r="U101">
-        <v>0.999937629289286</v>
+        <v>-6.237071071402145E-05</v>
       </c>
       <c r="V101">
-        <v>0.9998543850890332</v>
+        <v>-0.0001456149109667626</v>
       </c>
       <c r="W101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8741,7 +8741,7 @@
         <v>0.548290002691871</v>
       </c>
       <c r="K102">
-        <v>35.4126166117852</v>
+        <v>-0.145873833882148</v>
       </c>
       <c r="L102">
         <v>-0.008352749176623927</v>
@@ -8771,13 +8771,13 @@
         <v>-0.06249999999997158</v>
       </c>
       <c r="U102">
-        <v>0.9999272296320937</v>
+        <v>-7.27703679063163E-05</v>
       </c>
       <c r="V102">
-        <v>0.9998335587225632</v>
+        <v>-0.0001664412774368129</v>
       </c>
       <c r="W102">
-        <v>0.9993755853886981</v>
+        <v>-0.0006244146113019156</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8812,7 +8812,7 @@
         <v>0.5062661830078354</v>
       </c>
       <c r="K103">
-        <v>33.61067178690035</v>
+        <v>-0.1638932821309965</v>
       </c>
       <c r="L103">
         <v>-0.008714036909458576</v>
@@ -8842,13 +8842,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U103">
-        <v>0.9999272243361821</v>
+        <v>-7.277566381791445E-05</v>
       </c>
       <c r="V103">
-        <v>0.9998335310152527</v>
+        <v>-0.0001664689847472589</v>
       </c>
       <c r="W103">
-        <v>0.9996875976257419</v>
+        <v>-0.0003124023742581139</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8883,7 +8883,7 @@
         <v>0.3827472218878809</v>
       </c>
       <c r="K104">
-        <v>27.68020183510561</v>
+        <v>-0.2231979816489439</v>
       </c>
       <c r="L104">
         <v>-0.009555512675546765</v>
@@ -8913,13 +8913,13 @@
         <v>-0.06562499999998295</v>
       </c>
       <c r="U104">
-        <v>0.9998960271992847</v>
+        <v>-0.0001039728007152796</v>
       </c>
       <c r="V104">
-        <v>0.9997710670357344</v>
+        <v>-0.0002289329642656268</v>
       </c>
       <c r="W104">
-        <v>0.99875</v>
+        <v>-0.001249999999999973</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8954,7 +8954,7 @@
         <v>0.3827472218878808</v>
       </c>
       <c r="K105">
-        <v>27.68020183510559</v>
+        <v>-0.2231979816489441</v>
       </c>
       <c r="L105">
         <v>-0.01059972796877723</v>
@@ -8984,13 +8984,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U105">
-        <v>0.9998856180265988</v>
+        <v>-0.0001143819734011897</v>
       </c>
       <c r="V105">
-        <v>0.9997918314667555</v>
+        <v>-0.0002081685332444572</v>
       </c>
       <c r="W105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -9025,7 +9025,7 @@
         <v>0.3585170066887198</v>
       </c>
       <c r="K106">
-        <v>26.39032157297591</v>
+        <v>-0.2360967842702409</v>
       </c>
       <c r="L106">
         <v>-0.01177545797660192</v>
@@ -9055,13 +9055,13 @@
         <v>-0.09062500000001705</v>
       </c>
       <c r="U106">
-        <v>0.9998752053911271</v>
+        <v>-0.0001247946088729357</v>
       </c>
       <c r="V106">
-        <v>0.9998126093112353</v>
+        <v>-0.0001873906887647214</v>
       </c>
       <c r="W106">
-        <v>0.9996871088861076</v>
+        <v>-0.0003128911138924328</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -9096,7 +9096,7 @@
         <v>0.3361187431714875</v>
       </c>
       <c r="K107">
-        <v>25.15635267368953</v>
+        <v>-0.2484364732631048</v>
       </c>
       <c r="L107">
         <v>-0.01302693915002255</v>
@@ -9126,13 +9126,13 @@
         <v>-0.1156249999999943</v>
       </c>
       <c r="U107">
-        <v>0.9998439872693612</v>
+        <v>-0.0001560127306388104</v>
       </c>
       <c r="V107">
-        <v>0.9998125741893832</v>
+        <v>-0.0001874258106168147</v>
       </c>
       <c r="W107">
-        <v>0.9996870109546165</v>
+        <v>-0.0003129890453834605</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -9167,7 +9167,7 @@
         <v>0.2970491179232935</v>
       </c>
       <c r="K108">
-        <v>22.9019174230579</v>
+        <v>-0.2709808257694211</v>
       </c>
       <c r="L108">
         <v>-0.01442466954247622</v>
@@ -9197,13 +9197,13 @@
         <v>-0.1500000000000057</v>
       </c>
       <c r="U108">
-        <v>0.999833560453964</v>
+        <v>-0.0001664395460360124</v>
       </c>
       <c r="V108">
-        <v>0.9997708810664443</v>
+        <v>-0.0002291189335557053</v>
       </c>
       <c r="W108">
-        <v>0.9993738259236068</v>
+        <v>-0.0006261740763932044</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9238,7 +9238,7 @@
         <v>0.3582267852646796</v>
       </c>
       <c r="K109">
-        <v>26.37459289943774</v>
+        <v>-0.2362540710056226</v>
       </c>
       <c r="L109">
         <v>-0.01565617456322677</v>
@@ -9268,13 +9268,13 @@
         <v>-0.1812500000000057</v>
       </c>
       <c r="U109">
-        <v>0.999843936950528</v>
+        <v>-0.0001560630494720217</v>
       </c>
       <c r="V109">
-        <v>0.9997916623262985</v>
+        <v>-0.0002083376737015419</v>
       </c>
       <c r="W109">
-        <v>1.00031328320802</v>
+        <v>0.0003132832080201542</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9309,7 +9309,7 @@
         <v>0.422624329834523</v>
       </c>
       <c r="K110">
-        <v>29.70737396876109</v>
+        <v>-0.2029262603123891</v>
       </c>
       <c r="L110">
         <v>-0.01653814446638113</v>
@@ -9339,13 +9339,13 @@
         <v>-0.1968749999999773</v>
       </c>
       <c r="U110">
-        <v>0.9998335067637879</v>
+        <v>-0.0001664932362120952</v>
       </c>
       <c r="V110">
-        <v>0.9998124570214009</v>
+        <v>-0.0001875429785991312</v>
       </c>
       <c r="W110">
-        <v>1.000313185092389</v>
+        <v>0.000313185092389423</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9380,7 +9380,7 @@
         <v>0.4904112188554494</v>
       </c>
       <c r="K111">
-        <v>32.90442346723995</v>
+        <v>-0.1709557653276005</v>
       </c>
       <c r="L111">
         <v>-0.01697845477745654</v>
@@ -9410,13 +9410,13 @@
         <v>-0.203125</v>
       </c>
       <c r="U111">
-        <v>0.9998542941592773</v>
+        <v>-0.0001457058407227096</v>
       </c>
       <c r="V111">
-        <v>0.9998124218424341</v>
+        <v>-0.0001875781575658708</v>
       </c>
       <c r="W111">
-        <v>1.000313087038197</v>
+        <v>0.0003130870381966577</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9451,7 +9451,7 @@
         <v>0.4904112188554494</v>
       </c>
       <c r="K112">
-        <v>32.90442346723995</v>
+        <v>-0.1709557653276005</v>
       </c>
       <c r="L112">
         <v>-0.01706138934706429</v>
@@ -9481,13 +9481,13 @@
         <v>-0.1812499999999773</v>
       </c>
       <c r="U112">
-        <v>0.9998542729259914</v>
+        <v>-0.000145727074008617</v>
       </c>
       <c r="V112">
-        <v>0.9998123866502681</v>
+        <v>-0.000187613349731941</v>
       </c>
       <c r="W112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9522,7 +9522,7 @@
         <v>0.5655213451944261</v>
       </c>
       <c r="K113">
-        <v>36.12351546214099</v>
+        <v>-0.1387648453785901</v>
       </c>
       <c r="L113">
         <v>-0.01674673984281152</v>
@@ -9552,13 +9552,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U113">
-        <v>0.9998646622803364</v>
+        <v>-0.0001353377196635641</v>
       </c>
       <c r="V113">
-        <v>0.9998749009632627</v>
+        <v>-0.0001250990367372973</v>
       </c>
       <c r="W113">
-        <v>1.000312989045383</v>
+        <v>0.0003129890453834605</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9593,7 +9593,7 @@
         <v>0.4883070245498949</v>
       </c>
       <c r="K114">
-        <v>32.80956257648333</v>
+        <v>-0.1719043742351667</v>
       </c>
       <c r="L114">
         <v>-0.01637770160134329</v>
@@ -9623,13 +9623,13 @@
         <v>-0.1374999999999886</v>
       </c>
       <c r="U114">
-        <v>0.999833407952688</v>
+        <v>-0.0001665920473119531</v>
       </c>
       <c r="V114">
-        <v>0.9998123279673031</v>
+        <v>-0.0001876720326968728</v>
       </c>
       <c r="W114">
-        <v>0.9993742177722151</v>
+        <v>-0.0006257822277848657</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9664,7 +9664,7 @@
         <v>0.4883070245498948</v>
       </c>
       <c r="K115">
-        <v>32.80956257648333</v>
+        <v>-0.1719043742351667</v>
       </c>
       <c r="L115">
         <v>-0.015939673939407</v>
@@ -9694,13 +9694,13 @@
         <v>-0.109375</v>
       </c>
       <c r="U115">
-        <v>0.9998229664573505</v>
+        <v>-0.0001770335426495295</v>
       </c>
       <c r="V115">
-        <v>0.9998122927399005</v>
+        <v>-0.0001877072600995344</v>
       </c>
       <c r="W115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9735,7 +9735,7 @@
         <v>0.5639505300357446</v>
       </c>
       <c r="K116">
-        <v>36.05935860534255</v>
+        <v>-0.1394064139465745</v>
       </c>
       <c r="L116">
         <v>-0.01531601622587965</v>
@@ -9765,13 +9765,13 @@
         <v>-0.06562499999998295</v>
       </c>
       <c r="U116">
-        <v>0.9998437662743463</v>
+        <v>-0.0001562337256536539</v>
       </c>
       <c r="V116">
-        <v>0.9998331177771288</v>
+        <v>-0.0001668822228712008</v>
       </c>
       <c r="W116">
-        <v>1.000313087038197</v>
+        <v>0.0003130870381966577</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9806,7 +9806,7 @@
         <v>0.6435752726524285</v>
       </c>
       <c r="K117">
-        <v>39.15703061252657</v>
+        <v>-0.1084296938747343</v>
       </c>
       <c r="L117">
         <v>-0.01445006807311269</v>
@@ -9836,13 +9836,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U117">
-        <v>0.9998645762800146</v>
+        <v>-0.000135423719985428</v>
       </c>
       <c r="V117">
-        <v>0.9998956812017524</v>
+        <v>-0.0001043187982475713</v>
       </c>
       <c r="W117">
-        <v>1.000312989045383</v>
+        <v>0.0003129890453834605</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9877,7 +9877,7 @@
         <v>0.6435752726524285</v>
       </c>
       <c r="K118">
-        <v>39.15703061252657</v>
+        <v>-0.1084296938747343</v>
       </c>
       <c r="L118">
         <v>-0.01343981926694384</v>
@@ -9907,13 +9907,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U118">
-        <v>0.9998749765581045</v>
+        <v>-0.0001250234418954665</v>
       </c>
       <c r="V118">
-        <v>0.9999165362545644</v>
+        <v>-8.346374543555246E-05</v>
       </c>
       <c r="W118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9948,7 +9948,7 @@
         <v>0.7318021342775128</v>
       </c>
       <c r="K119">
-        <v>42.25668278107371</v>
+        <v>-0.07743317218926293</v>
       </c>
       <c r="L119">
         <v>-0.01224371144029139</v>
@@ -9978,13 +9978,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U119">
-        <v>0.9998958007710744</v>
+        <v>-0.0001041992289255722</v>
       </c>
       <c r="V119">
-        <v>1.000020867678053</v>
+        <v>2.086767805331569E-05</v>
       </c>
       <c r="W119">
-        <v>1.000312891113892</v>
+        <v>0.0003128911138923218</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -10019,7 +10019,7 @@
         <v>0.6696147569091564</v>
       </c>
       <c r="K120">
-        <v>40.10594384951223</v>
+        <v>-0.09894056150487773</v>
       </c>
       <c r="L120">
         <v>-0.01108037350679062</v>
@@ -10049,13 +10049,13 @@
         <v>0.03125</v>
       </c>
       <c r="U120">
-        <v>0.9998957899124634</v>
+        <v>-0.0001042100875365826</v>
       </c>
       <c r="V120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W120">
-        <v>0.9996872067563342</v>
+        <v>-0.0003127932436658432</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -10090,7 +10090,7 @@
         <v>0.5679987072640564</v>
       </c>
       <c r="K121">
-        <v>36.224437216223</v>
+        <v>-0.13775562783777</v>
       </c>
       <c r="L121">
         <v>-0.01019832846051436</v>
@@ -10120,13 +10120,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U121">
-        <v>0.9998957790515894</v>
+        <v>-0.0001042209484105605</v>
       </c>
       <c r="V121">
-        <v>0.9999791327573975</v>
+        <v>-2.086724260252915E-05</v>
       </c>
       <c r="W121">
-        <v>0.9993742177722151</v>
+        <v>-0.0006257822277848657</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -10161,7 +10161,7 @@
         <v>0.5679987072640564</v>
       </c>
       <c r="K122">
-        <v>36.224437216223</v>
+        <v>-0.13775562783777</v>
       </c>
       <c r="L122">
         <v>-0.009505831720749917</v>
@@ -10191,13 +10191,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U122">
-        <v>0.9999061913696061</v>
+        <v>-9.380863039387677E-05</v>
       </c>
       <c r="V122">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10232,7 +10232,7 @@
         <v>0.6520723926658782</v>
       </c>
       <c r="K123">
-        <v>39.4699648490377</v>
+        <v>-0.105300351509623</v>
       </c>
       <c r="L123">
         <v>-0.008823864394158946</v>
@@ -10262,13 +10262,13 @@
         <v>0.03125</v>
       </c>
       <c r="U123">
-        <v>0.999916606727752</v>
+        <v>-8.33932722480446E-05</v>
       </c>
       <c r="V123">
-        <v>1.000062603034161</v>
+        <v>6.260303416061319E-05</v>
       </c>
       <c r="W123">
-        <v>1.000313087038197</v>
+        <v>0.0003130870381966577</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10303,7 +10303,7 @@
         <v>0.6520723926658781</v>
       </c>
       <c r="K124">
-        <v>39.46996484903769</v>
+        <v>-0.1053003515096231</v>
       </c>
       <c r="L124">
         <v>-0.008159599153136715</v>
@@ -10333,13 +10333,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U124">
-        <v>0.9999165997727345</v>
+        <v>-8.340022726549545E-05</v>
       </c>
       <c r="V124">
-        <v>1.00004173274351</v>
+        <v>4.173274351049194E-05</v>
       </c>
       <c r="W124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10374,7 +10374,7 @@
         <v>0.6520723926658781</v>
       </c>
       <c r="K125">
-        <v>39.46996484903769</v>
+        <v>-0.1053003515096231</v>
       </c>
       <c r="L125">
         <v>-0.007518672344838205</v>
@@ -10404,13 +10404,13 @@
         <v>0.009374999999977263</v>
       </c>
       <c r="U125">
-        <v>0.9999165928165562</v>
+        <v>-8.34071834437955E-05</v>
       </c>
       <c r="V125">
-        <v>1.000020865500981</v>
+        <v>2.086550098057138E-05</v>
       </c>
       <c r="W125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10445,7 +10445,7 @@
         <v>0.8481912097571112</v>
       </c>
       <c r="K126">
-        <v>45.89304425209231</v>
+        <v>-0.04106955747907692</v>
       </c>
       <c r="L126">
         <v>-0.006677565324802019</v>
@@ -10475,13 +10475,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U126">
-        <v>0.9999270126268158</v>
+        <v>-7.298737318417459E-05</v>
       </c>
       <c r="V126">
-        <v>1.000041730131241</v>
+        <v>4.173013124120217E-05</v>
       </c>
       <c r="W126">
-        <v>1.000625978090767</v>
+        <v>0.000625978090766699</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10516,7 +10516,7 @@
         <v>0.8481912097571112</v>
       </c>
       <c r="K127">
-        <v>45.89304425209231</v>
+        <v>-0.04106955747907692</v>
       </c>
       <c r="L127">
         <v>-0.005744411147224969</v>
@@ -10546,13 +10546,13 @@
         <v>0</v>
       </c>
       <c r="U127">
-        <v>0.99992700729927</v>
+        <v>-7.299270073002351E-05</v>
       </c>
       <c r="V127">
-        <v>1.00004172838991</v>
+        <v>4.172838991012284E-05</v>
       </c>
       <c r="W127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10587,7 +10587,7 @@
         <v>0.956844294018213</v>
       </c>
       <c r="K128">
-        <v>48.89731374862815</v>
+        <v>-0.01102686251371848</v>
       </c>
       <c r="L128">
         <v>-0.004680098736816847</v>
@@ -10617,13 +10617,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U128">
-        <v>0.9999582868405411</v>
+        <v>-4.171315945888932E-05</v>
       </c>
       <c r="V128">
-        <v>1.000041726648724</v>
+        <v>4.172664872426068E-05</v>
       </c>
       <c r="W128">
-        <v>1.000312793243666</v>
+        <v>0.0003127932436659542</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10658,7 +10658,7 @@
         <v>1.185587629304678</v>
       </c>
       <c r="K129">
-        <v>54.24571467225319</v>
+        <v>0.04245714672253187</v>
       </c>
       <c r="L129">
         <v>-0.003359249351303282</v>
@@ -10688,13 +10688,13 @@
         <v>0.02812500000001705</v>
       </c>
       <c r="U129">
-        <v>0.9999687138253606</v>
+        <v>-3.128617463943328E-05</v>
       </c>
       <c r="V129">
-        <v>1.000125174723051</v>
+        <v>0.0001251747230510691</v>
       </c>
       <c r="W129">
-        <v>1.000625390869293</v>
+        <v>0.0006253908692932519</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10729,7 +10729,7 @@
         <v>1.426370087500957</v>
       </c>
       <c r="K130">
-        <v>58.7861717735751</v>
+        <v>0.08786171773575102</v>
       </c>
       <c r="L130">
         <v>-0.001727051002378653</v>
@@ -10759,13 +10759,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U130">
-        <v>0.9999895709488351</v>
+        <v>-1.042905116488413E-05</v>
       </c>
       <c r="V130">
-        <v>1.000166878741734</v>
+        <v>0.0001668787417341555</v>
       </c>
       <c r="W130">
-        <v>1.000625</v>
+        <v>0.0006249999999998757</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10800,7 +10800,7 @@
         <v>1.679825306654935</v>
       </c>
       <c r="K131">
-        <v>62.68413476368578</v>
+        <v>0.1268413476368577</v>
       </c>
       <c r="L131">
         <v>0.0002238955986844776</v>
@@ -10830,13 +10830,13 @@
         <v>0.07812500000002842</v>
       </c>
       <c r="U131">
-        <v>1.000010429159931</v>
+        <v>1.042915993121341E-05</v>
       </c>
       <c r="V131">
-        <v>1.0001877072601</v>
+        <v>0.0001877072600997565</v>
       </c>
       <c r="W131">
-        <v>1.000624609618988</v>
+        <v>0.0006246096189881367</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10871,7 +10871,7 @@
         <v>1.326043558516494</v>
       </c>
       <c r="K132">
-        <v>57.00854369907928</v>
+        <v>0.07008543699079273</v>
       </c>
       <c r="L132">
         <v>0.002014937520894156</v>
@@ -10901,13 +10901,13 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="U132">
-        <v>1.000010429051165</v>
+        <v>1.042905116466208E-05</v>
       </c>
       <c r="V132">
-        <v>1.000125114688465</v>
+        <v>0.0001251146884646559</v>
       </c>
       <c r="W132">
-        <v>0.9993757802746567</v>
+        <v>-0.0006242197253433224</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10942,7 +10942,7 @@
         <v>1.436888965675946</v>
       </c>
       <c r="K133">
-        <v>58.96407205723386</v>
+        <v>0.08964072057233863</v>
       </c>
       <c r="L133">
         <v>0.003701462835847919</v>
@@ -10972,13 +10972,13 @@
         <v>0.1281250000000114</v>
       </c>
       <c r="U133">
-        <v>1.000031286827203</v>
+        <v>3.128682720299203E-05</v>
       </c>
       <c r="V133">
-        <v>1.000145948876193</v>
+        <v>0.0001459488761932359</v>
       </c>
       <c r="W133">
-        <v>1.000312304809494</v>
+        <v>0.0003123048094941794</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -11013,7 +11013,7 @@
         <v>1.436888965675946</v>
       </c>
       <c r="K134">
-        <v>58.96407205723386</v>
+        <v>0.08964072057233863</v>
       </c>
       <c r="L134">
         <v>0.005203611682780908</v>
@@ -11043,13 +11043,13 @@
         <v>0.1437500000000114</v>
       </c>
       <c r="U134">
-        <v>1.000073000312859</v>
+        <v>7.300031285861763E-05</v>
       </c>
       <c r="V134">
-        <v>1.000125080781338</v>
+        <v>0.0001250807813379939</v>
       </c>
       <c r="W134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -11084,7 +11084,7 @@
         <v>1.55970936142042</v>
       </c>
       <c r="K135">
-        <v>60.9330647036785</v>
+        <v>0.109330647036785</v>
       </c>
       <c r="L135">
         <v>0.006593180603558911</v>
@@ -11114,13 +11114,13 @@
         <v>0.1656250000000057</v>
       </c>
       <c r="U135">
-        <v>1.000083422839088</v>
+        <v>8.342283908779891E-05</v>
       </c>
       <c r="V135">
-        <v>1.000166753517457</v>
+        <v>0.0001667535174567636</v>
       </c>
       <c r="W135">
-        <v>1.000312207305651</v>
+        <v>0.0003122073056507357</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -11155,7 +11155,7 @@
         <v>1.381148139266284</v>
       </c>
       <c r="K136">
-        <v>58.0034528927656</v>
+        <v>0.08003452892765606</v>
       </c>
       <c r="L136">
         <v>0.007687962182656433</v>
@@ -11185,13 +11185,13 @@
         <v>0.1750000000000398</v>
       </c>
       <c r="U136">
-        <v>1.000083415880298</v>
+        <v>8.341588029825431E-05</v>
       </c>
       <c r="V136">
-        <v>1.000187566429777</v>
+        <v>0.0001875664297774637</v>
       </c>
       <c r="W136">
-        <v>0.9996878901373284</v>
+        <v>-0.0003121098626716057</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11226,7 +11226,7 @@
         <v>1.501657245554975</v>
       </c>
       <c r="K137">
-        <v>60.02649836316178</v>
+        <v>0.1002649836316177</v>
       </c>
       <c r="L137">
         <v>0.008620190694961918</v>
@@ -11256,13 +11256,13 @@
         <v>0.1687499999999886</v>
       </c>
       <c r="U137">
-        <v>1.000104261153337</v>
+        <v>0.0001042611533370597</v>
       </c>
       <c r="V137">
-        <v>1.000208368061344</v>
+        <v>0.0002083680613436112</v>
       </c>
       <c r="W137">
-        <v>1.000312207305651</v>
+        <v>0.0003122073056507357</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11297,7 +11297,7 @@
         <v>1.755360627215523</v>
       </c>
       <c r="K138">
-        <v>63.70711005584168</v>
+        <v>0.1370711005584169</v>
       </c>
       <c r="L138">
         <v>0.009590791902027882</v>
@@ -11327,13 +11327,13 @@
         <v>0.1562500000000284</v>
       </c>
       <c r="U138">
-        <v>1.000145950397715</v>
+        <v>0.0001459503977148113</v>
       </c>
       <c r="V138">
-        <v>1.000229157118453</v>
+        <v>0.0002291571184533936</v>
       </c>
       <c r="W138">
-        <v>1.000624219725343</v>
+        <v>0.0006242197253434334</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11368,7 +11368,7 @@
         <v>1.253305955035048</v>
       </c>
       <c r="K139">
-        <v>55.62076256153836</v>
+        <v>0.05620762561538362</v>
       </c>
       <c r="L139">
         <v>0.01014610071427265</v>
@@ -11398,13 +11398,13 @@
         <v>0.125</v>
       </c>
       <c r="U139">
-        <v>1.000104235070932</v>
+        <v>0.0001042350709321571</v>
       </c>
       <c r="V139">
-        <v>1.00016662154</v>
+        <v>0.0001666215399995785</v>
       </c>
       <c r="W139">
-        <v>0.9990642545227698</v>
+        <v>-0.0009357454772301876</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11439,7 +11439,7 @@
         <v>0.9632919423117863</v>
       </c>
       <c r="K140">
-        <v>49.06514011245343</v>
+        <v>-0.009348598875465741</v>
       </c>
       <c r="L140">
         <v>0.01003589246093901</v>
@@ -11469,13 +11469,13 @@
         <v>0.09687500000001137</v>
       </c>
       <c r="U140">
-        <v>1.000062534524268</v>
+        <v>6.253452426840944E-05</v>
       </c>
       <c r="V140">
-        <v>1.000104121113679</v>
+        <v>0.0001041211136794118</v>
       </c>
       <c r="W140">
-        <v>0.9990633780830471</v>
+        <v>-0.0009366219169528733</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11510,7 +11510,7 @@
         <v>0.9632919423117863</v>
       </c>
       <c r="K141">
-        <v>49.06514011245343</v>
+        <v>-0.009348598875465741</v>
       </c>
       <c r="L141">
         <v>0.009493087020364291</v>
@@ -11540,13 +11540,13 @@
         <v>0.0625</v>
       </c>
       <c r="U141">
-        <v>1.000052108844955</v>
+        <v>5.210884495521206E-05</v>
       </c>
       <c r="V141">
-        <v>1.000062466164161</v>
+        <v>6.246616416127893E-05</v>
       </c>
       <c r="W141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11581,7 +11581,7 @@
         <v>1.048757949278255</v>
       </c>
       <c r="K142">
-        <v>51.18993923355934</v>
+        <v>0.01189939233559334</v>
       </c>
       <c r="L142">
         <v>0.008802154707639818</v>
@@ -11611,13 +11611,13 @@
         <v>0.03750000000002274</v>
       </c>
       <c r="U142">
-        <v>1.000062527355718</v>
+        <v>6.252735571821155E-05</v>
       </c>
       <c r="V142">
-        <v>1.000083283016511</v>
+        <v>8.328301651094883E-05</v>
       </c>
       <c r="W142">
-        <v>1.0003125</v>
+        <v>0.0003125000000001599</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11652,7 +11652,7 @@
         <v>0.9621948428159321</v>
       </c>
       <c r="K143">
-        <v>49.03666148847344</v>
+        <v>-0.009633385115265569</v>
       </c>
       <c r="L143">
         <v>0.007919679479408323</v>
@@ -11682,13 +11682,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U143">
-        <v>1.000041682297528</v>
+        <v>4.168229752821162E-05</v>
       </c>
       <c r="V143">
-        <v>1.000041638040514</v>
+        <v>4.1638040513714E-05</v>
       </c>
       <c r="W143">
-        <v>0.9996875976257419</v>
+        <v>-0.0003124023742581139</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11723,7 +11723,7 @@
         <v>0.9621948428159321</v>
       </c>
       <c r="K144">
-        <v>49.03666148847344</v>
+        <v>-0.009633385115265569</v>
       </c>
       <c r="L144">
         <v>0.006948620258654502</v>
@@ -11753,13 +11753,13 @@
         <v>-0.02187500000002274</v>
       </c>
       <c r="U144">
-        <v>1.00006252084028</v>
+        <v>6.252084028002258E-05</v>
       </c>
       <c r="V144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11794,7 +11794,7 @@
         <v>0.8815702927489329</v>
       </c>
       <c r="K145">
-        <v>46.85290239467898</v>
+        <v>-0.0314709760532102</v>
       </c>
       <c r="L145">
         <v>0.005846707749828961</v>
@@ -11824,13 +11824,13 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="U145">
-        <v>1.000052097443058</v>
+        <v>5.209744305756381E-05</v>
       </c>
       <c r="V145">
-        <v>0.9999375455397105</v>
+        <v>-6.245446028951829E-05</v>
       </c>
       <c r="W145">
-        <v>0.9996875</v>
+        <v>-0.0003125000000000488</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11865,7 +11865,7 @@
         <v>0.8101160667320751</v>
       </c>
       <c r="K146">
-        <v>44.75492382069358</v>
+        <v>-0.05245076179306418</v>
       </c>
       <c r="L146">
         <v>0.004600698332722626</v>
@@ -11895,13 +11895,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U146">
-        <v>1.000031256837433</v>
+        <v>3.125683743299135E-05</v>
       </c>
       <c r="V146">
-        <v>0.9998750832778149</v>
+        <v>-0.0001249167221850644</v>
       </c>
       <c r="W146">
-        <v>0.999687402313223</v>
+        <v>-0.0003125976867770497</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11936,7 +11936,7 @@
         <v>0.8101160667320753</v>
       </c>
       <c r="K147">
-        <v>44.75492382069358</v>
+        <v>-0.05245076179306418</v>
       </c>
       <c r="L147">
         <v>0.003330080778517565</v>
@@ -11966,13 +11966,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U147">
-        <v>1.000020837240316</v>
+        <v>2.083724031609613E-05</v>
       </c>
       <c r="V147">
-        <v>0.9999167117811184</v>
+        <v>-8.328821888159421E-05</v>
       </c>
       <c r="W147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -12007,7 +12007,7 @@
         <v>0.7433554568031692</v>
       </c>
       <c r="K148">
-        <v>42.63935125234168</v>
+        <v>-0.07360648747658316</v>
       </c>
       <c r="L148">
         <v>0.0019996218616378</v>
@@ -12037,13 +12037,13 @@
         <v>-0.1031250000000057</v>
       </c>
       <c r="U148">
-        <v>1.000010418403067</v>
+        <v>1.041840306692521E-05</v>
       </c>
       <c r="V148">
-        <v>0.9998750572654201</v>
+        <v>-0.0001249427345798582</v>
       </c>
       <c r="W148">
-        <v>0.9996873045653533</v>
+        <v>-0.000312695434646737</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -12078,7 +12078,7 @@
         <v>0.7433554568031693</v>
       </c>
       <c r="K149">
-        <v>42.63935125234168</v>
+        <v>-0.07360648747658316</v>
       </c>
       <c r="L149">
         <v>0.0007104123252032711</v>
@@ -12108,13 +12108,13 @@
         <v>-0.1031250000000057</v>
       </c>
       <c r="U149">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V149">
-        <v>0.9998750416527823</v>
+        <v>-0.0001249583472177074</v>
       </c>
       <c r="W149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -12149,7 +12149,7 @@
         <v>0.9259786092826799</v>
       </c>
       <c r="K150">
-        <v>48.07834338448627</v>
+        <v>-0.01921656615513734</v>
       </c>
       <c r="L150">
         <v>-0.0002466873153237403</v>
@@ -12179,13 +12179,13 @@
         <v>-0.1031250000000057</v>
       </c>
       <c r="U150">
-        <v>1.000031254883575</v>
+        <v>3.125488357547113E-05</v>
       </c>
       <c r="V150">
-        <v>0.9998958550302022</v>
+        <v>-0.0001041449697978258</v>
       </c>
       <c r="W150">
-        <v>1.000625586487332</v>
+        <v>0.0006255864873319084</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -12220,7 +12220,7 @@
         <v>0.9259786092826801</v>
       </c>
       <c r="K151">
-        <v>48.07834338448627</v>
+        <v>-0.01921656615513734</v>
       </c>
       <c r="L151">
         <v>-0.0009407226358049992</v>
@@ -12250,13 +12250,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U151">
-        <v>1.000052089844564</v>
+        <v>5.208984456395171E-05</v>
       </c>
       <c r="V151">
-        <v>0.9999166753463181</v>
+        <v>-8.332465368188213E-05</v>
       </c>
       <c r="W151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12291,7 +12291,7 @@
         <v>1.027154871044211</v>
       </c>
       <c r="K152">
-        <v>50.66977790972188</v>
+        <v>0.006697779097218803</v>
       </c>
       <c r="L152">
         <v>-0.00131396160229606</v>
@@ -12321,13 +12321,13 @@
         <v>-0.08437500000002274</v>
       </c>
       <c r="U152">
-        <v>1.000062504557624</v>
+        <v>6.250455762413232E-05</v>
       </c>
       <c r="V152">
-        <v>0.9999166684027413</v>
+        <v>-8.333159725870676E-05</v>
       </c>
       <c r="W152">
-        <v>1.000312597686777</v>
+        <v>0.0003125976867772717</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12362,7 +12362,7 @@
         <v>1.240157527384214</v>
       </c>
       <c r="K153">
-        <v>55.3602821330302</v>
+        <v>0.05360282133030203</v>
       </c>
       <c r="L153">
         <v>-0.001236709077161922</v>
@@ -12392,13 +12392,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U153">
-        <v>1.000072917426223</v>
+        <v>7.291742622328456E-05</v>
       </c>
       <c r="V153">
-        <v>0.9999166614580078</v>
+        <v>-8.333854199216173E-05</v>
       </c>
       <c r="W153">
-        <v>1.000625</v>
+        <v>0.0006249999999998757</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12433,7 +12433,7 @@
         <v>1.240157527384214</v>
       </c>
       <c r="K154">
-        <v>55.3602821330302</v>
+        <v>0.05360282133030192</v>
       </c>
       <c r="L154">
         <v>-0.0008869432891389136</v>
@@ -12463,13 +12463,13 @@
         <v>-0.02187500000002274</v>
       </c>
       <c r="U154">
-        <v>1.00007291210966</v>
+        <v>7.291210965965078E-05</v>
       </c>
       <c r="V154">
-        <v>0.9999791636280291</v>
+        <v>-2.083637197092258E-05</v>
       </c>
       <c r="W154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12504,7 +12504,7 @@
         <v>1.109257378772955</v>
       </c>
       <c r="K155">
-        <v>52.58994895247243</v>
+        <v>0.02589948952472432</v>
       </c>
       <c r="L155">
         <v>-0.0005049228060718123</v>
@@ -12534,13 +12534,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U155">
-        <v>1.000062491537604</v>
+        <v>6.249153760418125E-05</v>
       </c>
       <c r="V155">
-        <v>1.000020836806134</v>
+        <v>2.083680613429451E-05</v>
       </c>
       <c r="W155">
-        <v>0.999687695190506</v>
+        <v>-0.0003123048094939573</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12575,7 +12575,7 @@
         <v>0.9075809859131786</v>
       </c>
       <c r="K156">
-        <v>47.57758609544486</v>
+        <v>-0.02422413904555137</v>
       </c>
       <c r="L156">
         <v>-0.0003534503334159674</v>
@@ -12605,13 +12605,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U156">
-        <v>1.000020829210885</v>
+        <v>2.082921088542022E-05</v>
       </c>
       <c r="V156">
-        <v>0.9999791636280291</v>
+        <v>-2.083637197092258E-05</v>
       </c>
       <c r="W156">
-        <v>0.9993751952514838</v>
+        <v>-0.0006248047485162278</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12646,7 +12646,7 @@
         <v>0.9075809859131785</v>
       </c>
       <c r="K157">
-        <v>47.57758609544486</v>
+        <v>-0.02422413904555137</v>
       </c>
       <c r="L157">
         <v>-0.0003500183995204421</v>
@@ -12676,13 +12676,13 @@
         <v>0.03437499999998295</v>
       </c>
       <c r="U157">
-        <v>1.000020828777038</v>
+        <v>2.082877703846187E-05</v>
       </c>
       <c r="V157">
-        <v>0.9999583263877313</v>
+        <v>-4.167361226870003E-05</v>
       </c>
       <c r="W157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12717,7 +12717,7 @@
         <v>0.9075809859131785</v>
       </c>
       <c r="K158">
-        <v>47.57758609544486</v>
+        <v>-0.02422413904555137</v>
       </c>
       <c r="L158">
         <v>-0.0004352189194154071</v>
@@ -12747,13 +12747,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U158">
-        <v>1.000010414171605</v>
+        <v>1.041417160463354E-05</v>
       </c>
       <c r="V158">
-        <v>0.9999791623254843</v>
+        <v>-2.083767451566132E-05</v>
       </c>
       <c r="W158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12788,7 +12788,7 @@
         <v>0.7487941889517393</v>
       </c>
       <c r="K159">
-        <v>42.81774228679139</v>
+        <v>-0.07182257713208612</v>
       </c>
       <c r="L159">
         <v>-0.0007946892974181359</v>
@@ -12818,13 +12818,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U159">
-        <v>0.9999687578105474</v>
+        <v>-3.124218945260715E-05</v>
       </c>
       <c r="V159">
-        <v>0.9999374856738003</v>
+        <v>-6.251432619974739E-05</v>
       </c>
       <c r="W159">
-        <v>0.9993748046264458</v>
+        <v>-0.0006251953735542104</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12859,7 +12859,7 @@
         <v>0.8408763278439437</v>
       </c>
       <c r="K160">
-        <v>45.67804556587395</v>
+        <v>-0.04321954434126046</v>
       </c>
       <c r="L160">
         <v>-0.001180732807132653</v>
@@ -12889,13 +12889,13 @@
         <v>0.03125</v>
       </c>
       <c r="U160">
-        <v>0.9999583424459233</v>
+        <v>-4.165755407670169E-05</v>
       </c>
       <c r="V160">
-        <v>0.999979160588505</v>
+        <v>-2.083941149499946E-05</v>
       </c>
       <c r="W160">
-        <v>1.000312793243666</v>
+        <v>0.0003127932436659542</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12930,7 +12930,7 @@
         <v>0.9378048950988409</v>
       </c>
       <c r="K161">
-        <v>48.39521757173632</v>
+        <v>-0.01604782428263674</v>
       </c>
       <c r="L161">
         <v>-0.001440188060884538</v>
@@ -12960,13 +12960,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U161">
-        <v>0.9999479258881239</v>
+        <v>-5.207411187613253E-05</v>
       </c>
       <c r="V161">
-        <v>1.000020839845785</v>
+        <v>2.083984578504783E-05</v>
       </c>
       <c r="W161">
-        <v>1.000312695434647</v>
+        <v>0.000312695434646626</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -13001,7 +13001,7 @@
         <v>1.039834965893527</v>
       </c>
       <c r="K162">
-        <v>50.97642619524559</v>
+        <v>0.009764261952455944</v>
       </c>
       <c r="L162">
         <v>-0.001487380702879775</v>
@@ -13031,13 +13031,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U162">
-        <v>0.999979169270508</v>
+        <v>-2.083072949199405E-05</v>
       </c>
       <c r="V162">
-        <v>1.00004167882299</v>
+        <v>4.167882298999892E-05</v>
       </c>
       <c r="W162">
-        <v>1.000312597686777</v>
+        <v>0.0003125976867772717</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -13072,7 +13072,7 @@
         <v>1.039834965893527</v>
       </c>
       <c r="K163">
-        <v>50.97642619524559</v>
+        <v>0.009764261952455944</v>
       </c>
       <c r="L163">
         <v>-0.0013975507808761</v>
@@ -13102,13 +13102,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U163">
-        <v>0.9999687532548691</v>
+        <v>-3.124674513088621E-05</v>
       </c>
       <c r="V163">
-        <v>1.000062515628907</v>
+        <v>6.25156289071338E-05</v>
       </c>
       <c r="W163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -13143,7 +13143,7 @@
         <v>0.8480795769229883</v>
       </c>
       <c r="K164">
-        <v>45.88977593351375</v>
+        <v>-0.04110224066486245</v>
       </c>
       <c r="L164">
         <v>-0.001452940500701659</v>
@@ -13173,13 +13173,13 @@
         <v>-0.02812500000001705</v>
       </c>
       <c r="U164">
-        <v>0.9999479204641331</v>
+        <v>-5.207953586694458E-05</v>
       </c>
       <c r="V164">
-        <v>1.000020837240316</v>
+        <v>2.083724031609613E-05</v>
       </c>
       <c r="W164">
-        <v>0.999375</v>
+        <v>-0.0006249999999999867</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -13214,7 +13214,7 @@
         <v>0.7730492682256432</v>
       </c>
       <c r="K165">
-        <v>43.59998800254787</v>
+        <v>-0.06400011997452126</v>
       </c>
       <c r="L165">
         <v>-0.001701297102593987</v>
@@ -13244,13 +13244,13 @@
         <v>-0.04062499999997726</v>
       </c>
       <c r="U165">
-        <v>0.9999270848523988</v>
+        <v>-7.291514760121576E-05</v>
       </c>
       <c r="V165">
-        <v>0.9999583263877312</v>
+        <v>-4.167361226881106E-05</v>
       </c>
       <c r="W165">
-        <v>0.9996873045653533</v>
+        <v>-0.000312695434646737</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13285,7 +13285,7 @@
         <v>0.7071905919217172</v>
       </c>
       <c r="K166">
-        <v>41.42423202588415</v>
+        <v>-0.0857576797411585</v>
       </c>
       <c r="L166">
         <v>-0.00215835468707394</v>
@@ -13315,13 +13315,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U166">
-        <v>0.9999270795353924</v>
+        <v>-7.292046460760648E-05</v>
       </c>
       <c r="V166">
-        <v>0.9999374869764535</v>
+        <v>-6.251302354653987E-05</v>
       </c>
       <c r="W166">
-        <v>0.9996872067563342</v>
+        <v>-0.0003127932436658432</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13356,7 +13356,7 @@
         <v>0.5996420987364882</v>
       </c>
       <c r="K167">
-        <v>37.48601635391619</v>
+        <v>-0.1251398364608381</v>
       </c>
       <c r="L167">
         <v>-0.002932501396973888</v>
@@ -13386,13 +13386,13 @@
         <v>-0.05312499999996589</v>
       </c>
       <c r="U167">
-        <v>0.9998958203108721</v>
+        <v>-0.0001041796891279034</v>
       </c>
       <c r="V167">
-        <v>0.9998749661366619</v>
+        <v>-0.0001250338633380643</v>
       </c>
       <c r="W167">
-        <v>0.9993742177722151</v>
+        <v>-0.0006257822277848657</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13427,7 +13427,7 @@
         <v>0.5552029226604145</v>
       </c>
       <c r="K168">
-        <v>35.69970931578847</v>
+        <v>-0.1430029068421153</v>
       </c>
       <c r="L168">
         <v>-0.003952601818973688</v>
@@ -13457,13 +13457,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U168">
-        <v>0.999864552293234</v>
+        <v>-0.0001354477067659898</v>
       </c>
       <c r="V168">
-        <v>0.9998124257518602</v>
+        <v>-0.0001875742481397547</v>
       </c>
       <c r="W168">
-        <v>0.9996869129618035</v>
+        <v>-0.0003130870381965467</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13498,7 +13498,7 @@
         <v>0.5552029226604146</v>
       </c>
       <c r="K169">
-        <v>35.69970931578848</v>
+        <v>-0.1430029068421152</v>
       </c>
       <c r="L169">
         <v>-0.00504239173601366</v>
@@ -13528,13 +13528,13 @@
         <v>-0.07187500000000568</v>
       </c>
       <c r="U169">
-        <v>0.9998957953420519</v>
+        <v>-0.000104204657948137</v>
       </c>
       <c r="V169">
-        <v>0.9998123905611607</v>
+        <v>-0.0001876094388393312</v>
       </c>
       <c r="W169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13569,7 +13569,7 @@
         <v>0.6373187120597461</v>
       </c>
       <c r="K170">
-        <v>38.9245360335496</v>
+        <v>-0.110754639664504</v>
       </c>
       <c r="L170">
         <v>-0.005972868916633658</v>
@@ -13599,13 +13599,13 @@
         <v>-0.08437499999999432</v>
       </c>
       <c r="U170">
-        <v>0.9999374706893855</v>
+        <v>-6.252931061445643E-05</v>
       </c>
       <c r="V170">
-        <v>0.9998540541667535</v>
+        <v>-0.0001459458332464525</v>
       </c>
       <c r="W170">
-        <v>1.000313185092389</v>
+        <v>0.000313185092389423</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13640,7 +13640,7 @@
         <v>0.5866132295186753</v>
       </c>
       <c r="K171">
-        <v>36.97266722631791</v>
+        <v>-0.1302733277368209</v>
       </c>
       <c r="L171">
         <v>-0.006839685974748338</v>
@@ -13670,13 +13670,13 @@
         <v>-0.1031250000000057</v>
       </c>
       <c r="U171">
-        <v>0.9999270445757643</v>
+        <v>-7.295542423568779E-05</v>
       </c>
       <c r="V171">
-        <v>0.9998748853115357</v>
+        <v>-0.0001251146884643228</v>
       </c>
       <c r="W171">
-        <v>0.9996869129618035</v>
+        <v>-0.0003130870381965467</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13711,7 +13711,7 @@
         <v>0.5412819295466752</v>
       </c>
       <c r="K172">
-        <v>35.11894346973095</v>
+        <v>-0.1488105653026905</v>
       </c>
       <c r="L172">
         <v>-0.007701718020368288</v>
@@ -13741,13 +13741,13 @@
         <v>-0.1187499999999773</v>
       </c>
       <c r="U172">
-        <v>0.9999061933251339</v>
+        <v>-9.380667486613703E-05</v>
       </c>
       <c r="V172">
-        <v>0.99985401459854</v>
+        <v>-0.000145985401460047</v>
       </c>
       <c r="W172">
-        <v>0.9996868149076104</v>
+        <v>-0.0003131850923896451</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13782,7 +13782,7 @@
         <v>0.5412819295466753</v>
       </c>
       <c r="K173">
-        <v>35.11894346973095</v>
+        <v>-0.1488105653026905</v>
       </c>
       <c r="L173">
         <v>-0.008477986921505866</v>
@@ -13812,13 +13812,13 @@
         <v>-0.1281250000000114</v>
       </c>
       <c r="U173">
-        <v>0.9999166084663256</v>
+        <v>-8.33915336744262E-05</v>
       </c>
       <c r="V173">
-        <v>0.9998539932836914</v>
+        <v>-0.0001460067163085998</v>
       </c>
       <c r="W173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13853,7 +13853,7 @@
         <v>0.498590281640529</v>
       </c>
       <c r="K174">
-        <v>33.27062024549598</v>
+        <v>-0.1672937975450403</v>
       </c>
       <c r="L174">
         <v>-0.00923591569107896</v>
@@ -13883,13 +13883,13 @@
         <v>-0.1343750000000057</v>
       </c>
       <c r="U174">
-        <v>0.9999061767005474</v>
+        <v>-9.382329945262224E-05</v>
       </c>
       <c r="V174">
-        <v>0.9998748331108144</v>
+        <v>-0.0001251668891856239</v>
       </c>
       <c r="W174">
-        <v>0.9996867167919801</v>
+        <v>-0.0003132832080199321</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13924,7 +13924,7 @@
         <v>0.4985902816405292</v>
       </c>
       <c r="K175">
-        <v>33.27062024549599</v>
+        <v>-0.1672937975450401</v>
       </c>
       <c r="L175">
         <v>-0.009900930310525899</v>
@@ -13954,13 +13954,13 @@
         <v>-0.1343750000000057</v>
       </c>
       <c r="U175">
-        <v>0.9999165936861419</v>
+        <v>-8.340631385805874E-05</v>
       </c>
       <c r="V175">
-        <v>0.9998539536824536</v>
+        <v>-0.0001460463175464444</v>
       </c>
       <c r="W175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13995,7 +13995,7 @@
         <v>0.5859823825232924</v>
       </c>
       <c r="K176">
-        <v>36.94759721044294</v>
+        <v>-0.1305240278955707</v>
       </c>
       <c r="L176">
         <v>-0.0103174610748464</v>
@@ -14025,13 +14025,13 @@
         <v>-0.1218749999999886</v>
       </c>
       <c r="U176">
-        <v>0.9999374400467115</v>
+        <v>-6.255995328852126E-05</v>
       </c>
       <c r="V176">
-        <v>0.9998539323498111</v>
+        <v>-0.0001460676501888747</v>
       </c>
       <c r="W176">
-        <v>1.000313381385146</v>
+        <v>0.0003133813851456946</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -14066,7 +14066,7 @@
         <v>0.5859823825232923</v>
       </c>
       <c r="K177">
-        <v>36.94759721044293</v>
+        <v>-0.1305240278955707</v>
       </c>
       <c r="L177">
         <v>-0.01051939233264749</v>
@@ -14096,13 +14096,13 @@
         <v>-0.1062500000000171</v>
       </c>
       <c r="U177">
-        <v>0.9999374361327189</v>
+        <v>-6.256386728109575E-05</v>
       </c>
       <c r="V177">
-        <v>0.9998330411553552</v>
+        <v>-0.0001669588446447934</v>
       </c>
       <c r="W177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -14137,7 +14137,7 @@
         <v>0.6828157353020323</v>
       </c>
       <c r="K178">
-        <v>40.57578741260583</v>
+        <v>-0.09424212587394165</v>
       </c>
       <c r="L178">
         <v>-0.01042627764021686</v>
@@ -14167,13 +14167,13 @@
         <v>-0.09062500000001705</v>
       </c>
       <c r="U178">
-        <v>0.999958288145491</v>
+        <v>-4.171185450896342E-05</v>
       </c>
       <c r="V178">
-        <v>0.9998538866160142</v>
+        <v>-0.0001461133839858464</v>
       </c>
       <c r="W178">
-        <v>1.00031328320802</v>
+        <v>0.0003132832080201542</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -14208,7 +14208,7 @@
         <v>0.6828157353020324</v>
       </c>
       <c r="K179">
-        <v>40.57578741260583</v>
+        <v>-0.09424212587394165</v>
       </c>
       <c r="L179">
         <v>-0.01012236538446007</v>
@@ -14238,13 +14238,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U179">
-        <v>0.9999582864055394</v>
+        <v>-4.171359446059064E-05</v>
       </c>
       <c r="V179">
-        <v>0.9998956180455522</v>
+        <v>-0.0001043819544478408</v>
       </c>
       <c r="W179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14279,7 +14279,7 @@
         <v>0.8974048827340824</v>
       </c>
       <c r="K180">
-        <v>47.29643582665176</v>
+        <v>-0.02703564173348239</v>
       </c>
       <c r="L180">
         <v>-0.009445388752589828</v>
@@ -14309,13 +14309,13 @@
         <v>-0.04062500000000568</v>
       </c>
       <c r="U180">
-        <v>0.999958284665443</v>
+        <v>-4.171533455699095E-05</v>
       </c>
       <c r="V180">
-        <v>0.9999582428595291</v>
+        <v>-4.175714047094381E-05</v>
       </c>
       <c r="W180">
-        <v>1.000626370184779</v>
+        <v>0.0006263701847790681</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14350,7 +14350,7 @@
         <v>1.010346539277299</v>
       </c>
       <c r="K181">
-        <v>50.25733223290493</v>
+        <v>0.002573322329049277</v>
       </c>
       <c r="L181">
         <v>-0.008437117327712967</v>
@@ -14380,13 +14380,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U181">
-        <v>0.999968712193901</v>
+        <v>-3.128780609895632E-05</v>
       </c>
       <c r="V181">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W181">
-        <v>1.000312989045383</v>
+        <v>0.0003129890453834605</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14421,7 +14421,7 @@
         <v>1.010346539277299</v>
       </c>
       <c r="K182">
-        <v>50.25733223290493</v>
+        <v>0.002573322329049277</v>
       </c>
       <c r="L182">
         <v>-0.007261563232707715</v>
@@ -14451,13 +14451,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U182">
-        <v>0.9999582816199247</v>
+        <v>-4.171838007527295E-05</v>
       </c>
       <c r="V182">
-        <v>1.000041758884203</v>
+        <v>4.175888420276941E-05</v>
       </c>
       <c r="W182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14492,7 +14492,7 @@
         <v>0.8979715829286102</v>
       </c>
       <c r="K183">
-        <v>47.31217216345364</v>
+        <v>-0.02687827836546364</v>
       </c>
       <c r="L183">
         <v>-0.006147016428685456</v>
@@ -14522,13 +14522,13 @@
         <v>0.04062499999997726</v>
       </c>
       <c r="U183">
-        <v>0.9999269897890004</v>
+        <v>-7.301021099959115E-05</v>
       </c>
       <c r="V183">
-        <v>1.000041757140471</v>
+        <v>4.175714047094381E-05</v>
       </c>
       <c r="W183">
-        <v>0.9996871088861076</v>
+        <v>-0.0003128911138924328</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14563,7 +14563,7 @@
         <v>1.015049657764274</v>
       </c>
       <c r="K184">
-        <v>50.37343143644836</v>
+        <v>0.003734314364483682</v>
       </c>
       <c r="L184">
         <v>-0.005004095391197884</v>
@@ -14593,13 +14593,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U184">
-        <v>0.9999374152498175</v>
+        <v>-6.258475018250387E-05</v>
       </c>
       <c r="V184">
-        <v>1.000062633095328</v>
+        <v>6.263309532772432E-05</v>
       </c>
       <c r="W184">
-        <v>1.000312989045383</v>
+        <v>0.0003129890453834605</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14634,7 +14634,7 @@
         <v>0.9036800564237699</v>
       </c>
       <c r="K185">
-        <v>47.47016460956219</v>
+        <v>-0.02529835390437812</v>
       </c>
       <c r="L185">
         <v>-0.004012530387417879</v>
@@ -14664,13 +14664,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U185">
-        <v>0.9999374113327214</v>
+        <v>-6.25886672785958E-05</v>
       </c>
       <c r="V185">
-        <v>1.00002087639089</v>
+        <v>2.087639088954596E-05</v>
       </c>
       <c r="W185">
-        <v>0.9996871088861076</v>
+        <v>-0.0003128911138924328</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14705,7 +14705,7 @@
         <v>0.8101171707341431</v>
       </c>
       <c r="K186">
-        <v>44.75495751501975</v>
+        <v>-0.05245042484980256</v>
       </c>
       <c r="L186">
         <v>-0.003275207896549782</v>
@@ -14735,13 +14735,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U186">
-        <v>0.9999478395126122</v>
+        <v>-5.216048738776458E-05</v>
       </c>
       <c r="V186">
-        <v>1.000020875955075</v>
+        <v>2.087595507482831E-05</v>
       </c>
       <c r="W186">
-        <v>0.9996870109546165</v>
+        <v>-0.0003129890453834605</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14776,7 +14776,7 @@
         <v>1.137071098933287</v>
       </c>
       <c r="K187">
-        <v>53.20698499459624</v>
+        <v>0.0320698499459624</v>
       </c>
       <c r="L187">
         <v>-0.002385072283407443</v>
@@ -14806,13 +14806,13 @@
         <v>0.08749999999997726</v>
       </c>
       <c r="U187">
-        <v>0.9999791347167016</v>
+        <v>-2.086528329836579E-05</v>
       </c>
       <c r="V187">
-        <v>1.000104377596393</v>
+        <v>0.0001043775963927018</v>
       </c>
       <c r="W187">
-        <v>1.00093926111459</v>
+        <v>0.0009392611145899732</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14847,7 +14847,7 @@
         <v>1.137071098933287</v>
       </c>
       <c r="K188">
-        <v>53.20698499459624</v>
+        <v>0.0320698499459624</v>
       </c>
       <c r="L188">
         <v>-0.001450377341434078</v>
@@ -14877,13 +14877,13 @@
         <v>0.08437499999999432</v>
       </c>
       <c r="U188">
-        <v>0.9999791342813324</v>
+        <v>-2.086571866755094E-05</v>
       </c>
       <c r="V188">
-        <v>1.000104366702847</v>
+        <v>0.0001043667028470807</v>
       </c>
       <c r="W188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14918,7 +14918,7 @@
         <v>1.137071098933287</v>
       </c>
       <c r="K189">
-        <v>53.20698499459624</v>
+        <v>0.0320698499459624</v>
       </c>
       <c r="L189">
         <v>-0.0005429657026841751</v>
@@ -14948,13 +14948,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V189">
-        <v>1.000125226973891</v>
+        <v>0.0001252269738905021</v>
       </c>
       <c r="W189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14989,7 +14989,7 @@
         <v>1.008833865092687</v>
       </c>
       <c r="K190">
-        <v>50.21987545227587</v>
+        <v>0.00219875452275875</v>
       </c>
       <c r="L190">
         <v>0.0001780855115996116</v>
@@ -15019,13 +15019,13 @@
         <v>0.05937499999998863</v>
       </c>
       <c r="U190">
-        <v>0.9999791338459452</v>
+        <v>-2.086615405483272E-05</v>
       </c>
       <c r="V190">
-        <v>1.000104342745049</v>
+        <v>0.0001043427450486689</v>
       </c>
       <c r="W190">
-        <v>0.9996872067563342</v>
+        <v>-0.0003127932436658432</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -15060,7 +15060,7 @@
         <v>1.008833865092687</v>
       </c>
       <c r="K191">
-        <v>50.21987545227589</v>
+        <v>0.002198754522758861</v>
       </c>
       <c r="L191">
         <v>0.0007396260104465416</v>
@@ -15090,13 +15090,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U191">
-        <v>0.9999687001158094</v>
+        <v>-3.129988419059426E-05</v>
       </c>
       <c r="V191">
-        <v>1.000083465487021</v>
+        <v>8.346548702142798E-05</v>
       </c>
       <c r="W191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -15131,7 +15131,7 @@
         <v>0.8967711964832296</v>
       </c>
       <c r="K192">
-        <v>47.27882826067358</v>
+        <v>-0.02721171739326422</v>
       </c>
       <c r="L192">
         <v>0.001052069515479058</v>
@@ -15161,13 +15161,13 @@
         <v>0.03437500000001137</v>
       </c>
       <c r="U192">
-        <v>0.9999478318934937</v>
+        <v>-5.216810650632286E-05</v>
       </c>
       <c r="V192">
-        <v>1.000062593890836</v>
+        <v>6.25938908362933E-05</v>
       </c>
       <c r="W192">
-        <v>0.9996871088861076</v>
+        <v>-0.0003128911138924328</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15202,7 +15202,7 @@
         <v>1.130626755621419</v>
       </c>
       <c r="K193">
-        <v>53.06545375150234</v>
+        <v>0.03065453751502334</v>
       </c>
       <c r="L193">
         <v>0.001417809905907078</v>
@@ -15232,13 +15232,13 @@
         <v>0.03125</v>
       </c>
       <c r="U193">
-        <v>0.9999686975031042</v>
+        <v>-3.130249689575759E-05</v>
       </c>
       <c r="V193">
-        <v>1.000083453297448</v>
+        <v>8.345329744829932E-05</v>
       </c>
       <c r="W193">
-        <v>1.000625978090767</v>
+        <v>0.000625978090766699</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15273,7 +15273,7 @@
         <v>1.622954248543992</v>
       </c>
       <c r="K194">
-        <v>61.87504983912311</v>
+        <v>0.1187504983912312</v>
       </c>
       <c r="L194">
         <v>0.002243251921009326</v>
@@ -15303,13 +15303,13 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="U194">
-        <v>1.000031303476773</v>
+        <v>3.130347677271494E-05</v>
       </c>
       <c r="V194">
-        <v>1.000166892667153</v>
+        <v>0.0001668926671534177</v>
       </c>
       <c r="W194">
-        <v>1.001251172974664</v>
+        <v>0.001251172974663817</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15344,7 +15344,7 @@
         <v>1.622954248543992</v>
       </c>
       <c r="K195">
-        <v>61.87504983912311</v>
+        <v>0.1187504983912312</v>
       </c>
       <c r="L195">
         <v>0.003286378629992366</v>
@@ -15374,13 +15374,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U195">
-        <v>1.000041736662528</v>
+        <v>4.173666252782482E-05</v>
       </c>
       <c r="V195">
-        <v>1.000125148613979</v>
+        <v>0.0001251486139790536</v>
       </c>
       <c r="W195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15415,7 +15415,7 @@
         <v>1.759333055447694</v>
       </c>
       <c r="K196">
-        <v>63.75935851506868</v>
+        <v>0.1375935851506869</v>
       </c>
       <c r="L196">
         <v>0.004496845357993888</v>
@@ -15445,13 +15445,13 @@
         <v>0.05937499999998863</v>
       </c>
       <c r="U196">
-        <v>1.000062602380977</v>
+        <v>6.260238097710591E-05</v>
       </c>
       <c r="V196">
-        <v>1.000125132953763</v>
+        <v>0.0001251329537634849</v>
       </c>
       <c r="W196">
-        <v>1.000312402374258</v>
+        <v>0.0003124023742580029</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15486,7 +15486,7 @@
         <v>2.04644633313978</v>
       </c>
       <c r="K197">
-        <v>67.17486899008121</v>
+        <v>0.171748689900812</v>
       </c>
       <c r="L197">
         <v>0.005943004368686043</v>
@@ -15516,13 +15516,13 @@
         <v>0.078125</v>
       </c>
       <c r="U197">
-        <v>1.000104330770274</v>
+        <v>0.0001043307702739416</v>
       </c>
       <c r="V197">
-        <v>1.000166823063289</v>
+        <v>0.0001668230632885237</v>
       </c>
       <c r="W197">
-        <v>1.000624609618988</v>
+        <v>0.0006246096189881367</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15557,7 +15557,7 @@
         <v>1.777799107446659</v>
       </c>
       <c r="K198">
-        <v>64.00027643038609</v>
+        <v>0.1400027643038609</v>
       </c>
       <c r="L198">
         <v>0.007304041378860628</v>
@@ -15587,13 +15587,13 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="U198">
-        <v>1.0001043198865</v>
+        <v>0.0001043198865000594</v>
       </c>
       <c r="V198">
-        <v>1.000166795237996</v>
+        <v>0.0001667952379960091</v>
       </c>
       <c r="W198">
-        <v>0.9996878901373284</v>
+        <v>-0.0003121098626716057</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15628,7 +15628,7 @@
         <v>1.915983309388233</v>
       </c>
       <c r="K199">
-        <v>65.70625089723858</v>
+        <v>0.1570625089723857</v>
       </c>
       <c r="L199">
         <v>0.008613982818579367</v>
@@ -15658,13 +15658,13 @@
         <v>0.1218749999999886</v>
       </c>
       <c r="U199">
-        <v>1.000114739905496</v>
+        <v>0.0001147399054961529</v>
       </c>
       <c r="V199">
-        <v>1.000166767421984</v>
+        <v>0.0001667674219840709</v>
       </c>
       <c r="W199">
-        <v>1.000312207305651</v>
+        <v>0.0003122073056507357</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15699,7 +15699,7 @@
         <v>1.672680177373637</v>
       </c>
       <c r="K200">
-        <v>62.58437472370263</v>
+        <v>0.1258437472370263</v>
       </c>
       <c r="L200">
         <v>0.009664019256226309</v>
@@ -15729,13 +15729,13 @@
         <v>0.1500000000000057</v>
       </c>
       <c r="U200">
-        <v>1.000093867334168</v>
+        <v>9.386733416771875E-05</v>
       </c>
       <c r="V200">
-        <v>1.000166739615248</v>
+        <v>0.0001667396152482681</v>
       </c>
       <c r="W200">
-        <v>0.9996878901373284</v>
+        <v>-0.0003121098626716057</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15770,7 +15770,7 @@
         <v>1.806349692530916</v>
       </c>
       <c r="K201">
-        <v>64.3665220103719</v>
+        <v>0.143665220103719</v>
       </c>
       <c r="L201">
         <v>0.01056830139636302</v>
@@ -15800,13 +15800,13 @@
         <v>0.1656250000000057</v>
       </c>
       <c r="U201">
-        <v>1.000114715973678</v>
+        <v>0.0001147159736780701</v>
       </c>
       <c r="V201">
-        <v>1.00020838977223</v>
+        <v>0.0002083897722300332</v>
       </c>
       <c r="W201">
-        <v>1.000312207305651</v>
+        <v>0.0003122073056507357</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15841,7 +15841,7 @@
         <v>1.947054445328132</v>
       </c>
       <c r="K202">
-        <v>66.0678138612177</v>
+        <v>0.1606781386121771</v>
       </c>
       <c r="L202">
         <v>0.01140194793940397</v>
@@ -15871,13 +15871,13 @@
         <v>0.1562500000000284</v>
       </c>
       <c r="U202">
-        <v>1.000135557872784</v>
+        <v>0.0001355578727841866</v>
       </c>
       <c r="V202">
-        <v>1.000166677083985</v>
+        <v>0.0001666770839845455</v>
       </c>
       <c r="W202">
-        <v>1.000312109862672</v>
+        <v>0.0003121098626717167</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15912,7 +15912,7 @@
         <v>1.502101221939934</v>
       </c>
       <c r="K203">
-        <v>60.03359131791327</v>
+        <v>0.1003359131791327</v>
       </c>
       <c r="L203">
         <v>0.01187019466254853</v>
@@ -15942,13 +15942,13 @@
         <v>0.1499999999999773</v>
       </c>
       <c r="U203">
-        <v>1.00011468726867</v>
+        <v>0.0001146872686703659</v>
       </c>
       <c r="V203">
-        <v>1.000124986980523</v>
+        <v>0.0001249869805228787</v>
       </c>
       <c r="W203">
-        <v>0.9993759750390016</v>
+        <v>-0.0006240249609984483</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15983,7 +15983,7 @@
         <v>1.340830164968756</v>
       </c>
       <c r="K204">
-        <v>57.28011305709796</v>
+        <v>0.07280113057097959</v>
       </c>
       <c r="L204">
         <v>0.01193008017873401</v>
@@ -16013,13 +16013,13 @@
         <v>0.1343750000000057</v>
       </c>
       <c r="U204">
-        <v>1.000114674117009</v>
+        <v>0.0001146741170092724</v>
       </c>
       <c r="V204">
-        <v>1.000104142800608</v>
+        <v>0.0001041428006078871</v>
       </c>
       <c r="W204">
-        <v>0.9996877926943489</v>
+        <v>-0.0003122073056510688</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -16054,7 +16054,7 @@
         <v>1.204683617651083</v>
       </c>
       <c r="K205">
-        <v>54.64201792974624</v>
+        <v>0.04642017929746234</v>
       </c>
       <c r="L205">
         <v>0.01158146254663071</v>
@@ -16084,13 +16084,13 @@
         <v>0.1031250000000057</v>
       </c>
       <c r="U205">
-        <v>1.000104237243967</v>
+        <v>0.0001042372439672423</v>
       </c>
       <c r="V205">
-        <v>1.000104131956015</v>
+        <v>0.0001041319560148857</v>
       </c>
       <c r="W205">
-        <v>0.999687695190506</v>
+        <v>-0.0003123048094939573</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -16125,7 +16125,7 @@
         <v>1.204683617651083</v>
       </c>
       <c r="K206">
-        <v>54.64201792974624</v>
+        <v>0.04642017929746234</v>
       </c>
       <c r="L206">
         <v>0.01096548168335252</v>
@@ -16155,13 +16155,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U206">
-        <v>1.000093803741727</v>
+        <v>9.380374172685002E-05</v>
       </c>
       <c r="V206">
-        <v>1.000104121113679</v>
+        <v>0.0001041211136794118</v>
       </c>
       <c r="W206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -16196,7 +16196,7 @@
         <v>1.317192199286774</v>
       </c>
       <c r="K207">
-        <v>56.84432217975714</v>
+        <v>0.06844322179757145</v>
       </c>
       <c r="L207">
         <v>0.01030076092362485</v>
@@ -16226,13 +16226,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U207">
-        <v>1.000104216603789</v>
+        <v>0.0001042166037894532</v>
       </c>
       <c r="V207">
-        <v>1.000145754383043</v>
+        <v>0.0001457543830425401</v>
       </c>
       <c r="W207">
-        <v>1.000312402374258</v>
+        <v>0.0003124023742580029</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16267,7 +16267,7 @@
         <v>1.554052371151455</v>
       </c>
       <c r="K208">
-        <v>60.84653504778504</v>
+        <v>0.1084653504778504</v>
       </c>
       <c r="L208">
         <v>0.009839044633459991</v>
@@ -16297,13 +16297,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U208">
-        <v>1.000114626318203</v>
+        <v>0.000114626318202804</v>
       </c>
       <c r="V208">
-        <v>1.000145733141798</v>
+        <v>0.0001457331417982211</v>
       </c>
       <c r="W208">
-        <v>1.000624609618988</v>
+        <v>0.0006246096189881367</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16338,7 +16338,7 @@
         <v>1.678715619501322</v>
       </c>
       <c r="K209">
-        <v>62.66867625962614</v>
+        <v>0.1266867625962614</v>
       </c>
       <c r="L209">
         <v>0.009607665623218872</v>
@@ -16368,13 +16368,13 @@
         <v>0.003125000000011369</v>
       </c>
       <c r="U209">
-        <v>1.000125032560563</v>
+        <v>0.0001250325605626212</v>
       </c>
       <c r="V209">
-        <v>1.000083263946711</v>
+        <v>8.326394671098747E-05</v>
       </c>
       <c r="W209">
-        <v>1.000312109862672</v>
+        <v>0.0003121098626717167</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16409,7 +16409,7 @@
         <v>2.072389035342934</v>
       </c>
       <c r="K210">
-        <v>67.45203851151024</v>
+        <v>0.1745203851151024</v>
       </c>
       <c r="L210">
         <v>0.00983694229370926</v>
@@ -16439,13 +16439,13 @@
         <v>2.842170943040401E-14</v>
       </c>
       <c r="U210">
-        <v>1.000135435006824</v>
+        <v>0.0001354350068236698</v>
       </c>
       <c r="V210">
-        <v>1.000145699775206</v>
+        <v>0.0001456997752062872</v>
       </c>
       <c r="W210">
-        <v>1.000936037441498</v>
+        <v>0.0009360374414977279</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16480,7 +16480,7 @@
         <v>2.072389035342934</v>
       </c>
       <c r="K211">
-        <v>67.45203851151024</v>
+        <v>0.1745203851151024</v>
       </c>
       <c r="L211">
         <v>0.01029467723142982</v>
@@ -16510,13 +16510,13 @@
         <v>0.009374999999977263</v>
       </c>
       <c r="U211">
-        <v>1.000125</v>
+        <v>0.0001250000000001528</v>
       </c>
       <c r="V211">
-        <v>1.000124867328463</v>
+        <v>0.0001248673284632851</v>
       </c>
       <c r="W211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16551,7 +16551,7 @@
         <v>1.310308163124928</v>
       </c>
       <c r="K212">
-        <v>56.71573100242187</v>
+        <v>0.06715731002421865</v>
       </c>
       <c r="L212">
         <v>0.01036883202077795</v>
@@ -16581,13 +16581,13 @@
         <v>0.01562499999997158</v>
       </c>
       <c r="U212">
-        <v>1.000083322917968</v>
+        <v>8.332291796842028E-05</v>
       </c>
       <c r="V212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W212">
-        <v>0.9987531172069825</v>
+        <v>-0.001246882793017545</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16622,7 +16622,7 @@
         <v>1.600621798063038</v>
       </c>
       <c r="K213">
-        <v>61.54765753540914</v>
+        <v>0.1154765753540914</v>
       </c>
       <c r="L213">
         <v>0.01050948194751912</v>
@@ -16652,13 +16652,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U213">
-        <v>1.000124973963758</v>
+        <v>0.0001249739637576575</v>
       </c>
       <c r="V213">
-        <v>1.000083234492374</v>
+        <v>8.323449237357394E-05</v>
       </c>
       <c r="W213">
-        <v>1.000936329588015</v>
+        <v>0.000936329588014928</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16693,7 +16693,7 @@
         <v>1.600621798063038</v>
       </c>
       <c r="K214">
-        <v>61.54765753540914</v>
+        <v>0.1154765753540914</v>
       </c>
       <c r="L214">
         <v>0.0106430871961792</v>
@@ -16723,13 +16723,13 @@
         <v>0.06875000000002274</v>
       </c>
       <c r="U214">
-        <v>1.000114545151616</v>
+        <v>0.000114545151616019</v>
       </c>
       <c r="V214">
-        <v>1.000062420673727</v>
+        <v>6.242067372719262E-05</v>
       </c>
       <c r="W214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16764,7 +16764,7 @@
         <v>1.600621798063038</v>
       </c>
       <c r="K215">
-        <v>61.54765753540914</v>
+        <v>0.1154765753540914</v>
       </c>
       <c r="L215">
         <v>0.0107250751825211</v>
@@ -16794,13 +16794,13 @@
         <v>0.09062499999998863</v>
       </c>
       <c r="U215">
-        <v>1.000124944035484</v>
+        <v>0.0001249440354842424</v>
       </c>
       <c r="V215">
-        <v>1.000083222370173</v>
+        <v>8.322237017321932E-05</v>
       </c>
       <c r="W215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16835,7 +16835,7 @@
         <v>2.052098510801532</v>
       </c>
       <c r="K216">
-        <v>67.23565781179903</v>
+        <v>0.1723565781179903</v>
       </c>
       <c r="L216">
         <v>0.01118642087378718</v>
@@ -16865,13 +16865,13 @@
         <v>0.109375</v>
       </c>
       <c r="U216">
-        <v>1.000176981937432</v>
+        <v>0.0001769819374317638</v>
       </c>
       <c r="V216">
-        <v>1.000145627028377</v>
+        <v>0.0001456270283766159</v>
       </c>
       <c r="W216">
-        <v>1.00124727159339</v>
+        <v>0.001247271593389554</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16906,7 +16906,7 @@
         <v>2.052098510801532</v>
       </c>
       <c r="K217">
-        <v>67.23565781179903</v>
+        <v>0.1723565781179903</v>
       </c>
       <c r="L217">
         <v>0.01180723154671641</v>
@@ -16936,13 +16936,13 @@
         <v>0.125</v>
       </c>
       <c r="U217">
-        <v>1.000145724040303</v>
+        <v>0.0001457240403028859</v>
       </c>
       <c r="V217">
-        <v>1.0001248049922</v>
+        <v>0.0001248049921998007</v>
       </c>
       <c r="W217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16977,7 +16977,7 @@
         <v>2.052098510801532</v>
       </c>
       <c r="K218">
-        <v>67.23565781179903</v>
+        <v>0.1723565781179903</v>
       </c>
       <c r="L218">
         <v>0.01244189119375788</v>
@@ -17007,13 +17007,13 @@
         <v>0.1249999999999716</v>
       </c>
       <c r="U218">
-        <v>1.000145702807901</v>
+        <v>0.0001457028079012712</v>
       </c>
       <c r="V218">
-        <v>1.000166385890476</v>
+        <v>0.0001663858904763504</v>
       </c>
       <c r="W218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -17048,7 +17048,7 @@
         <v>1.624407962797389</v>
       </c>
       <c r="K219">
-        <v>61.89616804339796</v>
+        <v>0.1189616804339796</v>
       </c>
       <c r="L219">
         <v>0.01277160687328595</v>
@@ -17078,13 +17078,13 @@
         <v>0.1125000000000114</v>
       </c>
       <c r="U219">
-        <v>1.000124869927159</v>
+        <v>0.0001248699271589881</v>
       </c>
       <c r="V219">
-        <v>1.000145563434466</v>
+        <v>0.0001455634344655898</v>
       </c>
       <c r="W219">
-        <v>0.9993771410775458</v>
+        <v>-0.0006228589224541725</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -17119,7 +17119,7 @@
         <v>1.463835815531642</v>
       </c>
       <c r="K220">
-        <v>59.41287996155614</v>
+        <v>0.09412879961556131</v>
       </c>
       <c r="L220">
         <v>0.01273532458916134</v>
@@ -17149,13 +17149,13 @@
         <v>0.1187499999999773</v>
       </c>
       <c r="U220">
-        <v>1.000124854336607</v>
+        <v>0.0001248543366072496</v>
       </c>
       <c r="V220">
-        <v>1.000145542248835</v>
+        <v>0.0001455422488354507</v>
       </c>
       <c r="W220">
-        <v>0.9996883764412591</v>
+        <v>-0.0003116235587409255</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -17190,7 +17190,7 @@
         <v>1.325875480808615</v>
       </c>
       <c r="K221">
-        <v>57.00543695261194</v>
+        <v>0.07005436952611932</v>
       </c>
       <c r="L221">
         <v>0.01231959566537292</v>
@@ -17220,13 +17220,13 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="U221">
-        <v>1.000114435520786</v>
+        <v>0.0001144355207858272</v>
       </c>
       <c r="V221">
-        <v>1.000124732345176</v>
+        <v>0.0001247323451760707</v>
       </c>
       <c r="W221">
-        <v>0.9996882793017455</v>
+        <v>-0.0003117206982544696</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17261,7 +17261,7 @@
         <v>1.425081555308757</v>
       </c>
       <c r="K222">
-        <v>58.76427339893392</v>
+        <v>0.08764273398933919</v>
       </c>
       <c r="L222">
         <v>0.01176935367440642</v>
@@ -17291,13 +17291,13 @@
         <v>0.08437499999999432</v>
       </c>
       <c r="U222">
-        <v>1.000135226504395</v>
+        <v>0.000135226504395014</v>
       </c>
       <c r="V222">
-        <v>1.000124716788958</v>
+        <v>0.0001247167889582013</v>
       </c>
       <c r="W222">
-        <v>1.000311817898347</v>
+        <v>0.000311817898347444</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17332,7 +17332,7 @@
         <v>1.425081555308757</v>
       </c>
       <c r="K223">
-        <v>58.76427339893392</v>
+        <v>0.08764273398933919</v>
       </c>
       <c r="L223">
         <v>0.01112984420578693</v>
@@ -17362,13 +17362,13 @@
         <v>0.07187500000003411</v>
       </c>
       <c r="U223">
-        <v>1.000114406955943</v>
+        <v>0.0001144069559426697</v>
       </c>
       <c r="V223">
-        <v>1.000083134157747</v>
+        <v>8.313415774696686E-05</v>
       </c>
       <c r="W223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17403,7 +17403,7 @@
         <v>1.283945596823842</v>
       </c>
       <c r="K224">
-        <v>56.21611997279422</v>
+        <v>0.06216119972794221</v>
       </c>
       <c r="L224">
         <v>0.01032286058146435</v>
@@ -17433,13 +17433,13 @@
         <v>0.03749999999996589</v>
       </c>
       <c r="U224">
-        <v>1.000062396655539</v>
+        <v>6.239665553930962E-05</v>
       </c>
       <c r="V224">
-        <v>1.000041563623517</v>
+        <v>4.1563623516927E-05</v>
       </c>
       <c r="W224">
-        <v>0.9996882793017455</v>
+        <v>-0.0003117206982544696</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17474,7 +17474,7 @@
         <v>1.388195186100182</v>
       </c>
       <c r="K225">
-        <v>58.12737560898629</v>
+        <v>0.08127375608986287</v>
       </c>
       <c r="L225">
         <v>0.009541927947001275</v>
@@ -17504,13 +17504,13 @@
         <v>0.009375000000005684</v>
       </c>
       <c r="U225">
-        <v>1.000072791556179</v>
+        <v>7.27915561793413E-05</v>
       </c>
       <c r="V225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W225">
-        <v>1.000311817898347</v>
+        <v>0.000311817898347444</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17545,7 +17545,7 @@
         <v>1.388195186100182</v>
       </c>
       <c r="K226">
-        <v>58.12737560898629</v>
+        <v>0.08127375608986287</v>
       </c>
       <c r="L226">
         <v>0.008791799406915279</v>
@@ -17575,13 +17575,13 @@
         <v>-0.009374999999977263</v>
       </c>
       <c r="U226">
-        <v>1.000062388221104</v>
+        <v>6.238822110393727E-05</v>
       </c>
       <c r="V226">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17616,7 +17616,7 @@
         <v>1.127675141117195</v>
       </c>
       <c r="K227">
-        <v>53.00034386476302</v>
+        <v>0.03000343864763022</v>
       </c>
       <c r="L227">
         <v>0.007848920864793645</v>
@@ -17646,13 +17646,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U227">
-        <v>1.000020794776352</v>
+        <v>2.07947763521954E-05</v>
       </c>
       <c r="V227">
-        <v>1.000041561896054</v>
+        <v>4.156189605386551E-05</v>
       </c>
       <c r="W227">
-        <v>0.9993765586034913</v>
+        <v>-0.0006234413965087171</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17687,7 +17687,7 @@
         <v>1.127675141117196</v>
       </c>
       <c r="K228">
-        <v>53.00034386476302</v>
+        <v>0.03000343864763022</v>
       </c>
       <c r="L228">
         <v>0.006820837193765379</v>
@@ -17717,13 +17717,13 @@
         <v>-0.04062500000000568</v>
       </c>
       <c r="U228">
-        <v>1.000031191515907</v>
+        <v>3.119151590746938E-05</v>
       </c>
       <c r="V228">
-        <v>0.9999792199156331</v>
+        <v>-2.078008436690038E-05</v>
       </c>
       <c r="W228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17758,7 +17758,7 @@
         <v>1.127675141117196</v>
       </c>
       <c r="K229">
-        <v>53.00034386476302</v>
+        <v>0.03000343864763022</v>
       </c>
       <c r="L229">
         <v>0.005781852503488787</v>
@@ -17788,13 +17788,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U229">
-        <v>1.000020793695352</v>
+        <v>2.079369535179509E-05</v>
       </c>
       <c r="V229">
-        <v>0.9999792194838119</v>
+        <v>-2.07805161881458E-05</v>
       </c>
       <c r="W229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17829,7 +17829,7 @@
         <v>1.016433180952325</v>
       </c>
       <c r="K230">
-        <v>50.40748141588714</v>
+        <v>0.004074814158871454</v>
       </c>
       <c r="L230">
         <v>0.004667865061960154</v>
@@ -17859,13 +17859,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U230">
-        <v>1.000020793262983</v>
+        <v>2.079326298276563E-05</v>
       </c>
       <c r="V230">
-        <v>0.9999584381039461</v>
+        <v>-4.156189605386551E-05</v>
       </c>
       <c r="W230">
-        <v>0.9996880848409232</v>
+        <v>-0.0003119151590768032</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17900,7 +17900,7 @@
         <v>0.920816410416575</v>
       </c>
       <c r="K231">
-        <v>47.93880380358027</v>
+        <v>-0.02061196196419729</v>
       </c>
       <c r="L231">
         <v>0.003448887181003749</v>
@@ -17930,13 +17930,13 @@
         <v>-0.07187500000000568</v>
       </c>
       <c r="U231">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V231">
-        <v>0.9998545273176919</v>
+        <v>-0.0001454726823081343</v>
       </c>
       <c r="W231">
-        <v>0.9996879875195007</v>
+        <v>-0.0003120124804992797</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17971,7 +17971,7 @@
         <v>1.019838396346427</v>
       </c>
       <c r="K232">
-        <v>50.49108870249994</v>
+        <v>0.004910887024999422</v>
       </c>
       <c r="L232">
         <v>0.002345015650711747</v>
@@ -18001,13 +18001,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V232">
-        <v>0.9998752909876953</v>
+        <v>-0.0001247090123046579</v>
       </c>
       <c r="W232">
-        <v>1.000312109862672</v>
+        <v>0.0003121098626717167</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -18042,7 +18042,7 @@
         <v>1.019838396346427</v>
       </c>
       <c r="K233">
-        <v>50.49108870249994</v>
+        <v>0.004910887024999422</v>
       </c>
       <c r="L233">
         <v>0.00137267564598122</v>
@@ -18072,13 +18072,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U233">
-        <v>1.000020792830632</v>
+        <v>2.079283063216586E-05</v>
       </c>
       <c r="V233">
-        <v>0.9998752754334178</v>
+        <v>-0.0001247245665821906</v>
       </c>
       <c r="W233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -18113,7 +18113,7 @@
         <v>1.129558048346262</v>
       </c>
       <c r="K234">
-        <v>53.04189990141082</v>
+        <v>0.03041899901410816</v>
       </c>
       <c r="L234">
         <v>0.0006505372191760979</v>
@@ -18143,13 +18143,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U234">
-        <v>1.000041584796598</v>
+        <v>4.158479659821523E-05</v>
       </c>
       <c r="V234">
-        <v>0.9999376299376298</v>
+        <v>-6.237006237019838E-05</v>
       </c>
       <c r="W234">
-        <v>1.000312012480499</v>
+        <v>0.0003120124804993907</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -18184,7 +18184,7 @@
         <v>1.129558048346262</v>
       </c>
       <c r="K235">
-        <v>53.0418999014108</v>
+        <v>0.03041899901410805</v>
       </c>
       <c r="L235">
         <v>0.000123612491738785</v>
@@ -18214,13 +18214,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U235">
-        <v>1.000051978834219</v>
+        <v>5.197883421881322E-05</v>
       </c>
       <c r="V235">
-        <v>0.9999584173649084</v>
+        <v>-4.158263509157489E-05</v>
       </c>
       <c r="W235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18255,7 +18255,7 @@
         <v>1.007119488955216</v>
       </c>
       <c r="K236">
-        <v>50.17735588225796</v>
+        <v>0.001773558822579679</v>
       </c>
       <c r="L236">
         <v>-0.0003654903174841459</v>
@@ -18285,13 +18285,13 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="U236">
-        <v>1.000041580906048</v>
+        <v>4.158090604788889E-05</v>
       </c>
       <c r="V236">
-        <v>0.999958415635721</v>
+        <v>-4.158436427903478E-05</v>
       </c>
       <c r="W236">
-        <v>0.9996880848409232</v>
+        <v>-0.0003119151590768032</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18326,7 +18326,7 @@
         <v>0.8199961843322406</v>
       </c>
       <c r="K237">
-        <v>45.05482986125592</v>
+        <v>-0.04945170138744082</v>
       </c>
       <c r="L237">
         <v>-0.001026314928426544</v>
@@ -18356,13 +18356,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U237">
-        <v>1.000010394794287</v>
+        <v>1.039479428688317E-05</v>
       </c>
       <c r="V237">
-        <v>0.9998960347659743</v>
+        <v>-0.0001039652340256714</v>
       </c>
       <c r="W237">
-        <v>0.9993759750390016</v>
+        <v>-0.0006240249609984483</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18397,7 +18397,7 @@
         <v>0.8199961843322406</v>
       </c>
       <c r="K238">
-        <v>45.05482986125592</v>
+        <v>-0.04945170138744082</v>
       </c>
       <c r="L238">
         <v>-0.001745340907415324</v>
@@ -18427,13 +18427,13 @@
         <v>-0.05312499999996589</v>
       </c>
       <c r="U238">
-        <v>0.9999896053137638</v>
+        <v>-1.039468623620365E-05</v>
       </c>
       <c r="V238">
-        <v>0.9998960239560802</v>
+        <v>-0.0001039760439197623</v>
       </c>
       <c r="W238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18468,7 +18468,7 @@
         <v>0.8199961843322405</v>
       </c>
       <c r="K239">
-        <v>45.05482986125591</v>
+        <v>-0.04945170138744087</v>
       </c>
       <c r="L239">
         <v>-0.002447475930236165</v>
@@ -18498,13 +18498,13 @@
         <v>-0.04374999999996021</v>
       </c>
       <c r="U239">
-        <v>0.999979210411426</v>
+        <v>-2.078958857398838E-05</v>
       </c>
       <c r="V239">
-        <v>0.9999168105151509</v>
+        <v>-8.318948484908884E-05</v>
       </c>
       <c r="W239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18539,7 +18539,7 @@
         <v>0.7398321997086594</v>
       </c>
       <c r="K240">
-        <v>42.52319274425124</v>
+        <v>-0.07476807255748757</v>
       </c>
       <c r="L240">
         <v>-0.00319932070539126</v>
@@ -18569,13 +18569,13 @@
         <v>-0.04687499999997158</v>
       </c>
       <c r="U240">
-        <v>0.99993762993763</v>
+        <v>-6.237006236997633E-05</v>
       </c>
       <c r="V240">
-        <v>0.9998752053911272</v>
+        <v>-0.0001247946088728247</v>
       </c>
       <c r="W240">
-        <v>0.9996877926943489</v>
+        <v>-0.0003122073056510688</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18610,7 +18610,7 @@
         <v>0.7398321997086594</v>
       </c>
       <c r="K241">
-        <v>42.52319274425124</v>
+        <v>-0.07476807255748757</v>
       </c>
       <c r="L241">
         <v>-0.003921762306258433</v>
@@ -18640,13 +18640,13 @@
         <v>-0.046875</v>
       </c>
       <c r="U241">
-        <v>0.9999376260473625</v>
+        <v>-6.237395263752887E-05</v>
       </c>
       <c r="V241">
-        <v>0.9998751898154891</v>
+        <v>-0.0001248101845109373</v>
       </c>
       <c r="W241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18681,7 +18681,7 @@
         <v>0.7398321997086594</v>
       </c>
       <c r="K242">
-        <v>42.52319274425124</v>
+        <v>-0.07476807255748757</v>
       </c>
       <c r="L242">
         <v>-0.004566116877298587</v>
@@ -18711,13 +18711,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U242">
-        <v>0.9999792073855367</v>
+        <v>-2.079261446330527E-05</v>
       </c>
       <c r="V242">
-        <v>0.9999167828239748</v>
+        <v>-8.321717602521872E-05</v>
       </c>
       <c r="W242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18752,7 +18752,7 @@
         <v>0.6024455726355589</v>
       </c>
       <c r="K243">
-        <v>37.5953843876713</v>
+        <v>-0.124046156123287</v>
       </c>
       <c r="L243">
         <v>-0.005332684125994087</v>
@@ -18782,13 +18782,13 @@
         <v>-0.07187500000000568</v>
       </c>
       <c r="U243">
-        <v>0.9999272243361819</v>
+        <v>-7.277566381813649E-05</v>
       </c>
       <c r="V243">
-        <v>0.9998751638474501</v>
+        <v>-0.0001248361525498787</v>
       </c>
       <c r="W243">
-        <v>0.9993753903810119</v>
+        <v>-0.0006246096189881367</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18823,7 +18823,7 @@
         <v>0.6024455726355589</v>
       </c>
       <c r="K244">
-        <v>37.5953843876713</v>
+        <v>-0.124046156123287</v>
       </c>
       <c r="L244">
         <v>-0.006105104178262365</v>
@@ -18853,13 +18853,13 @@
         <v>-0.08437499999999432</v>
       </c>
       <c r="U244">
-        <v>0.9999272190394995</v>
+        <v>-7.278096050045146E-05</v>
       </c>
       <c r="V244">
-        <v>0.9998751482614396</v>
+        <v>-0.0001248517385603609</v>
       </c>
       <c r="W244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18894,7 +18894,7 @@
         <v>0.546247257467168</v>
       </c>
       <c r="K245">
-        <v>35.32729030426536</v>
+        <v>-0.1467270969573464</v>
       </c>
       <c r="L245">
         <v>-0.006923293006138553</v>
@@ -18924,13 +18924,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U245">
-        <v>0.9999168157051948</v>
+        <v>-8.318429480524969E-05</v>
       </c>
       <c r="V245">
-        <v>0.9998751326715364</v>
+        <v>-0.0001248673284636181</v>
       </c>
       <c r="W245">
-        <v>0.9996875</v>
+        <v>-0.0003125000000000488</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -18965,7 +18965,7 @@
         <v>0.5462472574671678</v>
       </c>
       <c r="K246">
-        <v>35.32729030426536</v>
+        <v>-0.1467270969573464</v>
       </c>
       <c r="L246">
         <v>-0.007691963563167883</v>
@@ -18995,13 +18995,13 @@
         <v>-0.09375000000002842</v>
       </c>
       <c r="U246">
-        <v>0.9998752131774882</v>
+        <v>-0.0001247868225118243</v>
       </c>
       <c r="V246">
-        <v>0.9998959308981162</v>
+        <v>-0.0001040691018837636</v>
       </c>
       <c r="W246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -19036,7 +19036,7 @@
         <v>0.49507556729854</v>
       </c>
       <c r="K247">
-        <v>33.11374877144803</v>
+        <v>-0.1688625122855197</v>
       </c>
       <c r="L247">
         <v>-0.008467351042064903</v>
@@ -19066,13 +19066,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U247">
-        <v>0.9998647974041105</v>
+        <v>-0.0001352025958895053</v>
       </c>
       <c r="V247">
-        <v>0.9998542880932556</v>
+        <v>-0.0001457119067443946</v>
       </c>
       <c r="W247">
-        <v>0.999687402313223</v>
+        <v>-0.0003125976867770497</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -19107,7 +19107,7 @@
         <v>0.4506385195306594</v>
       </c>
       <c r="K248">
-        <v>31.0648389287539</v>
+        <v>-0.189351610712461</v>
       </c>
       <c r="L248">
         <v>-0.009280305781765957</v>
@@ -19137,13 +19137,13 @@
         <v>-0.1125000000000114</v>
       </c>
       <c r="U248">
-        <v>0.9998543775158885</v>
+        <v>-0.0001456224841115406</v>
       </c>
       <c r="V248">
-        <v>0.9998334478379449</v>
+        <v>-0.0001665521620550781</v>
       </c>
       <c r="W248">
-        <v>0.9996873045653533</v>
+        <v>-0.000312695434646737</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -19178,7 +19178,7 @@
         <v>0.7340851861328602</v>
       </c>
       <c r="K249">
-        <v>42.33270614403466</v>
+        <v>-0.0766729385596534</v>
       </c>
       <c r="L249">
         <v>-0.009689668315198647</v>
@@ -19208,13 +19208,13 @@
         <v>-0.109375</v>
       </c>
       <c r="U249">
-        <v>0.9999063719115734</v>
+        <v>-9.362808842661163E-05</v>
       </c>
       <c r="V249">
-        <v>0.999875065070276</v>
+        <v>-0.0001249349297239855</v>
       </c>
       <c r="W249">
-        <v>1.000938379730998</v>
+        <v>0.0009383797309978625</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19249,7 +19249,7 @@
         <v>0.7340851861328602</v>
       </c>
       <c r="K250">
-        <v>42.33270614403466</v>
+        <v>-0.0766729385596534</v>
       </c>
       <c r="L250">
         <v>-0.009793164359612971</v>
@@ -19279,13 +19279,13 @@
         <v>-0.1031250000000341</v>
       </c>
       <c r="U250">
-        <v>0.9999167672395854</v>
+        <v>-8.32327604145533E-05</v>
       </c>
       <c r="V250">
-        <v>0.9998750494595888</v>
+        <v>-0.0001249505404111728</v>
       </c>
       <c r="W250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19320,7 +19320,7 @@
         <v>0.7340851861328602</v>
       </c>
       <c r="K251">
-        <v>42.33270614403466</v>
+        <v>-0.0766729385596534</v>
       </c>
       <c r="L251">
         <v>-0.009669099977766538</v>
@@ -19350,13 +19350,13 @@
         <v>-0.08437500000002274</v>
       </c>
       <c r="U251">
-        <v>0.9999271652724021</v>
+        <v>-7.283472759789245E-05</v>
       </c>
       <c r="V251">
-        <v>0.9998958615375002</v>
+        <v>-0.0001041384624997921</v>
       </c>
       <c r="W251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19391,7 +19391,7 @@
         <v>0.8442845996925646</v>
       </c>
       <c r="K252">
-        <v>45.77843353641318</v>
+        <v>-0.04221566463586818</v>
       </c>
       <c r="L252">
         <v>-0.009266195590308892</v>
@@ -19421,13 +19421,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U252">
-        <v>0.9999271599671178</v>
+        <v>-7.284003288221541E-05</v>
       </c>
       <c r="V252">
-        <v>0.9999583402766204</v>
+        <v>-4.165972337955015E-05</v>
       </c>
       <c r="W252">
-        <v>1.0003125</v>
+        <v>0.0003125000000001599</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19462,7 +19462,7 @@
         <v>0.8442845996925648</v>
       </c>
       <c r="K253">
-        <v>45.77843353641319</v>
+        <v>-0.04221566463586812</v>
       </c>
       <c r="L253">
         <v>-0.008686247170959265</v>
@@ -19492,13 +19492,13 @@
         <v>-0.04687499999997158</v>
       </c>
       <c r="U253">
-        <v>0.9999271546610611</v>
+        <v>-7.284533893892053E-05</v>
       </c>
       <c r="V253">
-        <v>0.9999583385410159</v>
+        <v>-4.166145898409912E-05</v>
       </c>
       <c r="W253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19533,7 +19533,7 @@
         <v>0.7524116643300668</v>
       </c>
       <c r="K254">
-        <v>42.93578270706774</v>
+        <v>-0.07064217292932257</v>
       </c>
       <c r="L254">
         <v>-0.008118014145686824</v>
@@ -19563,13 +19563,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U254">
-        <v>0.999927149354231</v>
+        <v>-7.285064576900702E-05</v>
       </c>
       <c r="V254">
-        <v>0.9999375052078994</v>
+        <v>-6.249479210063136E-05</v>
       </c>
       <c r="W254">
-        <v>0.9996875976257419</v>
+        <v>-0.0003124023742581139</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19604,7 +19604,7 @@
         <v>0.612169973500116</v>
       </c>
       <c r="K255">
-        <v>37.9718009615983</v>
+        <v>-0.120281990384017</v>
       </c>
       <c r="L255">
         <v>-0.007790920310594898</v>
@@ -19634,13 +19634,13 @@
         <v>-0.01562500000002842</v>
       </c>
       <c r="U255">
-        <v>0.9998959200666112</v>
+        <v>-0.0001040799333887898</v>
       </c>
       <c r="V255">
-        <v>0.9999166684027417</v>
+        <v>-8.333159725826267E-05</v>
       </c>
       <c r="W255">
-        <v>0.999375</v>
+        <v>-0.0006249999999999867</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19675,7 +19675,7 @@
         <v>0.7102697501589338</v>
       </c>
       <c r="K256">
-        <v>41.52969144738303</v>
+        <v>-0.08470308552616967</v>
       </c>
       <c r="L256">
         <v>-0.007488745669550948</v>
@@ -19705,13 +19705,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U256">
-        <v>0.9999063183095657</v>
+        <v>-9.368169043433294E-05</v>
       </c>
       <c r="V256">
-        <v>0.9999374960935056</v>
+        <v>-6.250390649442661E-05</v>
       </c>
       <c r="W256">
-        <v>1.000312695434647</v>
+        <v>0.000312695434646626</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19746,7 +19746,7 @@
         <v>0.813532672957748</v>
       </c>
       <c r="K257">
-        <v>44.85900282297819</v>
+        <v>-0.05140997177021811</v>
       </c>
       <c r="L257">
         <v>-0.007079958669579906</v>
@@ -19776,13 +19776,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U257">
-        <v>0.9999375396883233</v>
+        <v>-6.246031167667088E-05</v>
       </c>
       <c r="V257">
-        <v>0.9999583281243489</v>
+        <v>-4.167187565107255E-05</v>
       </c>
       <c r="W257">
-        <v>1.000312597686777</v>
+        <v>0.0003125976867772717</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19817,7 +19817,7 @@
         <v>0.7337731373436807</v>
       </c>
       <c r="K258">
-        <v>42.32232704146615</v>
+        <v>-0.07677672958533849</v>
       </c>
       <c r="L258">
         <v>-0.006720557297036919</v>
@@ -19847,13 +19847,13 @@
         <v>0.01562500000002842</v>
       </c>
       <c r="U258">
-        <v>0.999927125084587</v>
+        <v>-7.28749154129682E-05</v>
       </c>
       <c r="V258">
-        <v>0.9999791631938655</v>
+        <v>-2.083680613451655E-05</v>
       </c>
       <c r="W258">
-        <v>0.9996875</v>
+        <v>-0.0003125000000000488</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19888,7 +19888,7 @@
         <v>0.8369741625763885</v>
       </c>
       <c r="K259">
-        <v>45.56265295547312</v>
+        <v>-0.04437347044526879</v>
       </c>
       <c r="L259">
         <v>-0.006275790514404717</v>
@@ -19918,13 +19918,13 @@
         <v>0.01562500000002842</v>
       </c>
       <c r="U259">
-        <v>0.9999375312343829</v>
+        <v>-6.246876561710746E-05</v>
       </c>
       <c r="V259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W259">
-        <v>1.000312597686777</v>
+        <v>0.0003125976867772717</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -19959,7 +19959,7 @@
         <v>0.8369741625763886</v>
       </c>
       <c r="K260">
-        <v>45.56265295547312</v>
+        <v>-0.04437347044526879</v>
       </c>
       <c r="L260">
         <v>-0.005784781747075124</v>
@@ -19989,13 +19989,13 @@
         <v>0.009375000000034106</v>
       </c>
       <c r="U260">
-        <v>0.9999479394431602</v>
+        <v>-5.206055683981692E-05</v>
       </c>
       <c r="V260">
-        <v>1.000020837240316</v>
+        <v>2.083724031609613E-05</v>
       </c>
       <c r="W260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -20030,7 +20030,7 @@
         <v>0.8369741625763887</v>
       </c>
       <c r="K261">
-        <v>45.56265295547313</v>
+        <v>-0.04437347044526874</v>
       </c>
       <c r="L261">
         <v>-0.005275971135305013</v>
@@ -20060,13 +20060,13 @@
         <v>0</v>
       </c>
       <c r="U261">
-        <v>0.9999583493861741</v>
+        <v>-4.16506138258832E-05</v>
       </c>
       <c r="V261">
-        <v>1.000020836806134</v>
+        <v>2.083680613407246E-05</v>
       </c>
       <c r="W261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -20101,7 +20101,7 @@
         <v>0.7470525016123386</v>
       </c>
       <c r="K262">
-        <v>42.76073563461263</v>
+        <v>-0.07239264365387371</v>
       </c>
       <c r="L262">
         <v>-0.004883327039917973</v>
@@ -20131,13 +20131,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U262">
-        <v>0.9999375214769923</v>
+        <v>-6.247852300766965E-05</v>
       </c>
       <c r="V262">
-        <v>1.000020836371971</v>
+        <v>2.083637197114463E-05</v>
       </c>
       <c r="W262">
-        <v>0.9996875</v>
+        <v>-0.0003125000000000488</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -20172,7 +20172,7 @@
         <v>0.6711512296884667</v>
       </c>
       <c r="K263">
-        <v>40.1610110303172</v>
+        <v>-0.09838988969682794</v>
       </c>
       <c r="L263">
         <v>-0.004682065197317465</v>
@@ -20202,13 +20202,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U263">
-        <v>0.9999271038353795</v>
+        <v>-7.289616462047288E-05</v>
       </c>
       <c r="V263">
-        <v>1.000020835937825</v>
+        <v>2.083593782531423E-05</v>
       </c>
       <c r="W263">
-        <v>0.999687402313223</v>
+        <v>-0.0003125976867770497</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20243,7 +20243,7 @@
         <v>0.6711512296884666</v>
       </c>
       <c r="K264">
-        <v>40.1610110303172</v>
+        <v>-0.09838988969682805</v>
       </c>
       <c r="L264">
         <v>-0.004592551379585087</v>
@@ -20273,13 +20273,13 @@
         <v>-0.01562499999997158</v>
       </c>
       <c r="U264">
-        <v>0.9999166840241617</v>
+        <v>-8.331597583832728E-05</v>
       </c>
       <c r="V264">
-        <v>0.9999583289926033</v>
+        <v>-4.167100739671525E-05</v>
       </c>
       <c r="W264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20314,7 +20314,7 @@
         <v>0.5478094445176036</v>
       </c>
       <c r="K265">
-        <v>35.39256375892809</v>
+        <v>-0.1460743624107191</v>
       </c>
       <c r="L265">
         <v>-0.004787269104722474</v>
@@ -20344,13 +20344,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U265">
-        <v>0.9998958463525394</v>
+        <v>-0.0001041536474606364</v>
       </c>
       <c r="V265">
-        <v>0.9999166545121164</v>
+        <v>-8.334548788357932E-05</v>
       </c>
       <c r="W265">
-        <v>0.9993746091307067</v>
+        <v>-0.0006253908692932519</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20385,7 +20385,7 @@
         <v>0.5478094445176036</v>
       </c>
       <c r="K266">
-        <v>35.39256375892809</v>
+        <v>-0.1460743624107191</v>
       </c>
       <c r="L266">
         <v>-0.00512439701544351</v>
@@ -20415,13 +20415,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U266">
-        <v>0.999906251953084</v>
+        <v>-9.374804691597571E-05</v>
       </c>
       <c r="V266">
-        <v>0.999916647565067</v>
+        <v>-8.335243493295952E-05</v>
       </c>
       <c r="W266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20456,7 +20456,7 @@
         <v>0.455130945006452</v>
       </c>
       <c r="K267">
-        <v>31.27766243775635</v>
+        <v>-0.1872233756224365</v>
       </c>
       <c r="L267">
         <v>-0.005735260747918713</v>
@@ -20486,13 +20486,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U267">
-        <v>0.9999062431635642</v>
+        <v>-9.375683643575439E-05</v>
       </c>
       <c r="V267">
-        <v>0.9998541210795041</v>
+        <v>-0.0001458789204958899</v>
       </c>
       <c r="W267">
-        <v>0.9993742177722151</v>
+        <v>-0.0006257822277848657</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20527,7 +20527,7 @@
         <v>0.4179185575867347</v>
       </c>
       <c r="K268">
-        <v>29.47408758779649</v>
+        <v>-0.2052591241220351</v>
       </c>
       <c r="L268">
         <v>-0.006566026379540468</v>
@@ -20557,13 +20557,13 @@
         <v>-0.07187500000000568</v>
       </c>
       <c r="U268">
-        <v>0.999895815969328</v>
+        <v>-0.0001041840306720276</v>
       </c>
       <c r="V268">
-        <v>0.9998332569094168</v>
+        <v>-0.0001667430905831768</v>
       </c>
       <c r="W268">
-        <v>0.9996869129618035</v>
+        <v>-0.0003130870381965467</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20598,7 +20598,7 @@
         <v>0.3848006169509235</v>
       </c>
       <c r="K269">
-        <v>27.78743829549872</v>
+        <v>-0.2221256170450128</v>
       </c>
       <c r="L269">
         <v>-0.007567075939745563</v>
@@ -20628,13 +20628,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U269">
-        <v>0.9998853856252736</v>
+        <v>-0.0001146143747263739</v>
       </c>
       <c r="V269">
-        <v>0.9998332291015217</v>
+        <v>-0.0001667708984782745</v>
       </c>
       <c r="W269">
-        <v>0.9996868149076104</v>
+        <v>-0.0003131850923896451</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20669,7 +20669,7 @@
         <v>0.3848006169509236</v>
       </c>
       <c r="K270">
-        <v>27.78743829549872</v>
+        <v>-0.2221256170450128</v>
       </c>
       <c r="L270">
         <v>-0.008580094226367053</v>
@@ -20699,13 +20699,13 @@
         <v>-0.1125000000000114</v>
       </c>
       <c r="U270">
-        <v>0.9998957931702843</v>
+        <v>-0.0001042068297156806</v>
       </c>
       <c r="V270">
-        <v>0.9998749009632625</v>
+        <v>-0.0001250990367375193</v>
       </c>
       <c r="W270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20740,7 +20740,7 @@
         <v>0.4726066701440411</v>
       </c>
       <c r="K271">
-        <v>32.09320450095568</v>
+        <v>-0.1790679549904432</v>
       </c>
       <c r="L271">
         <v>-0.009390907306591319</v>
@@ -20770,13 +20770,13 @@
         <v>-0.1281249999999829</v>
       </c>
       <c r="U271">
-        <v>0.9999062040790806</v>
+        <v>-9.379592091940392E-05</v>
       </c>
       <c r="V271">
-        <v>0.9998748853115357</v>
+        <v>-0.0001251146884643228</v>
       </c>
       <c r="W271">
-        <v>1.00031328320802</v>
+        <v>0.0003132832080201542</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20811,7 +20811,7 @@
         <v>0.5650340945577963</v>
       </c>
       <c r="K272">
-        <v>36.10362844634691</v>
+        <v>-0.1389637155365309</v>
       </c>
       <c r="L272">
         <v>-0.009879634713615698</v>
@@ -20841,13 +20841,13 @@
         <v>-0.1374999999999886</v>
       </c>
       <c r="U272">
-        <v>0.9999166180271825</v>
+        <v>-8.338197281754223E-05</v>
       </c>
       <c r="V272">
-        <v>0.9998748696558915</v>
+        <v>-0.0001251303441085483</v>
       </c>
       <c r="W272">
-        <v>1.000313185092389</v>
+        <v>0.000313185092389423</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20882,7 +20882,7 @@
         <v>0.5650340945577963</v>
       </c>
       <c r="K273">
-        <v>36.10362844634691</v>
+        <v>-0.1389637155365309</v>
       </c>
       <c r="L273">
         <v>-0.01010615420041627</v>
@@ -20912,13 +20912,13 @@
         <v>-0.1312499999999943</v>
       </c>
       <c r="U273">
-        <v>0.9999374583055369</v>
+        <v>-6.254169446306967E-05</v>
       </c>
       <c r="V273">
-        <v>0.9998957116636077</v>
+        <v>-0.0001042883363923108</v>
       </c>
       <c r="W273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -20953,7 +20953,7 @@
         <v>0.6674467531880545</v>
       </c>
       <c r="K274">
-        <v>40.02806997656374</v>
+        <v>-0.0997193002343626</v>
       </c>
       <c r="L274">
         <v>-0.01000876806225981</v>
@@ -20983,13 +20983,13 @@
         <v>-0.1250000000000284</v>
       </c>
       <c r="U274">
-        <v>0.9999478786615241</v>
+        <v>-5.212133847587452E-05</v>
       </c>
       <c r="V274">
-        <v>0.9998957007864162</v>
+        <v>-0.0001042992135837917</v>
       </c>
       <c r="W274">
-        <v>1.000313087038197</v>
+        <v>0.0003130870381966577</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -21024,7 +21024,7 @@
         <v>0.7752495517462207</v>
       </c>
       <c r="K275">
-        <v>43.66989142363946</v>
+        <v>-0.06330108576360544</v>
       </c>
       <c r="L275">
         <v>-0.009571030723294134</v>
@@ -21054,13 +21054,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U275">
-        <v>0.9999687255668491</v>
+        <v>-3.127443315087408E-05</v>
       </c>
       <c r="V275">
-        <v>0.9999165519255642</v>
+        <v>-8.344807443583235E-05</v>
       </c>
       <c r="W275">
-        <v>1.000312989045383</v>
+        <v>0.0003129890453834605</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -21095,7 +21095,7 @@
         <v>1.002202811868611</v>
       </c>
       <c r="K276">
-        <v>50.05500970869569</v>
+        <v>0.0005500970869568578</v>
       </c>
       <c r="L276">
         <v>-0.008692348295149912</v>
@@ -21125,13 +21125,13 @@
         <v>-0.06250000000002842</v>
       </c>
       <c r="U276">
-        <v>0.9999895748629094</v>
+        <v>-1.042513709059723E-05</v>
       </c>
       <c r="V276">
-        <v>0.999958272480701</v>
+        <v>-4.172751929898411E-05</v>
       </c>
       <c r="W276">
-        <v>1.000625782227785</v>
+        <v>0.0006257822277846437</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -21166,7 +21166,7 @@
         <v>1.002202811868611</v>
       </c>
       <c r="K277">
-        <v>50.05500970869569</v>
+        <v>0.0005500970869568578</v>
       </c>
       <c r="L277">
         <v>-0.007570748313774204</v>
@@ -21196,13 +21196,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U277">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V277">
-        <v>0.9999791353697211</v>
+        <v>-2.086463027894947E-05</v>
       </c>
       <c r="W277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21237,7 +21237,7 @@
         <v>1.002202811868611</v>
       </c>
       <c r="K278">
-        <v>50.05500970869567</v>
+        <v>0.0005500970869567468</v>
       </c>
       <c r="L278">
         <v>-0.006345803452304454</v>
@@ -21267,13 +21267,13 @@
         <v>0.02187500000002274</v>
       </c>
       <c r="U278">
-        <v>1.000010425245775</v>
+        <v>1.042524577532511E-05</v>
       </c>
       <c r="V278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21308,7 +21308,7 @@
         <v>0.8850617429273516</v>
       </c>
       <c r="K279">
-        <v>46.9513397239138</v>
+        <v>-0.03048660276086196</v>
       </c>
       <c r="L279">
         <v>-0.005227039314559063</v>
@@ -21338,13 +21338,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U279">
-        <v>0.9999687245887285</v>
+        <v>-3.127541127145861E-05</v>
       </c>
       <c r="V279">
-        <v>0.9999791349343796</v>
+        <v>-2.086506562037904E-05</v>
       </c>
       <c r="W279">
-        <v>0.9996873045653533</v>
+        <v>-0.000312695434646737</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21379,7 +21379,7 @@
         <v>0.8850617429273517</v>
       </c>
       <c r="K280">
-        <v>46.95133972391381</v>
+        <v>-0.0304866027608619</v>
       </c>
       <c r="L280">
         <v>-0.004224854343051146</v>
@@ -21409,13 +21409,13 @@
         <v>0.07187499999997726</v>
       </c>
       <c r="U280">
-        <v>0.9999687236105462</v>
+        <v>-3.127638945377154E-05</v>
       </c>
       <c r="V280">
-        <v>1.000020865500981</v>
+        <v>2.086550098057138E-05</v>
       </c>
       <c r="W280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21450,7 +21450,7 @@
         <v>0.8850617429273517</v>
       </c>
       <c r="K281">
-        <v>46.95133972391381</v>
+        <v>-0.0304866027608619</v>
       </c>
       <c r="L281">
         <v>-0.003341773733528856</v>
@@ -21480,13 +21480,13 @@
         <v>0.08750000000000568</v>
       </c>
       <c r="U281">
-        <v>0.9999687226323033</v>
+        <v>-3.127736769670264E-05</v>
       </c>
       <c r="V281">
-        <v>1.00002086506562</v>
+        <v>2.086506562037904E-05</v>
       </c>
       <c r="W281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21521,7 +21521,7 @@
         <v>0.8850617429273515</v>
       </c>
       <c r="K282">
-        <v>46.9513397239138</v>
+        <v>-0.03048660276086196</v>
       </c>
       <c r="L282">
         <v>-0.00257495590773297</v>
@@ -21551,13 +21551,13 @@
         <v>0.09687500000001137</v>
       </c>
       <c r="U282">
-        <v>0.9999582955386651</v>
+        <v>-4.170446133489047E-05</v>
       </c>
       <c r="V282">
-        <v>1.000062593890837</v>
+        <v>6.259389083651534E-05</v>
       </c>
       <c r="W282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21592,7 +21592,7 @@
         <v>1.172066529859069</v>
       </c>
       <c r="K283">
-        <v>53.96089455579968</v>
+        <v>0.03960894555799677</v>
       </c>
       <c r="L283">
         <v>-0.001690249887940125</v>
@@ -21622,13 +21622,13 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="U283">
-        <v>0.9999791468996652</v>
+        <v>-2.085310033483889E-05</v>
       </c>
       <c r="V283">
-        <v>1.000125179946173</v>
+        <v>0.00012517994617256</v>
       </c>
       <c r="W283">
-        <v>1.000625586487332</v>
+        <v>0.0006255864873319084</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21663,7 +21663,7 @@
         <v>0.9001284515058053</v>
       </c>
       <c r="K284">
-        <v>47.37197902554827</v>
+        <v>-0.02628020974451728</v>
       </c>
       <c r="L284">
         <v>-0.001012154482827143</v>
@@ -21693,13 +21693,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U284">
-        <v>0.9999687196972069</v>
+        <v>-3.12803027930908E-05</v>
       </c>
       <c r="V284">
-        <v>1.000104303565096</v>
+        <v>0.0001043035650958313</v>
       </c>
       <c r="W284">
-        <v>0.9993748046264458</v>
+        <v>-0.0006251953735542104</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21734,7 +21734,7 @@
         <v>0.7234437576171151</v>
       </c>
       <c r="K285">
-        <v>41.97663860045947</v>
+        <v>-0.08023361399540524</v>
       </c>
       <c r="L285">
         <v>-0.0007265847129635525</v>
@@ -21764,13 +21764,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U285">
-        <v>0.9999687187187187</v>
+        <v>-3.128128128127017E-05</v>
       </c>
       <c r="V285">
-        <v>1.000062575612198</v>
+        <v>6.257561219791263E-05</v>
       </c>
       <c r="W285">
-        <v>0.9993744135126682</v>
+        <v>-0.0006255864873317973</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21805,7 +21805,7 @@
         <v>0.7234437576171151</v>
       </c>
       <c r="K286">
-        <v>41.97663860045947</v>
+        <v>-0.08023361399540524</v>
       </c>
       <c r="L286">
         <v>-0.0006943796442074652</v>
@@ -21835,13 +21835,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U286">
-        <v>0.9999582903202261</v>
+        <v>-4.170967977390472E-05</v>
       </c>
       <c r="V286">
-        <v>1.00004171446449</v>
+        <v>4.17144644904166E-05</v>
       </c>
       <c r="W286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21876,7 +21876,7 @@
         <v>0.6524876875502432</v>
       </c>
       <c r="K287">
-        <v>39.48517695266668</v>
+        <v>-0.1051482304733332</v>
       </c>
       <c r="L287">
         <v>-0.0009291101020858576</v>
@@ -21906,13 +21906,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U287">
-        <v>0.999937432870684</v>
+        <v>-6.25671293159602E-05</v>
       </c>
       <c r="V287">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W287">
-        <v>0.9996870109546165</v>
+        <v>-0.0003129890453834605</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -21947,7 +21947,7 @@
         <v>0.5408165065454116</v>
       </c>
       <c r="K288">
-        <v>35.09934533073958</v>
+        <v>-0.1490065466926042</v>
       </c>
       <c r="L288">
         <v>-0.001535049933468498</v>
@@ -21977,13 +21977,13 @@
         <v>-0.02187500000002274</v>
       </c>
       <c r="U288">
-        <v>0.9999270004484259</v>
+        <v>-7.299955157413773E-05</v>
       </c>
       <c r="V288">
-        <v>0.9999582872755333</v>
+        <v>-4.171272446673591E-05</v>
       </c>
       <c r="W288">
-        <v>0.9993738259236068</v>
+        <v>-0.0006261740763932044</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -22018,7 +22018,7 @@
         <v>0.6308937707045266</v>
       </c>
       <c r="K289">
-        <v>38.68392791959639</v>
+        <v>-0.1131607208040362</v>
       </c>
       <c r="L289">
         <v>-0.002207785297753854</v>
@@ -22048,13 +22048,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U289">
-        <v>0.9999269951191021</v>
+        <v>-7.300488089789781E-05</v>
       </c>
       <c r="V289">
-        <v>0.9999582855355093</v>
+        <v>-4.171446449074967E-05</v>
       </c>
       <c r="W289">
-        <v>1.00031328320802</v>
+        <v>0.0003132832080201542</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -22089,7 +22089,7 @@
         <v>0.6308937707045265</v>
       </c>
       <c r="K290">
-        <v>38.68392791959637</v>
+        <v>-0.1131607208040363</v>
       </c>
       <c r="L290">
         <v>-0.002870105600461557</v>
@@ -22119,13 +22119,13 @@
         <v>-0.06249999999997158</v>
       </c>
       <c r="U290">
-        <v>0.9999269897890005</v>
+        <v>-7.301021099948013E-05</v>
       </c>
       <c r="V290">
-        <v>0.9999374256930107</v>
+        <v>-6.257430698930477E-05</v>
       </c>
       <c r="W290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -22160,7 +22160,7 @@
         <v>0.7307023736508576</v>
       </c>
       <c r="K291">
-        <v>42.21999026380636</v>
+        <v>-0.07780009736193638</v>
       </c>
       <c r="L291">
         <v>-0.003359569348827408</v>
@@ -22190,13 +22190,13 @@
         <v>-0.08750000000003411</v>
       </c>
       <c r="U291">
-        <v>0.9999374152498175</v>
+        <v>-6.258475018250387E-05</v>
       </c>
       <c r="V291">
-        <v>0.9999165623696288</v>
+        <v>-8.343763037121921E-05</v>
       </c>
       <c r="W291">
-        <v>1.000313185092389</v>
+        <v>0.000313185092389423</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -22231,7 +22231,7 @@
         <v>0.6612322027273408</v>
       </c>
       <c r="K292">
-        <v>39.80371928991972</v>
+        <v>-0.1019628071008028</v>
       </c>
       <c r="L292">
         <v>-0.003814828132489864</v>
@@ -22261,13 +22261,13 @@
         <v>-0.09687499999998295</v>
       </c>
       <c r="U292">
-        <v>0.9999374113327212</v>
+        <v>-6.258866727881784E-05</v>
       </c>
       <c r="V292">
-        <v>0.9998956942590119</v>
+        <v>-0.0001043057409880754</v>
       </c>
       <c r="W292">
-        <v>0.9996869129618035</v>
+        <v>-0.0003130870381965467</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -22302,7 +22302,7 @@
         <v>0.6010781131212972</v>
       </c>
       <c r="K293">
-        <v>37.54208543576285</v>
+        <v>-0.1245791456423715</v>
       </c>
       <c r="L293">
         <v>-0.004320418000677691</v>
@@ -22332,13 +22332,13 @@
         <v>-0.09687500000001137</v>
       </c>
       <c r="U293">
-        <v>0.9999374074151351</v>
+        <v>-6.25925848648512E-05</v>
       </c>
       <c r="V293">
-        <v>0.9998748200538273</v>
+        <v>-0.000125179946172671</v>
       </c>
       <c r="W293">
-        <v>0.9996868149076104</v>
+        <v>-0.0003131850923896451</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -22373,7 +22373,7 @@
         <v>0.9841211292416248</v>
       </c>
       <c r="K294">
-        <v>49.59985127610519</v>
+        <v>-0.004001487238948109</v>
       </c>
       <c r="L294">
         <v>-0.004352856924561122</v>
@@ -22403,13 +22403,13 @@
         <v>-0.08437499999996589</v>
       </c>
       <c r="U294">
-        <v>0.9999791344990192</v>
+        <v>-2.086550098079343E-05</v>
       </c>
       <c r="V294">
-        <v>0.9999791340636409</v>
+        <v>-2.08659363590824E-05</v>
       </c>
       <c r="W294">
-        <v>1.00125313283208</v>
+        <v>0.001253132832080395</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -22444,7 +22444,7 @@
         <v>0.9841211292416248</v>
       </c>
       <c r="K295">
-        <v>49.59985127610519</v>
+        <v>-0.004001487238948109</v>
       </c>
       <c r="L295">
         <v>-0.004080696049966588</v>
@@ -22474,13 +22474,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V295">
-        <v>0.9999791336282449</v>
+        <v>-2.086637175513495E-05</v>
       </c>
       <c r="W295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -22515,7 +22515,7 @@
         <v>1.196333326538175</v>
       </c>
       <c r="K296">
-        <v>54.46957035541669</v>
+        <v>0.04469570355416685</v>
       </c>
       <c r="L296">
         <v>-0.003398566225874473</v>
@@ -22545,13 +22545,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U296">
-        <v>1.000020865936359</v>
+        <v>2.086593635897138E-05</v>
       </c>
       <c r="V296">
-        <v>1.00002086680717</v>
+        <v>2.086680716995026E-05</v>
       </c>
       <c r="W296">
-        <v>1.000625782227785</v>
+        <v>0.0006257822277846437</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -22586,7 +22586,7 @@
         <v>1.308023956694222</v>
       </c>
       <c r="K297">
-        <v>56.67289340305211</v>
+        <v>0.06672893403052105</v>
       </c>
       <c r="L297">
         <v>-0.002385161385480468</v>
@@ -22616,13 +22616,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U297">
-        <v>1.000052163752452</v>
+        <v>5.216375245153948E-05</v>
       </c>
       <c r="V297">
-        <v>1.00004173274351</v>
+        <v>4.17327435102699E-05</v>
       </c>
       <c r="W297">
-        <v>1.000312695434647</v>
+        <v>0.000312695434646626</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -22657,7 +22657,7 @@
         <v>1.308023956694222</v>
       </c>
       <c r="K298">
-        <v>56.67289340305211</v>
+        <v>0.06672893403052116</v>
       </c>
       <c r="L298">
         <v>-0.001226919863229401</v>
@@ -22687,13 +22687,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U298">
-        <v>1.000062593237844</v>
+        <v>6.259323784374438E-05</v>
       </c>
       <c r="V298">
-        <v>1</v>
+        <v>4.440892098500626E-16</v>
       </c>
       <c r="W298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -22728,7 +22728,7 @@
         <v>1.048504547086286</v>
       </c>
       <c r="K299">
-        <v>51.18390137711134</v>
+        <v>0.0118390137711134</v>
       </c>
       <c r="L299">
         <v>-0.0002781715606227279</v>
@@ -22758,13 +22758,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U299">
-        <v>1.000052157766813</v>
+        <v>5.215776681311013E-05</v>
       </c>
       <c r="V299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W299">
-        <v>0.9993748046264458</v>
+        <v>-0.0006251953735542104</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -22799,7 +22799,7 @@
         <v>0.9493677218077738</v>
       </c>
       <c r="K300">
-        <v>48.70131536431537</v>
+        <v>-0.01298684635684633</v>
       </c>
       <c r="L300">
         <v>0.0003702458980754837</v>
@@ -22829,13 +22829,13 @@
         <v>0.07500000000001705</v>
       </c>
       <c r="U300">
-        <v>1.000041724037218</v>
+        <v>4.172403721791618E-05</v>
       </c>
       <c r="V300">
-        <v>1.000020865500981</v>
+        <v>2.086550098057138E-05</v>
       </c>
       <c r="W300">
-        <v>0.9996872067563342</v>
+        <v>-0.0003127932436658432</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -22870,7 +22870,7 @@
         <v>1.148421799760554</v>
       </c>
       <c r="K301">
-        <v>53.45420530961601</v>
+        <v>0.0345420530961601</v>
       </c>
       <c r="L301">
         <v>0.001021937202014681</v>
@@ -22900,13 +22900,13 @@
         <v>0.1031250000000057</v>
       </c>
       <c r="U301">
-        <v>1.000052152870494</v>
+        <v>5.215287049398221E-05</v>
       </c>
       <c r="V301">
-        <v>1.000062595196862</v>
+        <v>6.25951968620253E-05</v>
       </c>
       <c r="W301">
-        <v>1.000625782227785</v>
+        <v>0.0006257822277846437</v>
       </c>
     </row>
     <row r="302" spans="1:23">
@@ -22941,7 +22941,7 @@
         <v>1.357952408131901</v>
       </c>
       <c r="K302">
-        <v>57.59032300434535</v>
+        <v>0.07590323004345345</v>
       </c>
       <c r="L302">
         <v>0.001858248936208296</v>
@@ -22971,13 +22971,13 @@
         <v>0.1124999999999829</v>
       </c>
       <c r="U302">
-        <v>1.000062580180856</v>
+        <v>6.258018085647521E-05</v>
       </c>
       <c r="V302">
-        <v>1.000125182557897</v>
+        <v>0.0001251825578969523</v>
       </c>
       <c r="W302">
-        <v>1.000625390869293</v>
+        <v>0.0006253908692932519</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -23012,7 +23012,7 @@
         <v>1.223072832037503</v>
       </c>
       <c r="K303">
-        <v>55.01721825805074</v>
+        <v>0.05017218258050737</v>
       </c>
       <c r="L303">
         <v>0.002632370081418673</v>
@@ -23042,13 +23042,13 @@
         <v>0.1156249999999943</v>
       </c>
       <c r="U303">
-        <v>1.000052146887352</v>
+        <v>5.214688735244444E-05</v>
       </c>
       <c r="V303">
-        <v>1.000146028037383</v>
+        <v>0.0001460280373828393</v>
       </c>
       <c r="W303">
-        <v>0.9996875</v>
+        <v>-0.0003125000000000488</v>
       </c>
     </row>
     <row r="304" spans="1:23">
@@ -23083,7 +23083,7 @@
         <v>1.011550751234917</v>
       </c>
       <c r="K304">
-        <v>50.28711060926068</v>
+        <v>0.002871106092606768</v>
       </c>
       <c r="L304">
         <v>0.003081979423740794</v>
@@ -23113,13 +23113,13 @@
         <v>0.09375</v>
       </c>
       <c r="U304">
-        <v>1.000020857667278</v>
+        <v>2.085766727843996E-05</v>
       </c>
       <c r="V304">
-        <v>1.00008343240932</v>
+        <v>8.343240931973916E-05</v>
       </c>
       <c r="W304">
-        <v>0.9993748046264458</v>
+        <v>-0.0006251953735542104</v>
       </c>
     </row>
     <row r="305" spans="1:23">
@@ -23154,7 +23154,7 @@
         <v>1.102573467162064</v>
       </c>
       <c r="K305">
-        <v>52.43923622085158</v>
+        <v>0.02439236220851582</v>
       </c>
       <c r="L305">
         <v>0.003409055918984763</v>
@@ -23184,13 +23184,13 @@
         <v>0.07187500000000568</v>
       </c>
       <c r="U305">
-        <v>1.000020857232245</v>
+        <v>2.085723224531932E-05</v>
       </c>
       <c r="V305">
-        <v>1.000104281811167</v>
+        <v>0.0001042818111665067</v>
       </c>
       <c r="W305">
-        <v>1.000312793243666</v>
+        <v>0.0003127932436659542</v>
       </c>
     </row>
     <row r="306" spans="1:23">
@@ -23225,7 +23225,7 @@
         <v>1.294200237534951</v>
       </c>
       <c r="K306">
-        <v>56.41182562710961</v>
+        <v>0.06411825627109613</v>
       </c>
       <c r="L306">
         <v>0.003856506816766454</v>
@@ -23255,13 +23255,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U306">
-        <v>1.00002085679723</v>
+        <v>2.08567972301843E-05</v>
       </c>
       <c r="V306">
-        <v>1.000125125125125</v>
+        <v>0.0001251251251248586</v>
       </c>
       <c r="W306">
-        <v>1.000625390869293</v>
+        <v>0.0006253908692932519</v>
       </c>
     </row>
     <row r="307" spans="1:23">
@@ -23296,7 +23296,7 @@
         <v>1.294200237534952</v>
       </c>
       <c r="K307">
-        <v>56.41182562710962</v>
+        <v>0.06411825627109624</v>
       </c>
       <c r="L307">
         <v>0.004334289106100879</v>
@@ -23326,13 +23326,13 @@
         <v>0.05625000000003411</v>
       </c>
       <c r="U307">
-        <v>1.000020856362233</v>
+        <v>2.085636223325693E-05</v>
       </c>
       <c r="V307">
-        <v>1.000145961049252</v>
+        <v>0.000145961049251575</v>
       </c>
       <c r="W307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:23">
@@ -23367,7 +23367,7 @@
         <v>1.294200237534951</v>
       </c>
       <c r="K308">
-        <v>56.41182562710961</v>
+        <v>0.06411825627109613</v>
       </c>
       <c r="L308">
         <v>0.004784180561461358</v>
@@ -23397,13 +23397,13 @@
         <v>0.05937499999998863</v>
       </c>
       <c r="U308">
-        <v>1.000020855927255</v>
+        <v>2.085592725453722E-05</v>
       </c>
       <c r="V308">
-        <v>1.000166788283123</v>
+        <v>0.0001667882831228873</v>
       </c>
       <c r="W308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:23">
@@ -23438,7 +23438,7 @@
         <v>1.057781750227262</v>
       </c>
       <c r="K309">
-        <v>51.40398150146099</v>
+        <v>0.01403981501460994</v>
       </c>
       <c r="L309">
         <v>0.004943205316329143</v>
@@ -23468,13 +23468,13 @@
         <v>0.04062500000003411</v>
       </c>
       <c r="U309">
-        <v>1.000010427746147</v>
+        <v>1.042774614701258E-05</v>
       </c>
       <c r="V309">
-        <v>1.000041690117358</v>
+        <v>4.16901173578843E-05</v>
       </c>
       <c r="W309">
-        <v>0.999375</v>
+        <v>-0.0006249999999999867</v>
       </c>
     </row>
     <row r="310" spans="1:23">
@@ -23509,7 +23509,7 @@
         <v>1.346216520639299</v>
       </c>
       <c r="K310">
-        <v>57.37818776727737</v>
+        <v>0.07378187767277367</v>
       </c>
       <c r="L310">
         <v>0.005239642876527106</v>
@@ -23539,13 +23539,13 @@
         <v>0.03125</v>
       </c>
       <c r="U310">
-        <v>1.000041710549641</v>
+        <v>4.171054964063892E-05</v>
       </c>
       <c r="V310">
-        <v>1.000104220948411</v>
+        <v>0.0001042209484107826</v>
       </c>
       <c r="W310">
-        <v>1.00093808630394</v>
+        <v>0.0009380863039401</v>
       </c>
     </row>
     <row r="311" spans="1:23">
@@ -23580,7 +23580,7 @@
         <v>1.346216520639299</v>
       </c>
       <c r="K311">
-        <v>57.37818776727737</v>
+        <v>0.07378187767277367</v>
       </c>
       <c r="L311">
         <v>0.005581309942437968</v>
@@ -23610,13 +23610,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U311">
-        <v>1.000041708809943</v>
+        <v>4.170880994336379E-05</v>
       </c>
       <c r="V311">
-        <v>1.000062526052522</v>
+        <v>6.25260525217719E-05</v>
       </c>
       <c r="W311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:23">
@@ -23651,7 +23651,7 @@
         <v>1.216609008189303</v>
       </c>
       <c r="K312">
-        <v>54.88604457053628</v>
+        <v>0.04886044570536274</v>
       </c>
       <c r="L312">
         <v>0.005794333070772229</v>
@@ -23681,13 +23681,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U312">
-        <v>1.000031280302794</v>
+        <v>3.128030279353489E-05</v>
       </c>
       <c r="V312">
-        <v>1.00002084071442</v>
+        <v>2.084071441976754E-05</v>
       </c>
       <c r="W312">
-        <v>0.9996875976257419</v>
+        <v>-0.0003124023742581139</v>
       </c>
     </row>
     <row r="313" spans="1:23">
@@ -23722,7 +23722,7 @@
         <v>1.317951517646023</v>
       </c>
       <c r="K313">
-        <v>56.85845918746644</v>
+        <v>0.06858459187466437</v>
       </c>
       <c r="L313">
         <v>0.006008628786024611</v>
@@ -23752,13 +23752,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U313">
-        <v>1.000020852882911</v>
+        <v>2.085288291131526E-05</v>
       </c>
       <c r="V313">
-        <v>1.000041680560187</v>
+        <v>4.168056018660771E-05</v>
       </c>
       <c r="W313">
-        <v>1.0003125</v>
+        <v>0.0003125000000001599</v>
       </c>
     </row>
     <row r="314" spans="1:23">
@@ -23793,7 +23793,7 @@
         <v>1.531304169133792</v>
       </c>
       <c r="K314">
-        <v>60.49467258049046</v>
+        <v>0.1049467258049046</v>
       </c>
       <c r="L314">
         <v>0.006415907452859075</v>
@@ -23823,13 +23823,13 @@
         <v>0.05937499999998863</v>
       </c>
       <c r="U314">
-        <v>1.000062557344232</v>
+        <v>6.255734423188386E-05</v>
       </c>
       <c r="V314">
-        <v>1.00012503646897</v>
+        <v>0.0001250364689702188</v>
       </c>
       <c r="W314">
-        <v>1.000624804748516</v>
+        <v>0.0006248047485160058</v>
       </c>
     </row>
     <row r="315" spans="1:23">
@@ -23864,7 +23864,7 @@
         <v>1.250471178121861</v>
       </c>
       <c r="K315">
-        <v>55.5648608290752</v>
+        <v>0.05564860829075202</v>
       </c>
       <c r="L315">
         <v>0.006662936010772474</v>
@@ -23894,13 +23894,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U315">
-        <v>1.000062553431056</v>
+        <v>6.255343105587841E-05</v>
       </c>
       <c r="V315">
-        <v>1.000104184030672</v>
+        <v>0.0001041840306721387</v>
       </c>
       <c r="W315">
-        <v>0.9993755853886981</v>
+        <v>-0.0006244146113019156</v>
       </c>
     </row>
     <row r="316" spans="1:23">
@@ -23935,7 +23935,7 @@
         <v>1.048132369417041</v>
       </c>
       <c r="K316">
-        <v>51.17503072886692</v>
+        <v>0.01175030728866922</v>
       </c>
       <c r="L316">
         <v>0.006545105530976318</v>
@@ -23965,13 +23965,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U316">
-        <v>1.000041699678913</v>
+        <v>4.169967891254345E-05</v>
       </c>
       <c r="V316">
-        <v>1.000020834635498</v>
+        <v>2.083463549795717E-05</v>
       </c>
       <c r="W316">
-        <v>0.9993751952514838</v>
+        <v>-0.0006248047485162278</v>
       </c>
     </row>
     <row r="317" spans="1:23">
@@ -24006,7 +24006,7 @@
         <v>1.133295555668635</v>
       </c>
       <c r="K317">
-        <v>53.12416990966018</v>
+        <v>0.03124169909660179</v>
       </c>
       <c r="L317">
         <v>0.006303818437855677</v>
@@ -24036,13 +24036,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U317">
-        <v>1.000062546910183</v>
+        <v>6.254691018270364E-05</v>
       </c>
       <c r="V317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W317">
-        <v>1.000312597686777</v>
+        <v>0.0003125976867772717</v>
       </c>
     </row>
     <row r="318" spans="1:23">
@@ -24077,7 +24077,7 @@
         <v>1.402231933305197</v>
       </c>
       <c r="K318">
-        <v>58.37204617357183</v>
+        <v>0.08372046173571834</v>
       </c>
       <c r="L318">
         <v>0.006321754337412624</v>
@@ -24107,13 +24107,13 @@
         <v>0.046875</v>
       </c>
       <c r="U318">
-        <v>1.000114662163571</v>
+        <v>0.0001146621635705891</v>
       </c>
       <c r="V318">
-        <v>1.0000833368057</v>
+        <v>8.333680570005164E-05</v>
       </c>
       <c r="W318">
-        <v>1.0009375</v>
+        <v>0.0009375000000000355</v>
       </c>
     </row>
     <row r="319" spans="1:23">
@@ -24148,7 +24148,7 @@
         <v>1.496595574581147</v>
       </c>
       <c r="K319">
-        <v>59.9454549154294</v>
+        <v>0.09945454915429397</v>
       </c>
       <c r="L319">
         <v>0.006586361097783458</v>
@@ -24178,13 +24178,13 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="U319">
-        <v>1.000114649017666</v>
+        <v>0.0001146490176664461</v>
       </c>
       <c r="V319">
-        <v>1.000145827257198</v>
+        <v>0.0001458272571976948</v>
       </c>
       <c r="W319">
-        <v>1.000312207305651</v>
+        <v>0.0003122073056507357</v>
       </c>
     </row>
     <row r="320" spans="1:23">
@@ -24219,7 +24219,7 @@
         <v>1.361370445753022</v>
       </c>
       <c r="K320">
-        <v>57.65171018386706</v>
+        <v>0.07651710183867055</v>
       </c>
       <c r="L320">
         <v>0.006845633707973703</v>
@@ -24249,13 +24249,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U320">
-        <v>1.000104214431614</v>
+        <v>0.0001042144316141247</v>
       </c>
       <c r="V320">
-        <v>1.000104147139078</v>
+        <v>0.0001041471390781368</v>
       </c>
       <c r="W320">
-        <v>0.9996878901373284</v>
+        <v>-0.0003121098626716057</v>
       </c>
     </row>
     <row r="321" spans="1:23">
@@ -24290,7 +24290,7 @@
         <v>1.361370445753022</v>
       </c>
       <c r="K321">
-        <v>57.65171018386706</v>
+        <v>0.07651710183867055</v>
       </c>
       <c r="L321">
         <v>0.00706017993123981</v>
@@ -24320,13 +24320,13 @@
         <v>0.04687500000002842</v>
       </c>
       <c r="U321">
-        <v>1.000093783214889</v>
+        <v>9.378321488884289E-05</v>
       </c>
       <c r="V321">
-        <v>1.000062481776149</v>
+        <v>6.248177614853745E-05</v>
       </c>
       <c r="W321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:23">
@@ -24361,7 +24361,7 @@
         <v>1.237478415691594</v>
       </c>
       <c r="K322">
-        <v>55.30683143189542</v>
+        <v>0.0530683143189542</v>
       </c>
       <c r="L322">
         <v>0.007094380293508612</v>
@@ -24391,13 +24391,13 @@
         <v>0.03437499999998295</v>
       </c>
       <c r="U322">
-        <v>1.000093774420422</v>
+        <v>9.377442042213247E-05</v>
       </c>
       <c r="V322">
-        <v>1.000041651914947</v>
+        <v>4.165191494687193E-05</v>
       </c>
       <c r="W322">
-        <v>0.9996877926943489</v>
+        <v>-0.0003122073056510688</v>
       </c>
     </row>
     <row r="323" spans="1:23">
@@ -24432,7 +24432,7 @@
         <v>1.12929723647077</v>
       </c>
       <c r="K323">
-        <v>53.0361481303821</v>
+        <v>0.03036148130382099</v>
       </c>
       <c r="L323">
         <v>0.006877484996030232</v>
@@ -24462,13 +24462,13 @@
         <v>0.03125</v>
       </c>
       <c r="U323">
-        <v>1.000093765627604</v>
+        <v>9.376562760432527E-05</v>
       </c>
       <c r="V323">
-        <v>1.000020825090068</v>
+        <v>2.082509006839928E-05</v>
       </c>
       <c r="W323">
-        <v>0.999687695190506</v>
+        <v>-0.0003123048094939573</v>
       </c>
     </row>
     <row r="324" spans="1:23">
@@ -24503,7 +24503,7 @@
         <v>1.22131898331632</v>
       </c>
       <c r="K324">
-        <v>54.98170197478576</v>
+        <v>0.04981701974785757</v>
       </c>
       <c r="L324">
         <v>0.006611091457364448</v>
@@ -24533,13 +24533,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U324">
-        <v>1.000062504557624</v>
+        <v>6.250455762413232E-05</v>
       </c>
       <c r="V324">
-        <v>1.000083298625573</v>
+        <v>8.329862557276968E-05</v>
       </c>
       <c r="W324">
-        <v>1.000312402374258</v>
+        <v>0.0003124023742580029</v>
       </c>
     </row>
     <row r="325" spans="1:23">
@@ -24574,7 +24574,7 @@
         <v>1.705643966714119</v>
       </c>
       <c r="K325">
-        <v>63.04022213186998</v>
+        <v>0.1304022213186998</v>
       </c>
       <c r="L325">
         <v>0.006876649775062109</v>
@@ -24604,13 +24604,13 @@
         <v>0.05937499999998863</v>
       </c>
       <c r="U325">
-        <v>1.000114584526922</v>
+        <v>0.0001145845269221457</v>
       </c>
       <c r="V325">
-        <v>1.000124937531234</v>
+        <v>0.0001249375312342149</v>
       </c>
       <c r="W325">
-        <v>1.00156152404747</v>
+        <v>0.001561524047470231</v>
       </c>
     </row>
     <row r="326" spans="1:23">
@@ -24645,7 +24645,7 @@
         <v>1.211521678756434</v>
       </c>
       <c r="K326">
-        <v>54.78226555019292</v>
+        <v>0.04782265550192921</v>
       </c>
       <c r="L326">
         <v>0.006967182958890038</v>
@@ -24675,13 +24675,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U326">
-        <v>1.000052077908551</v>
+        <v>5.207790855110694E-05</v>
       </c>
       <c r="V326">
-        <v>1.000041640641266</v>
+        <v>4.164064126577216E-05</v>
       </c>
       <c r="W326">
-        <v>0.9987527284066106</v>
+        <v>-0.001247271593389443</v>
       </c>
     </row>
     <row r="327" spans="1:23">
@@ -24716,7 +24716,7 @@
         <v>1.287758093611501</v>
       </c>
       <c r="K327">
-        <v>56.28908481222419</v>
+        <v>0.06289084812224188</v>
       </c>
       <c r="L327">
         <v>0.007034327730637988</v>
@@ -24746,13 +24746,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U327">
-        <v>1.000052075196584</v>
+        <v>5.207519658378956E-05</v>
       </c>
       <c r="V327">
-        <v>1.00008327781479</v>
+        <v>8.327781479011698E-05</v>
       </c>
       <c r="W327">
-        <v>1.000312207305651</v>
+        <v>0.0003122073056507357</v>
       </c>
     </row>
     <row r="328" spans="1:23">
@@ -24787,7 +24787,7 @@
         <v>1.368006951353722</v>
       </c>
       <c r="K328">
-        <v>57.77039423687803</v>
+        <v>0.07770394236878031</v>
       </c>
       <c r="L328">
         <v>0.007171163579688297</v>
@@ -24817,13 +24817,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U328">
-        <v>1.000062486981879</v>
+        <v>6.248698187882873E-05</v>
       </c>
       <c r="V328">
-        <v>1.000083270880173</v>
+        <v>8.327088017323625E-05</v>
       </c>
       <c r="W328">
-        <v>1.000312109862672</v>
+        <v>0.0003121098626717167</v>
       </c>
     </row>
     <row r="329" spans="1:23">
@@ -24858,7 +24858,7 @@
         <v>1.368006951353722</v>
       </c>
       <c r="K329">
-        <v>57.77039423687803</v>
+        <v>0.07770394236878031</v>
       </c>
       <c r="L329">
         <v>0.007315335147224763</v>
@@ -24888,13 +24888,13 @@
         <v>0.04062499999997726</v>
       </c>
       <c r="U329">
-        <v>1.00008331077</v>
+        <v>8.331076999978926E-05</v>
       </c>
       <c r="V329">
-        <v>1.000041631973356</v>
+        <v>4.163197335560476E-05</v>
       </c>
       <c r="W329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:23">
@@ -24929,7 +24929,7 @@
         <v>1.45692535328416</v>
       </c>
       <c r="K330">
-        <v>59.29872274453496</v>
+        <v>0.0929872274453496</v>
       </c>
       <c r="L330">
         <v>0.007541849509235967</v>
@@ -24959,13 +24959,13 @@
         <v>0.05625000000000568</v>
       </c>
       <c r="U330">
-        <v>1.000104129787367</v>
+        <v>0.0001041297873669578</v>
       </c>
       <c r="V330">
-        <v>1.000104075600516</v>
+        <v>0.0001040756005163956</v>
       </c>
       <c r="W330">
-        <v>1.000312012480499</v>
+        <v>0.0003120124804993907</v>
       </c>
     </row>
     <row r="331" spans="1:23">
@@ -25000,7 +25000,7 @@
         <v>1.332230792185567</v>
       </c>
       <c r="K331">
-        <v>57.12259681371905</v>
+        <v>0.07122596813719051</v>
       </c>
       <c r="L331">
         <v>0.007662527422528594</v>
@@ -25030,13 +25030,13 @@
         <v>0.06875000000002274</v>
       </c>
       <c r="U331">
-        <v>1.000072883261838</v>
+        <v>7.288326183840788E-05</v>
       </c>
       <c r="V331">
-        <v>1.000124877723895</v>
+        <v>0.0001248777238953558</v>
       </c>
       <c r="W331">
-        <v>0.9996880848409232</v>
+        <v>-0.0003119151590768032</v>
       </c>
     </row>
     <row r="332" spans="1:23">
@@ -25071,7 +25071,7 @@
         <v>1.128832975051967</v>
       </c>
       <c r="K332">
-        <v>53.02590613171102</v>
+        <v>0.0302590613171102</v>
       </c>
       <c r="L332">
         <v>0.007455969295412195</v>
@@ -25101,13 +25101,13 @@
         <v>0.06249999999997158</v>
       </c>
       <c r="U332">
-        <v>1.000031233407252</v>
+        <v>3.123340725230683E-05</v>
       </c>
       <c r="V332">
-        <v>1.000062431065698</v>
+        <v>6.243106569825407E-05</v>
       </c>
       <c r="W332">
-        <v>0.9993759750390016</v>
+        <v>-0.0006240249609984483</v>
       </c>
     </row>
     <row r="333" spans="1:23">
@@ -25142,7 +25142,7 @@
         <v>1.128832975051967</v>
       </c>
       <c r="K333">
-        <v>53.02590613171102</v>
+        <v>0.0302590613171102</v>
       </c>
       <c r="L333">
         <v>0.007037217680970746</v>
@@ -25172,13 +25172,13 @@
         <v>0.02812500000001705</v>
       </c>
       <c r="U333">
-        <v>1.000041643242343</v>
+        <v>4.164324234290362E-05</v>
       </c>
       <c r="V333">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:23">
@@ -25213,7 +25213,7 @@
         <v>1.128832975051968</v>
       </c>
       <c r="K334">
-        <v>53.02590613171103</v>
+        <v>0.03025906131711031</v>
       </c>
       <c r="L334">
         <v>0.006491008545147899</v>
@@ -25243,13 +25243,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U334">
-        <v>1.000062462262383</v>
+        <v>6.246226238282304E-05</v>
       </c>
       <c r="V334">
-        <v>0.999979190943899</v>
+        <v>-2.080905610102324E-05</v>
       </c>
       <c r="W334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:23">
@@ -25284,7 +25284,7 @@
         <v>1.036543233504937</v>
       </c>
       <c r="K335">
-        <v>50.89718776659716</v>
+        <v>0.008971877665971628</v>
       </c>
       <c r="L335">
         <v>0.005765053806984846</v>
@@ -25314,13 +25314,13 @@
         <v>0.02187500000002274</v>
       </c>
       <c r="U335">
-        <v>1.000041638907395</v>
+        <v>4.163890739516951E-05</v>
       </c>
       <c r="V335">
-        <v>0.9999791905108728</v>
+        <v>-2.080948912719371E-05</v>
       </c>
       <c r="W335">
-        <v>0.9996877926943489</v>
+        <v>-0.0003122073056510688</v>
       </c>
     </row>
     <row r="336" spans="1:23">
@@ -25355,7 +25355,7 @@
         <v>0.8843323684513018</v>
       </c>
       <c r="K336">
-        <v>46.93080601158056</v>
+        <v>-0.03069193988419444</v>
       </c>
       <c r="L336">
         <v>0.004728075323452462</v>
@@ -25385,13 +25385,13 @@
         <v>2.842170943040401E-14</v>
       </c>
       <c r="U336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V336">
-        <v>0.9999375702334874</v>
+        <v>-6.242976651260612E-05</v>
       </c>
       <c r="W336">
-        <v>0.9993753903810119</v>
+        <v>-0.0006246096189881367</v>
       </c>
     </row>
     <row r="337" spans="1:23">
@@ -25426,7 +25426,7 @@
         <v>0.7659386613183726</v>
       </c>
       <c r="K337">
-        <v>43.37289160126073</v>
+        <v>-0.06627108398739268</v>
       </c>
       <c r="L337">
         <v>0.003324168998568815</v>
@@ -25456,13 +25456,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U337">
-        <v>0.9999791814131657</v>
+        <v>-2.081858683433691E-05</v>
       </c>
       <c r="V337">
-        <v>0.9999167551143577</v>
+        <v>-8.324488564226407E-05</v>
       </c>
       <c r="W337">
-        <v>0.999375</v>
+        <v>-0.0006249999999999867</v>
       </c>
     </row>
     <row r="338" spans="1:23">
@@ -25497,7 +25497,7 @@
         <v>0.7659386613183725</v>
       </c>
       <c r="K338">
-        <v>43.37289160126073</v>
+        <v>-0.06627108398739273</v>
       </c>
       <c r="L338">
         <v>0.001775379961397391</v>
@@ -25527,13 +25527,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U338">
-        <v>0.9999791809797431</v>
+        <v>-2.0819020256857E-05</v>
       </c>
       <c r="V338">
-        <v>0.9999375611380522</v>
+        <v>-6.243886194778892E-05</v>
       </c>
       <c r="W338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:23">
@@ -25568,7 +25568,7 @@
         <v>0.9142812615761402</v>
       </c>
       <c r="K339">
-        <v>47.76107251989495</v>
+        <v>-0.02238927480105057</v>
       </c>
       <c r="L339">
         <v>0.0004584660452279972</v>
@@ -25598,13 +25598,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U339">
-        <v>1.000020819453697</v>
+        <v>2.081945369747373E-05</v>
       </c>
       <c r="V339">
-        <v>0.9999583714927983</v>
+        <v>-4.162850720168532E-05</v>
       </c>
       <c r="W339">
-        <v>1.000625390869293</v>
+        <v>0.0006253908692932519</v>
       </c>
     </row>
     <row r="340" spans="1:23">
@@ -25639,7 +25639,7 @@
         <v>0.9923563143434084</v>
       </c>
       <c r="K340">
-        <v>49.80817473256257</v>
+        <v>-0.001918252674374288</v>
       </c>
       <c r="L340">
         <v>-0.0005220472903124528</v>
@@ -25669,13 +25669,13 @@
         <v>-0.1031250000000057</v>
       </c>
       <c r="U340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V340">
-        <v>0.9998751092793806</v>
+        <v>-0.0001248907206193861</v>
       </c>
       <c r="W340">
-        <v>1.0003125</v>
+        <v>0.0003125000000001599</v>
       </c>
     </row>
     <row r="341" spans="1:23">
@@ -25710,7 +25710,7 @@
         <v>0.9923563143434085</v>
       </c>
       <c r="K341">
-        <v>49.80817473256258</v>
+        <v>-0.001918252674374232</v>
       </c>
       <c r="L341">
         <v>-0.001234403869506793</v>
@@ -25740,13 +25740,13 @@
         <v>-0.09687499999998295</v>
       </c>
       <c r="U341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V341">
-        <v>0.9999583645599133</v>
+        <v>-4.163544008672915E-05</v>
       </c>
       <c r="W341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:23">
@@ -25781,7 +25781,7 @@
         <v>0.9133432175002418</v>
       </c>
       <c r="K342">
-        <v>47.73546163314666</v>
+        <v>-0.02264538366853336</v>
       </c>
       <c r="L342">
         <v>-0.001848140934782804</v>
@@ -25811,13 +25811,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V342">
-        <v>0.9999167256526628</v>
+        <v>-8.32743473372366E-05</v>
       </c>
       <c r="W342">
-        <v>0.9996875976257419</v>
+        <v>-0.0003124023742581139</v>
       </c>
     </row>
     <row r="343" spans="1:23">
@@ -25852,7 +25852,7 @@
         <v>0.9971555333845564</v>
       </c>
       <c r="K343">
-        <v>49.92878705318901</v>
+        <v>-0.00071212946810989</v>
       </c>
       <c r="L343">
         <v>-0.002242596949487391</v>
@@ -25882,13 +25882,13 @@
         <v>-0.1031250000000057</v>
       </c>
       <c r="U343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V343">
-        <v>0.9999167187174683</v>
+        <v>-8.328128253165534E-05</v>
       </c>
       <c r="W343">
-        <v>1.0003125</v>
+        <v>0.0003125000000001599</v>
       </c>
     </row>
     <row r="344" spans="1:23">
@@ -25923,7 +25923,7 @@
         <v>0.9971555333845565</v>
       </c>
       <c r="K344">
-        <v>49.92878705318902</v>
+        <v>-0.0007121294681098345</v>
       </c>
       <c r="L344">
         <v>-0.002470909817289263</v>
@@ -25953,13 +25953,13 @@
         <v>-0.08437500000002274</v>
       </c>
       <c r="U344">
-        <v>0.9999791809797429</v>
+        <v>-2.081902025707905E-05</v>
       </c>
       <c r="V344">
-        <v>0.9999167117811186</v>
+        <v>-8.328821888137217E-05</v>
       </c>
       <c r="W344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:23">
@@ -25994,7 +25994,7 @@
         <v>1.275756029398793</v>
       </c>
       <c r="K345">
-        <v>56.05855869074951</v>
+        <v>0.06058558690749505</v>
       </c>
       <c r="L345">
         <v>-0.002233871520889227</v>
@@ -26024,13 +26024,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U345">
-        <v>1.000031229180546</v>
+        <v>3.122918054643264E-05</v>
       </c>
       <c r="V345">
-        <v>0.9999583524218065</v>
+        <v>-4.164757819347109E-05</v>
       </c>
       <c r="W345">
-        <v>1.000937207122774</v>
+        <v>0.0009372071227740086</v>
       </c>
     </row>
     <row r="346" spans="1:23">
@@ -26065,7 +26065,7 @@
         <v>1.275756029398793</v>
       </c>
       <c r="K346">
-        <v>56.05855869074951</v>
+        <v>0.06058558690749505</v>
       </c>
       <c r="L346">
         <v>-0.001721853284902331</v>
@@ -26095,13 +26095,13 @@
         <v>2.842170943040401E-14</v>
       </c>
       <c r="U346">
-        <v>1.000052047008858</v>
+        <v>5.204700885808045E-05</v>
       </c>
       <c r="V346">
-        <v>0.9999791753436068</v>
+        <v>-2.082465639319242E-05</v>
       </c>
       <c r="W346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:23">
@@ -26136,7 +26136,7 @@
         <v>1.378655566246196</v>
       </c>
       <c r="K347">
-        <v>57.95944506677274</v>
+        <v>0.07959445066772741</v>
       </c>
       <c r="L347">
         <v>-0.0009558623232162635</v>
@@ -26166,13 +26166,13 @@
         <v>0.03125000000002842</v>
       </c>
       <c r="U347">
-        <v>1.000052044300109</v>
+        <v>5.204430010863348E-05</v>
       </c>
       <c r="V347">
-        <v>1.000041650180137</v>
+        <v>4.16501801370206E-05</v>
       </c>
       <c r="W347">
-        <v>1.000312109862672</v>
+        <v>0.0003121098626717167</v>
       </c>
     </row>
     <row r="348" spans="1:23">
@@ -26207,7 +26207,7 @@
         <v>1.48697086819083</v>
       </c>
       <c r="K348">
-        <v>59.79044174620914</v>
+        <v>0.09790441746209144</v>
       </c>
       <c r="L348">
         <v>3.239356534450266E-05</v>
@@ -26237,13 +26237,13 @@
         <v>0.05312500000002274</v>
       </c>
       <c r="U348">
-        <v>1.000031224954984</v>
+        <v>3.122495498386613E-05</v>
       </c>
       <c r="V348">
-        <v>1.000062472668208</v>
+        <v>6.247266820769148E-05</v>
       </c>
       <c r="W348">
-        <v>1.000312012480499</v>
+        <v>0.0003120124804993907</v>
       </c>
     </row>
     <row r="349" spans="1:23">
@@ -26278,7 +26278,7 @@
         <v>1.210856564256023</v>
       </c>
       <c r="K349">
-        <v>54.76866223854233</v>
+        <v>0.04768662238542332</v>
       </c>
       <c r="L349">
         <v>0.0008647557716273882</v>
@@ -26308,13 +26308,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V349">
-        <v>1.000020822921872</v>
+        <v>2.082292187233215E-05</v>
       </c>
       <c r="W349">
-        <v>0.9993761696818464</v>
+        <v>-0.0006238303181536065</v>
       </c>
     </row>
     <row r="350" spans="1:23">
@@ -26349,7 +26349,7 @@
         <v>1.012877310582493</v>
       </c>
       <c r="K350">
-        <v>50.31987321121839</v>
+        <v>0.003198732112183911</v>
       </c>
       <c r="L350">
         <v>0.001319021009026887</v>
@@ -26379,13 +26379,13 @@
         <v>0.08437499999996589</v>
       </c>
       <c r="U350">
-        <v>0.9999895920066613</v>
+        <v>-1.040799333873466E-05</v>
       </c>
       <c r="V350">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W350">
-        <v>0.9993757802746567</v>
+        <v>-0.0006242197253433224</v>
       </c>
     </row>
     <row r="351" spans="1:23">
@@ -26420,7 +26420,7 @@
         <v>0.8641494780257872</v>
       </c>
       <c r="K351">
-        <v>46.35623313538986</v>
+        <v>-0.03643766864610137</v>
       </c>
       <c r="L351">
         <v>0.001283029823969096</v>
@@ -26450,13 +26450,13 @@
         <v>0.08437499999999432</v>
       </c>
       <c r="U351">
-        <v>0.9999687756950009</v>
+        <v>-3.122430499913342E-05</v>
       </c>
       <c r="V351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W351">
-        <v>0.9993753903810119</v>
+        <v>-0.0006246096189881367</v>
       </c>
     </row>
     <row r="352" spans="1:23">
@@ -26491,7 +26491,7 @@
         <v>0.9414320924065936</v>
       </c>
       <c r="K352">
-        <v>48.49163131117284</v>
+        <v>-0.01508368688827161</v>
       </c>
       <c r="L352">
         <v>0.001061382898519352</v>
@@ -26521,13 +26521,13 @@
         <v>0.08124999999998295</v>
       </c>
       <c r="U352">
-        <v>0.999989591573338</v>
+        <v>-1.040842666200081E-05</v>
       </c>
       <c r="V352">
-        <v>1.000062467464862</v>
+        <v>6.246746486193722E-05</v>
       </c>
       <c r="W352">
-        <v>1.0003125</v>
+        <v>0.0003125000000001599</v>
       </c>
     </row>
     <row r="353" spans="1:23">
@@ -26562,7 +26562,7 @@
         <v>0.8706080247696385</v>
       </c>
       <c r="K353">
-        <v>46.54144605612136</v>
+        <v>-0.03458553943878639</v>
       </c>
       <c r="L353">
         <v>0.0006238089425571507</v>
@@ -26592,13 +26592,13 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="U353">
-        <v>0.9999895914650013</v>
+        <v>-1.040853499867378E-05</v>
       </c>
       <c r="V353">
-        <v>1.000041642375281</v>
+        <v>4.164237528114789E-05</v>
       </c>
       <c r="W353">
-        <v>0.9996875976257419</v>
+        <v>-0.0003124023742581139</v>
       </c>
     </row>
     <row r="354" spans="1:23">
@@ -26633,7 +26633,7 @@
         <v>0.8706080247696384</v>
       </c>
       <c r="K354">
-        <v>46.54144605612135</v>
+        <v>-0.03458553943878651</v>
       </c>
       <c r="L354">
         <v>8.103836368641965E-05</v>
@@ -26663,13 +26663,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U354">
-        <v>0.999979182713325</v>
+        <v>-2.081728667502336E-05</v>
       </c>
       <c r="V354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:23">
@@ -26704,7 +26704,7 @@
         <v>0.7462045416452742</v>
       </c>
       <c r="K355">
-        <v>42.73294014813408</v>
+        <v>-0.07267059851865915</v>
       </c>
       <c r="L355">
         <v>-0.0007186073113469855</v>
@@ -26734,13 +26734,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U355">
-        <v>0.9999063202598051</v>
+        <v>-9.367974019491854E-05</v>
       </c>
       <c r="V355">
-        <v>0.9999375390381012</v>
+        <v>-6.246096189876926E-05</v>
       </c>
       <c r="W355">
-        <v>0.999375</v>
+        <v>-0.0006249999999999867</v>
       </c>
     </row>
     <row r="356" spans="1:23">
@@ -26775,7 +26775,7 @@
         <v>0.7462045416452742</v>
       </c>
       <c r="K356">
-        <v>42.73294014813408</v>
+        <v>-0.07267059851865915</v>
       </c>
       <c r="L356">
         <v>-0.001620316083144164</v>
@@ -26805,13 +26805,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U356">
-        <v>0.9999479508239385</v>
+        <v>-5.204917606149717E-05</v>
       </c>
       <c r="V356">
-        <v>0.9999375351364858</v>
+        <v>-6.246486351424441E-05</v>
       </c>
       <c r="W356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:23">
@@ -26846,7 +26846,7 @@
         <v>0.7462045416452741</v>
       </c>
       <c r="K357">
-        <v>42.73294014813408</v>
+        <v>-0.07267059851865915</v>
       </c>
       <c r="L357">
         <v>-0.002520526855409911</v>
@@ -26876,13 +26876,13 @@
         <v>-0.08750000000003411</v>
       </c>
       <c r="U357">
-        <v>0.999937537737617</v>
+        <v>-6.246226238304509E-05</v>
       </c>
       <c r="V357">
-        <v>0.9999583541562552</v>
+        <v>-4.164584374477531E-05</v>
       </c>
       <c r="W357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:23">
@@ -26917,7 +26917,7 @@
         <v>0.6888053746301537</v>
       </c>
       <c r="K358">
-        <v>40.78654562435895</v>
+        <v>-0.0921345437564105</v>
       </c>
       <c r="L358">
         <v>-0.003467048594208639</v>
@@ -26947,13 +26947,13 @@
         <v>-0.1093750000000284</v>
       </c>
       <c r="U358">
-        <v>0.9999167117811184</v>
+        <v>-8.328821888159421E-05</v>
       </c>
       <c r="V358">
-        <v>0.9999167048436133</v>
+        <v>-8.329515638672014E-05</v>
       </c>
       <c r="W358">
-        <v>0.9996873045653533</v>
+        <v>-0.000312695434646737</v>
       </c>
     </row>
     <row r="359" spans="1:23">
@@ -26988,7 +26988,7 @@
         <v>0.6888053746301537</v>
       </c>
       <c r="K359">
-        <v>40.78654562435895</v>
+        <v>-0.0921345437564105</v>
       </c>
       <c r="L359">
         <v>-0.004368742264545755</v>
@@ -27018,13 +27018,13 @@
         <v>-0.1156249999999943</v>
       </c>
       <c r="U359">
-        <v>0.9999167048436134</v>
+        <v>-8.329515638660911E-05</v>
       </c>
       <c r="V359">
-        <v>0.9999166979049522</v>
+        <v>-8.330209504781028E-05</v>
       </c>
       <c r="W359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:23">
@@ -27059,7 +27059,7 @@
         <v>0.6888053746301536</v>
       </c>
       <c r="K360">
-        <v>40.78654562435894</v>
+        <v>-0.09213454375641061</v>
       </c>
       <c r="L360">
         <v>-0.005169970130283009</v>
@@ -27089,13 +27089,13 @@
         <v>-0.1281249999999829</v>
       </c>
       <c r="U360">
-        <v>0.9999062851430714</v>
+        <v>-9.371485692855064E-05</v>
       </c>
       <c r="V360">
-        <v>0.9998542091889867</v>
+        <v>-0.0001457908110132911</v>
       </c>
       <c r="W360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:23">
@@ -27130,7 +27130,7 @@
         <v>0.6888053746301536</v>
       </c>
       <c r="K361">
-        <v>40.78654562435894</v>
+        <v>-0.09213454375641061</v>
       </c>
       <c r="L361">
         <v>-0.005840507351018319</v>
@@ -27160,13 +27160,13 @@
         <v>-0.1249999999999716</v>
       </c>
       <c r="U361">
-        <v>0.9999166900975767</v>
+        <v>-8.330990242333414E-05</v>
       </c>
       <c r="V361">
-        <v>0.9998541879309267</v>
+        <v>-0.00014581206907327</v>
       </c>
       <c r="W361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:23">
@@ -27201,7 +27201,7 @@
         <v>0.6888053746301538</v>
       </c>
       <c r="K362">
-        <v>40.78654562435896</v>
+        <v>-0.09213454375641045</v>
       </c>
       <c r="L362">
         <v>-0.006367922995489406</v>
@@ -27231,13 +27231,13 @@
         <v>-0.1218750000000171</v>
       </c>
       <c r="U362">
-        <v>0.9999375123673441</v>
+        <v>-6.248763265592761E-05</v>
       </c>
       <c r="V362">
-        <v>0.9998333333333335</v>
+        <v>-0.0001666666666665373</v>
       </c>
       <c r="W362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:23">
@@ -27272,7 +27272,7 @@
         <v>0.6265228001861028</v>
       </c>
       <c r="K363">
-        <v>38.51915264356685</v>
+        <v>-0.1148084735643315</v>
       </c>
       <c r="L363">
         <v>-0.006865628904386213</v>
@@ -27302,13 +27302,13 @@
         <v>-0.1062500000000171</v>
       </c>
       <c r="U363">
-        <v>0.9999270932061284</v>
+        <v>-7.29067938716188E-05</v>
       </c>
       <c r="V363">
-        <v>0.9997916319386563</v>
+        <v>-0.0002083680613437222</v>
       </c>
       <c r="W363">
-        <v>0.9996872067563342</v>
+        <v>-0.0003127932436658432</v>
       </c>
     </row>
     <row r="364" spans="1:23">
@@ -27343,7 +27343,7 @@
         <v>0.8168831170264556</v>
       </c>
       <c r="K364">
-        <v>44.96068620877393</v>
+        <v>-0.05039313791226069</v>
       </c>
       <c r="L364">
         <v>-0.007061163593362951</v>
@@ -27373,13 +27373,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U364">
-        <v>0.9999479199216714</v>
+        <v>-5.208007832857575E-05</v>
       </c>
       <c r="V364">
-        <v>0.9998749531074154</v>
+        <v>-0.0001250468925846349</v>
       </c>
       <c r="W364">
-        <v>1.000625782227785</v>
+        <v>0.0006257822277846437</v>
       </c>
     </row>
     <row r="365" spans="1:23">
@@ -27414,7 +27414,7 @@
         <v>1.017262397911037</v>
       </c>
       <c r="K365">
-        <v>50.42786694306385</v>
+        <v>0.004278669430638593</v>
       </c>
       <c r="L365">
         <v>-0.00680792349216201</v>
@@ -27444,13 +27444,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U365">
-        <v>0.9999791668836783</v>
+        <v>-2.083311632172791E-05</v>
       </c>
       <c r="V365">
-        <v>0.999958312489578</v>
+        <v>-4.168751042199492E-05</v>
       </c>
       <c r="W365">
-        <v>1.000625390869293</v>
+        <v>0.0006253908692932519</v>
       </c>
     </row>
   </sheetData>
